--- a/crawling_data/6_10.xlsx
+++ b/crawling_data/6_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>paths</t>
   </si>
@@ -26,13 +26,346 @@
   </si>
   <si>
     <t>contents</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004582422</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002942712</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004633104</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010472110</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004538863</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010483106</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002672234</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=100&amp;oid=016&amp;aid=0001830375</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002942921</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=277&amp;aid=0004898192</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=001&amp;aid=0012343848</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010476203</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010464067</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005322796</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002186427</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002942710</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002941403</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010479381</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010479497</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=001&amp;aid=0012296173</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005310578</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005311188</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=018&amp;aid=0004914627</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005306793</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002220884</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004576699</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002941208</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002670474</t>
+  </si>
+  <si>
+    <t>현대오토에버도 SW 인력 500명 뽑는다</t>
+  </si>
+  <si>
+    <t>[신SW상품대상 3·4월 수상작]심사평</t>
+  </si>
+  <si>
+    <t>김봉진 "교육 불평등 해소위해 노트북 써달라"</t>
+  </si>
+  <si>
+    <t>울산 소프트웨어 교육의 산실 'SW미래채움 센터' 개소</t>
+  </si>
+  <si>
+    <t>순천향대, 소프트웨어 중심대학 선정...AI·SW 융·복합 인재양성</t>
+  </si>
+  <si>
+    <t>배재대 AI·SW사업단, 외국인 유학생 전주기적 SW 교육</t>
+  </si>
+  <si>
+    <t>SW협회-네이버클라우드, 중소 SaaS기업 글로벌 진출 돕는다</t>
+  </si>
+  <si>
+    <t>조선대 SW중심대학사업단-광주남구청 코딩교실 운영</t>
+  </si>
+  <si>
+    <t>한동대, SW중심대학 창업팀 '이노폴리스캠퍼스사업'에 선정</t>
+  </si>
+  <si>
+    <t>모아소프트 “과학기술정보통신부 선정 SW 전문인력 양성기관(SWETI) 지정”</t>
+  </si>
+  <si>
+    <t>성대 등 9곳 SW중심대학 선정…AI대학원은 서울대·중앙대에</t>
+  </si>
+  <si>
+    <t>포항테크노파크, SW 전문인재 양성기틀 마련한다</t>
+  </si>
+  <si>
+    <t>선문대, 충남교육청과 'AI·SW 인재' 발굴 협약</t>
+  </si>
+  <si>
+    <t>충북교육연구정보원, 소프트웨어 교육용 교구 대여</t>
+  </si>
+  <si>
+    <t>포항TP, 2021년 ‘SW전문인력양성기관’ 선정</t>
+  </si>
+  <si>
+    <t>[신SW상품대상 3·4월 수상작]블루커뮤니케이션 '어썸코드'</t>
+  </si>
+  <si>
+    <t>[한국정보과학회 SWCS2021 특별세션]"초·중 SW교육 확대, 관심 높이고 AI교육 연계해야"</t>
+  </si>
+  <si>
+    <t>폴리텍 분당기술교육원 10일까지 클라우드 훈련생 모집</t>
+  </si>
+  <si>
+    <t>[교육소식] 동신대, 전남도 대학·지역연계협력 지원사업 선정 등</t>
+  </si>
+  <si>
+    <t>네이버, 세종시 학생·교사 대상 AI·SW 교육</t>
+  </si>
+  <si>
+    <t>'디지털 혁신' 이끌 임베디드SW 경진대회 개최…5월24일까지 접수</t>
+  </si>
+  <si>
+    <t>배재대, SW버스 활용 지역 학생 대상 4차 산업혁명 체험 교육</t>
+  </si>
+  <si>
+    <t>성균관대 소프트웨어융합대학, 과기부 SW중심대학사업 선정</t>
+  </si>
+  <si>
+    <t>충남대, 과기부 SW중심대학 2단계 사업 선정…6년간 110억 지원</t>
+  </si>
+  <si>
+    <t>SW 정책, B학점...'디지털 뉴딜'은 최선·디테일은 다소 미흡</t>
+  </si>
+  <si>
+    <t>삼육대, 'SW중심대학' 신규 선정...최대 60억 원 지원</t>
+  </si>
+  <si>
+    <t>인천TP, 섬마을 학생 찾아가는 SW교육 인기</t>
+  </si>
+  <si>
+    <t>SW 산업현장 찾은 조경식 과기부 차관 “민관협력 SW 인재양성 추진”</t>
+  </si>
+  <si>
+    <t>2021.05.04. 오전 10:08</t>
+  </si>
+  <si>
+    <t>2021.05.03. 오후 4:02</t>
+  </si>
+  <si>
+    <t>2021.05.04. 오후 5:53</t>
+  </si>
+  <si>
+    <t>2021.04.28. 오후 4:44</t>
+  </si>
+  <si>
+    <t>2021.04.29. 오후 4:09</t>
+  </si>
+  <si>
+    <t>2021.05.05. 오전 10:21</t>
+  </si>
+  <si>
+    <t>2021.05.09. 오전 10:43</t>
+  </si>
+  <si>
+    <t>2021.05.03. 오후 1:10</t>
+  </si>
+  <si>
+    <t>2021.05.05. 오전 10:02</t>
+  </si>
+  <si>
+    <t>2021.05.06. 오후 3:06</t>
+  </si>
+  <si>
+    <t>2021.04.21. 오후 12:00</t>
+  </si>
+  <si>
+    <t>2021.04.30. 오후 2:21</t>
+  </si>
+  <si>
+    <t>2021.04.23. 오후 4:38</t>
+  </si>
+  <si>
+    <t>2021.04.30. 오전 8:25</t>
+  </si>
+  <si>
+    <t>2021.04.29. 오후 6:00</t>
+  </si>
+  <si>
+    <t>2021.04.27. 오전 8:22</t>
+  </si>
+  <si>
+    <t>2021.05.03. 오후 12:00</t>
+  </si>
+  <si>
+    <t>2021.05.03. 오후 12:57</t>
+  </si>
+  <si>
+    <t>2021.03.31. 오전 9:43</t>
+  </si>
+  <si>
+    <t>2021.04.25. 오전 11:00</t>
+  </si>
+  <si>
+    <t>2021.04.25. 오후 4:26</t>
+  </si>
+  <si>
+    <t>2021.04.28. 오후 4:25</t>
+  </si>
+  <si>
+    <t>2021.04.22. 오후 3:53</t>
+  </si>
+  <si>
+    <t>2021.05.02. 오전 11:56</t>
+  </si>
+  <si>
+    <t>2021.04.22. 오전 10:37</t>
+  </si>
+  <si>
+    <t>2021.04.26. 오전 11:12</t>
+  </si>
+  <si>
+    <t>2021.04.28. 오후 6:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 이동우 기자] 현대오토에버가 핵심 인력 확보를 위해 상반기 대졸 신입사원 공개채용을 실시한다고 4일 밝혔다. 이번 공채는 현대자동차그룹 내 IT 3사인 현대오토에버, 현대엠엔소프트, 현대오트론의 합병법인 출범 이후 처음이다. 오는 11일까지 진행된다. 미래 자동차 IT 기술을 선도하기 위해 컴퓨터공학, 공간정보공학, 통계학 등 다양한 공학 분야의 인재를 모집한다. 채용 분야는 크게 △ICT(정보통신기술) △차량 전장 소프트웨어 R&amp;D △차량 응용 소프트웨어 R&amp;D △IT 영업·사업 기획 부문이다.자격 요건은 기졸업자 또는 2021년 8월 졸업 예정자다. ICT 분야 연구·개발(R&amp;D) 직무를 제외하고 전공에 대한 제한은 없다. 기본적인 개발 역량과 ICT 분야에 대한 꾸준한 관심과 열정을 갖춘 사람이라면 누구나 지원할 수 있다.채용 프로세스는 모두 비대면으로 진행된다. 서류 전형 합격자 대상 인성 검사 및 직무 역량 테스트를 시행하며, 1·2차 면접을 거쳐 최종 선발된 인원은 2021년 8월 안에 입사할 예정이다.이번 채용을 시작으로 올해 말까지 대규모 공채와 수시 채용을 통해 약 500여명의 소프트웨어 전문 인력을 확보해 R&amp;D 역량을 강화한다는 계획이다. 현대오토에버는 신규 비즈니스 대응력 강화 및 디지털 전환 가속을 지원하기 위해 조직 체계와 인사 제도의 개선도 추진한다는 계획이다. 모든 직원의 호칭을 '책임'으로 통일하고 사내외 신기술, 직무 관련 교육을 강화해 수평적 문화에서 전문가로 성장할 수 있는 발판을 제공한다. 유연 근로제와 재택근무 등으로 일에 몰입할 수 있는 환경도 만든다. 현대오토에버 관계자는 "글로벌 최고 기술력을 보유한 업체와 협업 등을 통해 모빌리티 소프트웨어 전문 기업으로 도약할 것"이라고 말했다. 이동우 기자 canelo@mt.co.kr▶부동산 투자는 [부릿지]▶주식 투자는 [부꾸미TALK]▶부자되는 뉴스, 머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>게티이미지뱅크일반소프트웨어(SW) 부문 수상제품인 이파피루스의 '모터센스'는 산업용 모터 고장 예측 솔루션이다.이 제품은 사물인터넷(IoT) 무선 센서를 모터에 부착해 진동, 온도 등의 모터 환경을 클라우드로 전송한 후, 인공지능(AI) 분석을 통해 모터 고장을 예측한다. PC와 모바일로 모터의 실시간 상태와 고장 예상 알림 서비스를 제공한다.센서는 내장 배터리로 작동되고 가동 중인 모터에도 간편하게 부착 가능해 가동 중단으로 인한 생산 손실이 없다. 와이파이를 통해 모터 정보를 전송하므로 별도 서버나 통신망을 구축할 필요가 없다.비싼 비용 때문에 도입하기 어려웠던 예지 정비 솔루션을 월 구독형 방식으로 도입해 생산 효율을 향상시킬 수 있다는 점도 주목할 만한 부분이다.멀티미디어&amp;서비스SW 부문 수상제품인 블루커뮤니케이션의 '어썸코드'는 SW 코딩 교육 솔루션이다.이 제품은 복잡한 코드를 입력하지 않고 쉽고 재미있게 코딩을 배울 수 있도록 스크래치, 엔트리와 같은 블록코딩 기능을 제공한다. 자체 개발한 각종 센서와 부품을 이용해 로봇, 자율주행, IoT 분야 교육이 가능하다.초급자를 위한 자동 환경설정과 업데이트 기능을 지원한다. 코드 에디터를 통해 소스코드를 파이썬으로 확인한 후 직접 코드를 수정해 여러 가지 형태로 동작시킬 수 있다.Hi 서울어워드 우수상품 선정, 미국, 중국, 인도네시아, 베트남 등 해외 시장에도 진출하고 있어 해당 분야에서 선전이 기대된다.김정국 한국외대 컴퓨터·전자시스템공학부 명예교수김정국 한국외국어대학교 컴퓨터 및 정보통신공학부 교수.▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>저소득층 1만명에 노트북 기부SW탑재한 삼성·LG 신형 제품'더기빙플레지' 첫 이행 '훈훈'  푸드테크(음식+기술) 서비스 '배달의민족' 운영사인 우아한형제들 김봉진 의장(사진)이 저소득층 학생 1만명에게 고성능 노트북을 지급한다. 앞서 지난 2월 공식 참여한 세계적 기부활동인 '더 기빙 플레지' 일환이다.   우아한형제들은 "김 의장이 지난 2월 발표한 '개인 재산 절반 이상 사회 환원 약속'의 첫번째 이행 방안으로 약 두 달에 걸쳐 전국 저소득층 학생 1만명에게 고성능 노트북을 순차적으로 지급할 예정"이라며 4일 이같이 밝혔다.   우아한형제들과 독일 딜리버리히어로(DH) 인수합병(M&amp;A) 작업 완료 등 싱가포르 기반 합작회사(조인트벤처, JV)인 '우아DH아시아' 설립을 위해 싱가포르에 머물고 있는 김 의장은 이날 희망브리지 전국재해구호협회와 온라인으로 '교육 불평등 해소를 위한 고성능 노트북 1만대 전달식'을 진행했다.   김 의장은 이날 전달식에서 "코로나 팬데믹 시대에 노트북은 아이들에게 꼭 필요한 학습도구라고 생각한다"며 "노트북이 아이들에게 신분 표시가 아니라 공부에 자신감을 불어넣어 주는 한편, 아이들이 어려운 환경에서도 희망을 가지고 열심히 공부했으면 좋겠다"고 강조했다. 이어 "친구들이 보는 앞에서 노트북을 나눠주면 낙인효과가 생길까 우려됐는데, 아이들이 직접 집에서 받을 수 있도록 배려줘서 감사하다"고 덧붙였다.   김 의장은 또 이번 고성능 노트북 확보에 선제적 도움을 준 업체에 감사인사를 전했다. 삼성전자와 LG전자가 올해 출시한 신형 노트북을 각각 5000대씩 구매했으며 학업에 필요한 소프트웨어(SW) 라이선스(MS오피스, 한컴오피스)도 구입해 함께 지급됐다. 총 지원액은 약 150억원 규모이다. 그는 "삼성전자와 LG전자에도 감사한 마음을 전한다"며 "CPU와 램 수급이 전 세계적으로 어려움이 많다고 하는데 이번 기부를 위해 우선적으로 많은 도움을 준 것에 대해 감사하다"고 말했다.   김 의장과 희망브리지는 지난달 28일 전국 17개 시·도교육청 협조를 받아 노트북을 지원할 대상 학생을 모집 및 선정했다. 희망브리지 송필호 회장은 "전 재산의 절반 이상을 기부하기로 한 김 의장의 첫 여정에 희망브리지가 함께 하게 된 것은 매우 의미 깊다"며 "김 의장 기부가 더욱 가치 있도록 최선을 다하겠다"고 말했다.  elikim@fnnews.com 김미희 기자 ▶ 헉! 소리나는 스!토리 뉴스 [헉스] / ▶ 너 그거 아니? [두유노우]▶ 날로먹고 구워먹는 금융이슈 [파인애플] / ▶ 모(毛)아 모아 [모아시스]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>[울산=뉴시스]유재형 기자 = 울산시는 28일 울산정보산업진흥원(원자 구자록) 대강당에서 울산지역 소프트웨어 교육의 거점 임무를 수행할 'SW미래채움 울산센터' 개소식을 열고 본격적인 미래 SW 인재 양성에 들어갔다. 2021.04.28. (사진= 울산시 제공)photo@newsis.com *재판매 및 DB 금지[울산=뉴시스]유재형 기자 = 울산시는 28일 울산정보산업진흥원(원자 구자록) 대강당에서 울산지역 소프트웨어 교육의 거점 임무를 수행할 'SW미래채움 울산센터' 개소식을 열고 본격적인 미래 SW 인재 양성에 들어갔다.이날 개소식에는 송철호 시장, 박병석 울산시의회 의장, 노옥희 울산시교육감, 송주영 정보통신산업진흥원 본부장과 100명의 SW미래채움 울산센터 강사가 온·오프라인으로 함께했다.SW미래채움 울산센터는 2020년 61억원을 들여 조선해양 하이테크타운 3층 약 240㎡ 규모에 SW교육실, 참여형 수업지원 공유실, 창작전시실 등을 갖췄다.연간 SW 전문 강사 양성(300명), SW 초중등 교육(9000명) 등을 진행할 계획이다.SW미래채움 울산센터는 사업 1차연도인 지난해 5월부터 울산지역 초중고교롸 특수학교 아동·청소년을 대상으로 '찾아가는 SW 교육'을 통해 인공지능(AI), 코딩, 메이킹, 드론 등 수준별 맞춤형 전문교육으로 호응을 얻고 있다.SW 전문 강사 양성 및 고용 100명, SW 교육 4000여 명 등 실적을 거뒀다.SW미래채움 울산센터는 미취업 청년, 경력단절 여성도 SW 강사로 양성해 일자리를 지원한다.구자록 울산정보산업진흥원장은 "4차산업혁명 시대 AI·소프트웨어 교육의 필요성은 점점 중요해지고 있다"면서 "디지털 교육도시 울산 구현을 위해 울산이노베이션스쿨 등 울산형 데이터 크리에이터 양성 교육과 체계적인 연계를 통해 전문인재를 양성하겠다"고 전했다.☞공감언론 뉴시스 you00@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>150억원 투자해 SW 융합 교육 확대전공능력·AI핵심인재·산업연계 강화충남 아산의 순천향대(총장 김승우)가 8년간 150억원을 투자해 ‘웰라이프 분야 레인보우(RAINBOW)형 인공지능(AI)·소프트웨어(SW) 융·복합 인재양성’에 나선다. 순천향대는 과학기술정보통신부가 주관하는 소프트웨어(SW) 중심대학사업(2단계)에 최종 선정됐다고 29일 밝혔다.레인보우(RAINBOW)는 SW 중심대학의 핵심 사업으로 Reinforced(전공능력 강화), AI Skilled(AI 핵심 인재양성), Industrial(산업연계 강화), Notional(AI·SW 개념 확립), Boom-up(AI·SW 창업 확산), Open(AI·SW 교육 개방), Warrantable(AI·SW 교육능력 보증)을 의미한다.순천향대는 2015년부터 지난해까지 6년간 2만5095명의 SW 전공인력과 1만5642명의 융합 인력을 배출했다. 올해부터는 AI 신기술 교육 강화, 계열·수준별 SW 교육과정 운영 등 SW 교육 체계를 고도화한다.과기정통부는 올해 일반트랙(7개)과 특화트랙(2개)으로 9개 대학을 SW 중심대학으로 신규 선정했다. 순천향대는 일반트랙으로 기존 SW 중심대학과 신청요건(SW 입학정원 100명 이상)과 지원금(연 20억원)이 동일하다이 대학은 웰라이프 생활·실습형 빅데이터 기반의 교육연구 플랫폼(BLEP) 및 RAINBOW 교육 플랫폼 구축, SW융합대학(가칭) 신설, SW 특기자 전형 신설, 전교생 SW 기초교양 필수화, SW 친화적 교원업적평가제도 개선 등을 추진한다.또 SW 전공교육 이수학점을 높이고, AI·SW 전공 역량 졸업인증제와 산학필수 이수제를 신설해 졸업요건을 강화하기로 했다. 실습 비중 확대, 충남특화 심화트랙 및 웰라이프 특화 연계전공 신설 등 대학 특성을 반영한 SW 융합교육도 확대한다.전창완 연구산학부총장은 “건강하고 안전한 웰라이프(Well-Life) 신기술 수요에 맞는 차별화된 RAINBOW형 AI·SW 혁신 인재양성으로 대학의 위상을 더욱 높이겠다”고 말했다.아산=강태우 기자▶ 경제지 네이버 구독 첫 400만, 한국경제 받아보세요▶ 한국경제앱 다운받고 ‘암호화폐’ 받아가세요▶ 한국경제 구독신청-구독료 10% 암호화폐 적립 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>‘AI와 생활의 변화’ 시청각 자료 이용 4차산업혁명 흥미 유도배재대 AI·SW중심대학사업단 외국인 유학생 교육 *재판매 및 DB 금지[대전=뉴시스] 유순상 기자 = 배재대는 AI(인공지능)·SW(소프트웨어)중심대학사업단이 전날 외국인 유학생 110여명을 대상으로 전주기적 SW 교육을 실시했다고 5일 밝혔다.‘AI와 생활의 변화’라는 주제로 시청각 자료를 이용, 일상에서 활용되고 있는 인공지능 분야를 다뤄 4차 산업혁명의 흥미를 돋웠다.교육 참여 학생들은 배재대 한국어교육원 소속 정부초청장학생으로 베트남, 중국, 인도네시아 등 32개국 출신이다.사업단은 AI 및 4차 산업혁명 선도를 위해 구성원을 대상으로 AI·SW 공유교육을 매년 실시하고 있다. SW 중요성에 대한 대학 구성원들 인식 제고를 위해 자발적인 참여를 유도하고 있다.배재대 AI·SW중심대학사업단 외국인 유학생 교육 *재판매 및 DB 금지정회경 사업단장은 “AI와 SW 중요성은 아무리 강조해도 지나치지 않아 꾸준하게 공유 교육을 실시하고 있다"며 "대학 전구성원이 참여하는 AI·SW중심대학 위상을 굳건히 정립해 나가겠다”고 말했다.☞공감언론 뉴시스 ssyoo@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>본투글로벌센터·요즈마그룹코리아·GS글로벌 등과 공조국내 기업의 SaaS 전환, 인력교육, 판로개척 등 나서기로김상윤(왼쪽부터) GS글로벌 상무, 김종갑 본투글로벌센터 센터장, 박환수 한국SW협회 상무, 이기엽 요즈마그룹코리아 부사장, 김태창 네이버클라우드 전무가 7일 협약식에서 사진을 찍고 있다. SW협회 제공     한국소프트웨어산업협회(회장 조준희)는 7일 서울 강남구 네이버클라우드에서 네이버클라우드(대표 박원기), 본투글로벌센터(센터장 김종갑), 요즈마그룹코리아(대표 이원재), GS글로벌(대표 김태형)과 '국내 중소 SaaS(SW서비스) 기업의 글로벌 진출을 위한 컨소시엄' 업무협약을 맺었다고 밝혔다.컨소시엄은 'SaaS N(Successful And Absolute SaaS in Ncloud) 프로그램'이라는 이름의 파트너십 생태계를 구축, 기술 지원, 비즈니스 지원, 글로벌 판로개척 등 총 3단계를 돕는다. 기술 지원은 SW협회와 네이버클라우드가 맡는다. 협회는 △우수 중소기업의 SaaS 전환 및 역량 향상을 위한 전문 교육프로그램 운영 △SaaS 기업의 인재양성 및 우수 인재 채용 지원을 수행한다. 네이버클라우드는 프로그램 전반의 운영 및 참여기업 발굴, 클라우드 인프라 구축 교육 및 컨설팅을 담당한다. 완성된 SaaS 솔루션은 글로벌 진출을 고려한 비즈니스 지원으로 연결된다.본투글로벌은 SaaS 현지화를 위해 제품 시장 적합성을 검증한다. 요즈마그룹코리아는 글로벌 비즈니스 모델 수익 최적화를 위한 전략 수립 및 투자 연계를 지원한다. GS글로벌은 글로벌 네트워크를 활용해 판로를 확장하고, SaaS 솔루션이 필요한 고객을 매칭해 서비스가 이뤄질 수 있도록 돕는다. 박환수 SW협회 상무는 "클라우드 교육을 통해 국내 SaaS 기업의 역량향상을 지원하는 한편 'SaaS N' 프로그램의 성공적인 추진을 위해 중추적인 역할을 하겠다"고 밝혔다.안경애기자 naturean@dt.co.kr ▶[ 네이버 메인에서 디지털타임스 구독 ] / ▶[ 뉴스스탠드 구독 ]▶디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t>조선대학교 SW중심대학사업단 ‘찾아가는 코딩교실‘ 수업.[헤럴드경제(광주)=박대성 기자] 호남 최초 소프트웨어 중심대학인 조선대학교 SW중심대학사업단이 광주 남구청과 함께하는 ‘2021 찾아가는 코딩교실 AI·SW교육’ 프로그램을 진행하고 있다.조선대 SW중심사업단은 남구와 ‘인공지능(AI) 활용 평생교육을 위한 AI·SW교육을 위한 업무협약’을 체결하고 2019년 찾아가는 코딩교실에 이어 ‘지식재산 아카데미’ 프로그램 지원, 지난해에는 AI기초 활용을 위한 코딩교실을 확대했고 올해도 남구 지역민을 위한 AI·SW가치확산 프로그램을 진행 중이다.‘2021 찾아가는 코딩교실’은 조영주 담당교수가 SW중심대학사업단 교수진(이광옥, 임희경, 유소월 교수), 서희철 연구원과 함께 진행하고 있다. 소프트웨어 코딩체험이란 주제로 4월2일부터 12월까지 남구지역 빛여울초교 외 6개교 초등학교 학생들을 대상으로 언플러그드 교육, AR과 VR의 이해, 로봇과 함께하는 블록코딩언어를 로봇을 활용해 쉽고 재미있게 배울 수 있는 SW교육의 체험기회를 제공한다.조대 SW중심대학사업단 조영주 담당교수는 “AI 시대가 오고 초등학교 SW교육 의무화가 강화됨에 따라 학생들이 SW에 대한 흥미를 높이고 미래 진로탐색에 도움을 주는 시간이 되도록 최선을 다해 진행하겠다”고 말했다. parkds@heraldcorp.com▶환경적 대화기구 '헤럴드에코'▶밀리터리 전문 콘텐츠 ‘헤밀’▶헤럴드경제 네이버 채널 구독- Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		한동대학교(총장 장순흥)는 SW중심대학 창업팀이 이노폴리스캠퍼스사업에 최종 선정됐다고 5일 밝혔다.이노폴리스캠퍼스사업은 과학기술정보통신부 주최하고 연구개발특구진흥재단 주관하는 사업이다. 이번에 선정된 한동대 'DOBBY'팀(김민주, 김세인, 박예지, 이인석, 이정현), '큐'팀(문정예원, 전영우, 장유림)과 'WEIGHIT'팀(박건희, 김재빈, 박현아, 송하민)은 초기 MVP 제작비, 추후 법인 설립과 후속 성장지원 기회를 제공받을 예정이다.한동대 SW중심대학 창업팀(앞줄 왼쪽에서 4번째 조성배 SW중심대학 창업지원실장)이번 선정팀은 각각 'AI를 활용한 식자재 관리 애플리케이션', '연기연습 기능과 한국어 섀도잉 기능을 융합시킨 모바일 미디어 플랫폼', '타임랩스를 활용한 동기부여 모바일 트레이너' 아이템으로 선정됐다.조성배 SW중심대학 창업지원실장은 “한동대는 창업 교육으로 디자인 스프린트 캠프 개최, 창업 캡스톤 프로젝트, 소프트웨어 팩토리 창업 S-Lab, IT창업학회 벤처러스, 창업 자유학기 운영 등 창업을 희망하는 학생들을 적극적으로 지원하고 있다”고 말했다.포항=정재훈기자 jhoon@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>- 국방 무기체계 개발에 특화된 SW·AI·Big Data 전문가 인력 양성 목표스마트국방 전문기업 모아소프트(대표 장주수)는 과학기술정보통신부가 선정하는 ‘소프트웨어(SW)전문인력양성기관(이하 SWETI)’으로 지정(제 2021-17호)되었다고 4일 밝혔다.SWETI 사업은 소프트웨어산업진흥법 제22조제2항, 같은 법 시행령 제 23조5항 및 같은 법 시행규칙 제12조제3항에 따라 SW전문인력의 양성과 자질 향상을 위해 2013년 7월에 시작된 교육훈련 사업으로 소프트웨어 인력양성 프로그램을 운영하는 기업의 신청을 받아 평가위원회를 통해 교육과정, 교육시설 및 설비, 전문교수요원, SW전문교육 추진 및 운영계획, 교육운영 조직 및 예산 등 서류심사, 발표평가를 거쳐 최종 선정된다.모아소프트는 “국방 무기체계 개발에 특화된 SW·AI·Big Data 전문가 양성”을 목표로 국방부, 방위사업청, 주요 방산업체(LIG넥스원, 한화, 한화시스템, 현대로템, KAI, 대한항공 등)와 연계를 통한 기술수요 기반의 방산 수요기업 맞춤형 교육으로 무기체계 SDLC(Software Development Life Cycle)에 필요한 기술을 교육함으로써 방위산업 선진화를 촉진하고, 국방 무기체계 SW 전문인력 경쟁력을 확대해 갈 예정이다.모아소프트는 항공 SW 인증 획득을 위한 DO-178C 프로세스 교육, 자동화 도구를 활용한 정적시험 및 동적시험 과정, 국방무기체계 소프트웨어 보안성 시험, 국방무기체계 소프트웨어 신뢰성 시험, Kalman Filter 기본 과정, Bayesian Learning &amp; MCMC methods 과정, ▲ANSYS를 활용한 디지털 트윈 구축 등 다양한 주제로 방산 수요기업 맞춤형 교육 프로그램을 개발·운영 할 예정이다.모아소프트 장주수 대표는 “미래 전장에서는 첨단 무기 기술과 혁신 정도가 승패를 결정할 것이며, 미래 전장에서 우위를 점하려면 제4차 산업혁명 핵심기술을 무기체계에 적용하는 것이 필수적 이고, 이를 위해 SW가 핵심적인 역할을 담당해야 하며 국방무기체계 SW의 발전을 위해서는 국방무기체계 SW전문인력이 절대적으로 중요하다”고 강조 하며 “모아소프트는 스마트국방 전문기업이자 국방무기체계 소프트웨어 전문인력 양성기관으로서 사명감과 자부심을 갖고 24년간 방산·철도·항공·자동차·원자력 등 다양한 영역의 SW, AI, Data Science 분야에서 컨설팅/SW개발/시험/인증 경험을 통해 쌓아온 Know-How를 바탕으로 4차산업혁명의 기술적 Trend와 무기체계 SW개발에 특화된 교육을 시행하여 지상, 해상 및 공중과 우주 및 사이버공간을 포함한 5차원으로 확장된 미래전에 대비한 군 요구사항에 충족하는 국방 무기체계 개발에 특화된 SW·AI·Big Data 전문가 인력 양성에 최선을 다 할 것”이라고 밝혔다.최봉석 기자 mail00@asiae.co.kr▶ 속 시원한 풀이! 2021년 정통사주·운세·토정비결▶ 내가 몰랐던 당신들의 이야기 [나돌] 네이버TV ▶ 투자 성공의 핵심은 기업분석! 'CORE' 바로가기&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>과기부, SW인재양성 위한 SW스타랩에 6개 연구실 선정과학기술정보통신부[과학기술정보통신부 제공]    (서울=연합뉴스) 정윤주 기자 = 소프트웨어(SW) 분야 인재 양성을 위한 SW중심대학이 9개 대학에 설치된다.    과학기술정보통신부는 21일 SW중심대학에 가천대, 경기대, 경북대, 성균관대, 순천향대, 전남대, 충남대, 항공대, 삼육대 등 9곳을 선정했다고 밝혔다.     이 중 가천대, 경기대, 경북대, 성균관대, 순천향대, 전남대, 충남대 등 7곳은 입학정원 100명 이상을 충족해야 하고 연 20억원을 지원받는다.    중·소규모 대학인 항공대와 삼육대에는 연 10억원을 지원한다. SW중심대학은 산업체 수요를 기반으로 SW교육과정을 개편하고, 전공 정원을 확대하거나 융합인력을 양성해야 한다.    올해부터는 인공지능(AI) 등 신기술 교육을 강화하고 계열별·수준별로 차별화된 SW교육과정을 마련해야 한다.    올해 신규 AI 대학원으로는 서울대와 중앙대가 선정됐다.     이들 대학은 AI 석·박사 40명 이상을 확보하고 전공 교수진 확충과 AI 심화·특화 교육과정 개설 등 운영계획을 제시했다. AI 대학원은 10년간 최대 190억원을 받는다.     이밖에 석·박사급 SW 인재양성을 지원하는 SW 스타랩으로는 서울대 시스템 소프트웨어 및 구조 연구실, 성균관대 자동화 연구실, KAIST AI 및 머신러닝 연구실, KAIST SW 보안 연구실, 단국대 임베디드 시스템 연구실, KAIST 인터랙션 연구실 등 6곳이 뽑혔다. SW 스타랩은 최대 8년간 연간 3억원씩을 지원받는다.      조경식 과기정통부 2차관은 "최근 산업계에서 사람 구하기가 힘들다는 목소리가 점점 커지고 있어 SW중심대와 AI대학원 등 신규 선정 대학이 빠르게 자리 잡는 것이 시급하다"며 "정부도 산업계 수요와 각 대학의 SW교육혁신 노력에 맞춰 인재양성 지원을 확대하겠다"고 말했다.  jungle@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 남녀 징병국가 현실은?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>SW전문인력양성기관 문 열어디지털 뉴딜 선도 기대[포항=뉴시스] 강진구 기자 = 경북 포항테크노파크(원장 이점식)는 지난 29일 오후 제5벤처동에서 과학기술정보통신부 지정 ‘2021년 SW전문인력양성기관(이하 SWETI)’을 개관했다.(사진=포항테크노파크 제공) 2021.04.30.photo@newsis.com *재판매 및 DB 금지[포항=뉴시스] 강진구 기자 = 경북 포항테크노파크(원장 이점식)는 지난 29일 오후 제5벤처동에서 과학기술정보통신부 지정 ‘2021년 SW전문인력양성기관(이하 SWETI)’을 개관했다고 30일 밝혔다.SWETI는 소프트웨어진흥법에 따라 매년 과기정통부에서 지정한다. 포항테크노파크 경북SW진흥본부는 24개 신규 지정기관 중 유일하게 경북지역 내 기관으로 선정됐다. 부설기관인 경북SW진흥본부는 과기정통부의 핵심 목표인 지역내 AI·SW전문인력 10만 명 양성을 달성하기 위해 지난 2020년부터 지역ICT이노베이션스퀘어조성사업과 SW미래채움사업 등 다양한 SW전문인력 양성 프로그램을 수행해 오고 있다.ICT이노베이션스퀘어조성사업은 지난 해 권역 평가에서 1위를 차지해 2021년도에 국비 28억원을 추가 확보하는 등 지역내 SW교육 전문기관으로서 위상을 높여 나가고 있다.이점식 포항테크노파크 원장은 “경북지역 디지털 뉴딜 선도를 위한 AI·SW인재 양성의 기틀이 마련됐다"며 "경북SW진흥본부를 중심으로 인공지능과 빅데이터, IoT 등 최신 SW기술의 시장 수요에 부합하는 SW전문인력 양성기관으로 육성해 나가겠다”고 말했다.☞공감언론 뉴시스 dr.kang@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>[아산=뉴시스] 이종익 기자 = 충남 아산이 선문대학교(총장 황선조)는 23일 충청남도교육청(교육감 김지철)과 인공지능·소프트웨어 가치 확산 및 활성화 지원을 위한 업무협약을 체결했다고 밝혔다.이날 협약을 통해 양 기관은 지역의 초·중·고 대상의 AI, SW 동아리 집중 발굴 및 육성을 위한 사업을 공동으로 추진할 계획이다.선문대는 앞으로 SW중심대학사업단 중심으로 관련 교육을 진행하며, 추가로 AI 선도 교사 협의체 구성, SW 동아리 경진대회 및 축전 개최 등의 프로그램을 운영한다.이날 황선조 총장은 "미래 교육을 통해 지역의 디지털 인재 양성을 위한 기반을 마련하겠다"며 "지역의 인공지능, 소프트웨어 교육 가치 확산에 두 기관이 앞장서겠다"고 말했다.☞공감언론 뉴시스 007news@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>4월부터 12월까지 24종 637개 4주간 대여충북교육연구정보원은 학교의 소프트웨어(SW) 교육을 지원하기 위해 소프트웨어 교육용 교구 대여 사업을 한다.© 뉴스1(청주=뉴스1) 이성기 기자 = 충북교육연구정보원은 오는 12월까지 학교의 소프트웨어(SW) 교육을 지원하기 위해 소프트웨어 교육용 교구 대여 사업을 한다고 30일 밝혔다.대여 신청은 충북교수학습지원센터를 통해 하면 되며 상반기(4월~8월)에 대여하는 교구는 드론 등 24종 637개로 4주 동안 사용할 수 있다. 1개교에 2회 이내 대여가 원칙이지만, 해당 교구를 신청하는 학교가 없으면 추가 대여도 가능하다.청주 인근 희망학교는 방문 수령하며, 청주 이외 지역 원거리 학교는 택배로 교구를 지원한다. 다만, 반납 택배 요금은 해당 학교에서 부담해야 한다.하반기에는 권역별 SW교육을 지원하기 위해 9월 오픈 예정인 충주소프트웨어교육센터, 제천학생회관, 보은도서관의 소프트웨어교육체험실 등과 연계해 교구 대여 사업을 확대 운영할 예정이다.민경찬 충북교육연구정보원장은 "이번 소프트웨어 교육용 교구 대여 사업으로 학교 현장에서 수업과 동아리, 자유학기제 등에 교구를 활용해 소프트웨어 교육이 활성화될 것으로 기대한다"고 말했다.sklee@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>디지털 뉴딜 선도 위한 AI·SW 전문 인재 양성의 기틀 마련[오주호 기자(=포항)(phboss7777@naver.com)](재)포항테크노파크(원장 이점식)는 과학기술정보통신부(이하 과기정통부)가 지난 6일 ‘2021년 SW전문인력양성기관’으로 선정해 29일 현판식을 가졌다고 밝혔다. 이날 현판식에는 경북도, 포항시, 안동시 지자체 및 지역 SW교육 관련 기관 관계자 등 30명이 참석해 방역수칙과 거리두기를 준수한 가운데 진행됐다. ▲ SW전문인력양성기관지정 현판식을 갖고 있다. ⓒ 포항테크노파크 제공 SWETI는 소프트웨어진흥법에 근거해 매년 과기정통부에서 지정하며, 포항테크노파크 경북SW진흥본부가 24개 신규 지정기관 중 유일하게 경북지역 내 기관으로 선정됐다. 또한 부설기관인 경북SW진흥본부에서는 과기정통부의 핵심 목표인 지역내 AI·SW전문인력 10만 양성을 달성하고자 지난 2020년부터 지역 ICT이노베이션스퀘어조성사업, SW미래채움사업 등 다양한 SW전문인력 양성 프로그램을 수행하고 있다. 특히 ICT이노베이션스퀘어조성사업은 지난해 권역 평가에서 1위를 차지해 2021년도에 국비 28억원을 추가 확보하는 등 지역내 SW교육 전문기관으로써 그 위상을 높이고 있다. 포항테크노파크 이점식 원장은 “경상북도 지역 디지털 뉴딜 선도를 위한 AI·SW인재 양성의 기틀이 마련되었다”며 “경북SW진흥본부를 중심으로 인공지능, 빅데이터, IoT 등 최신 SW기술의 시장 수요에 부합하는 SW전문인력 양성기관으로 만들겠다”고 말했다. [오주호 기자(=포항)(phboss7777@naver.com)]▶프레시안 CMS 정기후원▶네이버 프레시안 채널 구독 ▶프레시안 기사제보Copyrightsⓒ PRESSian.com 무단전재 및 재배포금지</t>
+  </si>
+  <si>
+    <t>블루커뮤니케이션(대표 정희용)의 '어썸코드'는 누구나 쉽고 재미있게 코딩을 접할 수 있는 피지컬 컴퓨팅 기반 소프트웨어 코딩 교육 통합 플랫폼 소프트웨어(SW)다.어썸코드는 SW 코딩 교육 교재와 동영상 강의, 코딩 실습을 한 번에 해결하는 제품이다. 교구와 SW를 이용해 코딩을 어떻게 시작해야 할지 막연하게 생각하는 초급자나 어린이도 간편하게 코딩을 접하고 경험할 수 있다.어썸코드는 피지컬 컴퓨팅 기반 SW 통합 교육 플랫폼 '어썸아이티'의 교육용 SW로 동작한다. 어썸아이티 통합 교육 플랫폼은 교육용 SW 어썸코드와 자체 개발한 실습용 메인보드 '어썸보드', 이족보행로봇 교구 '어썸봇', 무선조종 자동차 '어썸카', 사물인터넷 체혐용 킷 '어썸킷' 등으로 구성됐다.어썸보드가 탑재된 3종 교구를 PC에 연결해 어썸코드를 실행하고, 직접 프로그래밍을 입력해 교구를 동작하면서 코딩을 경험할 수 있다. 사용자는 교구를 직접 조립하며 메이커(Maker)의 경험을 즐길 수 있고, 직접 조립한 교구에 소스 코드를 입력하면서 코딩을 배울 수 있다.어썸코드 프로그램에는 코딩 교육용 교재와 강의 영상이 포함됐다. 콘텐츠를 읽고 따라 하다보면 자연스럽게 교구를 조립하고 각 부품의 작동원리를 이해할 수 있다. 교구를 동작하는 소스 코드와 명령어에 대한 자세한 설명과 함께 작동원리와 연계된 과학적 원리 등도 함께 습득할 수 있다.어썸코드에는 코딩을 배우는 초급자가 가장 많이 접하게 되는 스크래치나 엔트리 형태 블록코딩도 자체적으로 구현됐다. SW 구동 원리와 개념을 한 눈에 파악할 수 있다. 교재를 읽고 그림과 영상을 보고 실습하며 버튼을 눌러 교구를 작동해보고 해당 동작의 소스 코드를 살펴볼 수 있다.어썸코드 프로그램에는 코드에디터가 내장돼 클릭앤플레이로 동작했던 움직임의 소스 코드를 파이선 코드로 확인할 수 있다. 직접 코드를 수정해서 교구를 여러 가지 형태로 움직여 볼 수도 있다.어썸아이티 통합 교육 플랫폼을 구성하는 3종 교구는 지난해 'Hi 서울어워드 우수상품'으로 선정됐다. 미국, 인도네시아, 베트남, 중국 등 세계 시장으로 진출도 시작된 상태다. 지난해 6월 미국 UT달라스대 썸머캠프 프로그램으로 채택되어 K-12 교육에 활용됐고 베트남에서는 공영방송 VTV4 뉴스에 소개되며 주목을 받은 바 있다.정희용 블루커뮤니케이션 대표-제품 개발 배경은.제품 출시 전 2000명 이상 학생을 대상으로 다양한 SW교육을 수행해 본 결과 기존 교육 프로그램에 다소 부족한 점이 있다고 판단했다. 하드웨어(HW)를 만드는 회사는 콘텐츠 없이 HW만 만들고 개발툴을 만드는 회사는 기존 개발 환경을 단순히 그래픽(블록 형태의 코딩) 환경으로 옮기기만 했다. 교육 회사는 각기 다른 목적으로 만들어진 HW와 개발툴을 이용해 콘텐츠를 개발했다. 누군가 하나의 방향성을 가지고 HW와 개발툴, 교육용 콘텐츠까지 일관되게 만들어 주지 않는다면 풀 수 없는 문제였다. 이를 하나로 통합 운영하자는 관점에서 어썸보드와 어썸봇, 어썸카 등을 개발했다.-수출 현황과 계획은.중국에서는 지커천싱이란 온·오프라인 SW코딩 교육 학원 프랜차이즈(현재 300개 가맹점 보유)와 함께 중국향 교육 콘텐츠를 공동 개발 중이다. 중국 내 일부 학원을 통한 테스트 교육을 진행 중이며 올해 빠른 시장 확대를 위해 노력한다. 코로나19로 다소 일정이 지연되고 있지만 미국, 인도네시아, 베트남과 두바이 등에 협력 파트너를 둬 서비스를 확대하고 있다.이를 통해 올해 30억원의 매출 목표를 달성할 계획이다. 반드시 실습이 병행돼야 하는 SW코딩 교육의 특성을 고려해 온라인 통합 교육 플랫폼 개발을 추진중이다. 이를 통해 국내와 해외 SW코딩 교육 시장 확대를 가속할 계획이다. 지난 2년간 전국 1300명 이상 강사 교육과 협력 교육기관 네트워크를 통해 국내 시장을 안정화 하는 한 해로 삼고자 한다.-향후 신제품 개발과 출시 계획은.지난해 기준 4000명 이상 강사와 학생을 대상으로 온라인 교육을 하며 축적한 노하우와 기 확보된 기술력을 바탕으로 실습이 필요한 SW코딩 교육에 특화된 온라인 교육 플랫폼을 개발 중이다. 기존 로봇과 자동차, 사물인터넷 킷에 음성형 AI 코딩 기능을 추가한 AI 교육 기능과 커리큘럼을 추가 개발한다. 이를 위해 국내 음성칩 전문 기업인 시누스와 협력하고 있다.드론에 부착된 카메라로 촬영한 이미지와 영상 분석을 통해 다양한 시나리오에 따라 동작하는 드론을 프로그래밍할 수 있도록 준비 중이다. 이를 위해 중국의 전문 드론 기업 베스누보 테크놀로지와 협력하고 있다. 커리큘럼 개발 완료 후 샤오미의 드론 법인인 페이미(飛米)와의 협력 체계도 구축하고 있다.김지선기자 river@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>2022 교육 개편 앞두고 정책 고민사고력 강화·진료탐색 기능 등 강조공교육-민간 교육두구 연계도 논의“한국정보과학회 등 학계도 초·중·고 소프트웨어(SW)교육에 많은 관심을 가져야 합니다. 2022 교육과정 개편 시 SW교육을 보다 효과적으로 보완해야 합니다.”(김현철 고려대 교수)“인공지능(AI)은 SW 일부분입니다. 2025년 도입되는 초·중·고 AI교육은 SW교육을 확대하는 기회가 돼야 합니다.”(신혜권 이티에듀 대표)초·중학교 SW교육이 효과적으로 개편되도록 학회에서 많은 관심이 요구된다. 부족한 SW교육 수업시간은 AI교육과 연계해 확대한다. SW교육·코딩교육·AI교육 등 명칭도 교육 취지에 맞게 적합한 용어로 통일돼야 한다.한국정보과학회·한국전자통신연구원·한국전자기술연구원·소프트웨어정책연구소·한국과학기술정보연구원 주최 '소프트웨어 컨버전스 심포지움(SWCS) 2021' 부대행사로 지난 23일 부산 더베이101에서 열린 특별세션에서 이 같이 논의됐다. 특별세션은 '컴퓨터 비전공자들을 위한 코딩 교육 현안과 SW인재 양성 정책'을 주제로 기조강연과 지정토론으로 이뤄졌다.나연묵 한국정보과학회장(왼쪽에서 다섯번째)을 비롯해 학회 관계자, 특별세션 기조강연자, 지정토론자가 기념촬영을 하고 있다.특별세션은 이원준 고려대 교수 사회로 나연묵 한국정보과학회장(단국대 교수) 축사, 이민석 이노베이션 아카데미 학장 기조강연, 홍봉희 부산대 교수 강연으로 시작됐다. 나 회장은 “특별세션이 정보통신기술(ICT), SW, AI 관련 교육과 산업 발전에 기여하기를 바란다”고 말했다.지정 토론은 최진영 고려대 교수 좌장으로 김현철 고려대 교수, 박종현 한국전자통신연구원 부원장, 신혜권 이티에듀 대표, 하준홍 과학기술정보통신부 팀장, 한혁수 상명대 교수가 참여했다. 특별세션은 코로나19로 50명 미만이 참석한 가운데 진행됐다.◇SW교육, 창의융합·사고력 강화 목적초·중·고 SW교육 목표는 디지털 기반 창의융합 역량과 사고력 강화, 관련 분야 진로 탐색 기회 제공이어야 한다고 제시됐다. 대학에서 SW인재를 양성하는 것과는 다르다. 수학·과학처럼 기본 역량을 갖추는 교육으로 확대해야 한다.김현철 교수는 “초·중·고 SW교육은 성인이 갖춰야 할 소양인 디지털 역량을 갖게 해주는 것”이라며 “컴퓨팅 사고력, 데이터 사고, AI 역량 등이 해당된다”고 말했다. “컴퓨팅 사고력을 높이기 위해 코딩을 통한 프로젝트 활동이 가장 효과적”이라고 덧붙였다.현재 초·중·고 SW교육 문제점도 지적했다. 김 교수는 “SW교육 수업시간 비중이 초등학교 0.28%, 중학교 약 1%로 너무 적다”면서 “체계적이고 연속적인 교육이 불가능하다”고 언급했다. 영국은 2014년부터 모든 학년에서 필수로 SW교육을 배운다. 일본은 2025년부터 대학입시에 SW교육 과목을 포함시킨다.2022교육과정 개편을 앞두고 컴퓨터공학 관련 학계에서 초·중·고 SW교육에 관심을 가져야 한다고 강조했다. 김 교수는 “SW학계·산업계 등 다양한 분야에서 SW교육 필요성에 관심을 갖고 공감대를 형성해야 보다 올바른 교육 개편이 가능하다”고 전했다.김현철 고려대 교수(왼쪽부터), 박종현 한국전자통신연구원 부원장, 신혜권 이티에듀 대표가 지정토론 주제발표 후 청중 질의에 답하고 있다.◇SW·AI교육, 공·사교육 연계 필요2025년 초·중·고 도입이 논의되는 AI교육을 SW교육 확대 기회로 삼아야 한다고 제안됐다. 먼저 초·중·고 단계에 맞는 SW와 AI교육 방향 수립이 필요하다.신혜권 대표는 “SW교육은 학교 도입 후 여러 문제로 학교와 학생으로부터 외면 받는다”면서 “이런 상황에서 AI교육 도입을 별도로 추진해 학교와 학생은 혼란스럽다”고 지적했다.효과적 SW인재 양성을 위해 공교육과 사교육 조화 필요성도 언급했다. SW공교육은 원리를 깨닫고 창의력과 사고력을 높이는 보편교육으로 강화하고, 프로그래밍 언어 등 심화교육은 사교육으로 보완해 우수 SW인재가 진로교육을 받도록 하자는 것이다.신 대표는 “사교육 문제인 고비용과 서울·대도시 등 특정지역 쏠림현상은 온라인 원격교육으로 해결할 수 있다”면서 “저렴한 비용으로 전국 학생에게 질 높은 SW교육을 제공하도록 실시간 원격교육을 활성화해야 한다”고 강조했다. 이티에듀는 저렴한 비용으로 전국 어디에서든 SW교육을 받을 수 있도록 실시간 원격교육 플랫폼 '껌이지(Easy)'를 운영한다.◇민간 우수 SW·AI교육도구 활용 검토정부도 초·중·고 SW교육 질적 성장을 위해 관련부처와 다각도로 협의 중이다. 하준홍 SW인재정책팀장은 “초·중등 SW교육에 대한 근본적 개편이 요구되는 상황”이라면서 “민간의 우수 SW와 AI 교육 학습도구를 공교육에서 활용하는 방안도 검토한다”고 말했다.2025년까지 1조원을 투입해 SW·AI인력 10만명을 양성할 계획이다. AI대학원과 SW중심대학 제도도 우수인재 양성을 위한 제도다. 컴퓨터 비전공자를 위한 교육도 확대한다. 하 팀장은 “지난해 SW중심대학에서 4700명 학생이 융합·복수전공으로 SW교육을 받았다”면서 “40.5%가 인문·사회계열 학생이다”고 전했다.홍봉희 부산대 교수가 컴퓨터 비전공자 코딩교육 사례를 발표하고 있다.한국전자통신연구원은 지속가능한 AI혁신 생태계 기반 제공을 위해 AI전문인재를 양성한다. 박종현 부원장은 “AI아카데미를 통해 전략과정, 실무과정, 고급과정을 운영한다”고 설명했다. 홍봉희 교수는 “SW·코딩·AI교육 등 혼용되는 용어를 취지에 맞게 통일시켜야 한다”고 제언했다.부산=김지선기자 river@etnews.com▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최▶ "OPC UA 입문, 기본 개념에서부터 적용까지" 30일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>22명 소수정예 과정…우수생 취업 연계【서울=뉴시스】한국폴리텍대학 CI. 2019.11.29 (사진=폴리텍대학 제공)[서울=뉴시스] 김진아 기자 = 한국폴리텍대학 분당 융합기술교육원이 오는 10일까지 클라우드 전문가 육성을 위한 교육 훈련생을 모집한다고 3일 밝혔다.분당 융합기술교육원은 대졸 취업희망자 대상 고급 기술 교육과정을 운영하고 있으며 지난달 클라우드 서비스 업체인 메가존클라우드, 제니앤컴퍼니와 클라우드 인재 양성을 위한 업무협약(MOU)을 체결한 바 있다. 클라우드 컴퓨팅은 프로그램이나 데이터를 개별 기기에 저장하지 않고 인터넷 서버에 저장·처리하는 기술이다.이에 따라 교육 과정은 교육생 22명을 대상으로 소수 정예 과정으로 운영된다.이번 개설되는 과정인 '데이터융합 소프트웨어(SW)'과는 앞선 10개월 과정 입학생 경쟁률이 4.35 : 1을 기록했으며, 최근 3년간 평균 취업률은 92.1%에 달한다.훈련은 비전공자도 수월하게 입문할 수 있도록 기본 프로그래밍부터 기업요구 프로젝트실습까지 현장 맞춤형 커리큘럼으로 구성된다.클라우드 분야에 특화한 필수 교과목을 중심으로 훈련을 제공해 기업에 필요 인력을 신속히 공급할 수 있도록 3개월 압축 과정으로 진행될 예정이다. 우수 교육생의 경우 메가존클라우드, 제니앤컴퍼니 두 기업에 취업이 연계된다.분당융합기술교육원 홍필두 교학처장은 "IT 개발 인력의 수요가 높아지면서 인공지능, 소프트웨어, 데이터 사이언스 등 디지털 신기술 분야 교육의 인기가 높아지고 있다"며 "교육생들의 다양한 전공과 정보기술(IT)이 접목되면 창의적인 결과물이 쏟아질 것"이라고 말했다.폴리텍은 2년제 학위과정, 전문기술과정, 하이테크 과정 등을 운영하고 있으며, 대졸 미취업자 청년층을 대상으로 신산업 분야 직업교육훈련을 제공하는 하이테크 과정을 지속해서 확대하고 있다. 현재 20개 캠퍼스에 자동화·IT·바이오 등 38개 학과가 개설됐으며 올해 정원은 1095명이다.☞공감언론 뉴시스 hummingbird@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>[나주=뉴시스] 동신대학교. (사진 제공 = 동신대학교) *재판매 및 DB 금지[광주=뉴시스] 구용희 기자 = 동신대학교는 전남도의 2021년 대학·지역연계협력 지원사업에 2개 과제가 선정됐다고 3일 밝혔다.다른 지역 학생들의 전남에 대한 이해를 높이기 위한 지역 바로 알기 분야에는 동신대 국제교육원의 '남도랑해'가 선정됐다.전남도의 예산 지원을 받아 외국인 유학생과 다른 지역 출신 학생들에게 남도 관광과 문화예술 체험 기회를 제공한다.농산어촌의 초·중학교를 찾아가는 창의 교실 분야에는 동신대 메이커스페이스 사업단의 '4차산업 맞춤 농산어촌 교육'이 선정됐다.인공지능(AI)과 소프트웨어(SW)를 활용한 ▲4차산업 기초 체험 ▲창의융합 기초교육 ▲제작을 통한 창의융합 체험 ▲아두이노 응용 체험 ▲3D 모델링 프린팅 기술 체험 ▲인공지능 체험 프로그램을 운영한다.◇ 조선대학교 김계하 교수, 광주 노인간호사회 회장 취임조선대학교는 의과대학 간호학과 김계하 교수가 제12회 광주 노인간호사회 설립총회에서 노인간호사회 회장에 연임됐다고 3일 밝혔다.임기는 오는 2023년 4월13일까지 2년이다.김 교수는 2019년 4월 광주 노인간호사회 회장으로 취임했다. 비대면으로 진행된 이번 총회에서는 김 교수의 연임이 만장일치로 통과됐다.◇ 광주대, 자율혁신학과 지원 사업 본격 시행광주대학교(총장 김혁종)는 교육의 자율적 혁신을 통해 창의·융합형 인재를 육성하는 자율개선학과 지원 사업을 본격 시행한다고 3일 밝혔다.교육부가 발표한 대학기본역량진단평가 결과 최상위 등급인 자율개선대학으로 선정된 광주대는 최근 학교 성실관 아동학과 전공강의실에서 김황용 대학혁신지원사업단장과 한규무 교무처장, 김수향 아동학과장 등이 참석한 가운데 자율혁신학과 현판식을 개최했다.대학혁신지원사업을 기반으로 펼쳐지는 자율혁신학과 지원 사업은 사회수요가 반영된 특성화 교육과정 설계와 운영, 환류를 통한 지역강소학과 경제력 제고를 위함이다.올해 3차년도에 돌입한 광주대는 선도형 6개와 일반형 10개 등 총 16개의 자율혁신학과를 선정했다.광주대는 자율혁신학과를 통해 교육과정 개편과 특강, 자격증 과정, 동아리, 멘토링, 현장 견학, 경진대회, 공모전 등 다양한 프로그램을 지원할 방침이다. 광주대는 2019년 1차년도 10개, 2020년 2차년도에는 13개 학부(과)를 선정해 교육환경 개선과 학생이 꿈꾸는 캠퍼스 조성, 글로벌 교육프로그램 개발 등을 목표로 자율혁신학과 지원 사업을 지속해 추진하고 있다.☞공감언론 뉴시스 persevere9@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>[네이버 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 홍지인 기자 = 네이버는 세종시 교사·초중학생을 대상으로 인공지능(AI)과 데이터를 활용한 소프트웨어(SW) 코딩 교육을 한다고 31일 밝혔다.    세종시 교육청 소속 초중고 교사를 대상으로 한 'AI&amp;데이터 시대 기업가정신' 연수와 초중학생 360명이 참여하는 AI·SW 교육이 각각 마련된다.     실습과 체험 중심으로, 온라인 협업 도구와 프로그램을 익히는 교육이 함께 제공될 예정이라고 회사 측은 전했다.     한성숙 대표는 "앞으로도 네이버는 지방자치단체와의 협력을 확대해 상대적으로 AI·SW교육 기회가 부족한 지역에서도 충분한 교육 기회를 누릴 수 있도록 교육 프로그램을 지원하겠다"고 말했다.  ljungberg@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 서울 소상공인 평균 월세 얼마?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>최종 결선은 11월 개최…총 17팀에게 2160만원 상금 수여 예정(사진은 기사 내용과 무관함) / 뉴스1 © News1(세종=뉴스1) 나혜윤 기자 = 대한민국 산업의 디지털 혁신을 이끌어 나갈 임베디드소프트웨어 인재 발굴 프로젝트가 시작된다. 25일 산업통상자원부에 따르면, 산업부가 주최하고 임베디드소프트웨어·시스템산업협회가 주관하는 '제19회 임베디드 소프트웨어 경진대회'가 오는 26일 대회 접수를 시작으로 11월 최종 결선까지 7개월간의 레이스에 돌입한다. 임베디드소프트웨어는 기기에 내장돼 특정 기능을 수행하는 소프트웨어로 IoT(사물인터넷)가전, 자율차, 첨단로봇, 스마트 선박 등 주요 산업의 지능화를 구현하기 위한 핵심기술로서 최근 인공지능 기술의 발전으로 중요도가 높아지고 있다. 2003년부터 시작된 임베디드 소프트웨어 경진대회는 국내 유일의 임베디드 소프트웨어 전문 경진대회로 아이디어 발굴과 임베디드 소프트웨어에 대한 창의적 인재의 등용문이 돼 국내 임베디드 산업계의 인력난 해소에 기여해왔다.올해 임베디드 소프트웨어 경진대회는 자유공모, 지능형 휴머노이드, webOS(LG전자 후원), 산학 프로젝트, 틴 메이커스 챌린지(초‧중‧고등부)로 구성된 총 5개 부문으로 진행할 예정이다.총 5개 부문 중 가장 우수한 팀에게 주어지는 대상과 자유공모 최우수상, 산학프로젝트 부문 최우수상 그리고 틴 메이커스 챌린지 최우수상에게는 산업통상자원부 장관상이 수여된다. 올해는 총 17팀에게 2160만원의 상금을 수여할 예정이다.또 자유 공모 부문에서 기업이 후원하는 아크데이타 사장상, LS Electric 사장상이 추가되어 작년과 비교해 더 많은 우수팀을 선정할 예정이다.주니어 부문인 '틴 메이커스 챌린지 부문'은 초등부와 중‧고등부로 나누어 심사되며, 최우수상은 초등부, 중‧고등부 전체에서 1팀, 우수상은 초등부 1팀, 중‧고등부 1팀씩 선정할 예정이다.각 분야별 맞춤 홍보 및 온라인 기술 교육을 통해 임베디드SW관련 기본 지식이 있지 않아도 응모할 수 있도록 지원해 학생들의 진입장벽을 허물 수 있도록 할 예정이다. 아울러 '임베디드소프트웨어 전문인력양성사업' 참여 학생들이 컨소시엄 기업과 함께 진행한 프로젝트 중 우수한 내용을 선별해 11월 결선에서 전시·심사를 진행하는 산학 프로젝트 분야도 진행한다.강경성 산업정책실장은 "최근 데이터 경제의 대두로 인공지능 기술이 다양한 산업과 융합되고 있으며, 이를 구현하기 위해서는 임베디드소프트웨어 기술 발전이 필수적"이라며 "경진대회가 관련 인재 발굴 및 육성의 기반이 될 수 있도록 정부에서도 관심과 지원을 아끼지 않겠다"고 밝혔다.한편 '제19회 임베디드 소프트웨어 경진대회' 참가 신청은 26일부터 내달 24일까지 접수를 받는다. 각 부문별 자세한 내용과 일정 등은 대회 공식 홈페이지에서 확인할 수 있다.freshness410@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>지난해 전국 대학 최초로 도입한 SW버스에서 가상현실을 체험하는 모습 ＠ 뉴스1(대전=뉴스1) 최영규 기자 = 배재대가 전국 최초로 도입한 SW(소프트웨어) 버스를 이용해 대전지역 학생들의 4차 산업혁명 체험형 교육에 나선다.배재대 AI·SW중심대학사업단은 26일 대전삼성초를 시작으로 오는 11월까지 24개 학교에서 '2021년도 AI·SW중심대학사업 PCU-SW버스 프로그램'을 진행한다.이번 교육은 ΔAI로봇을 활용한 인공지능 교육과 SW코딩 ΔVR 가상현실 체험 Δ드론 비행원리·동작방법 Δ3D 프린터 체험 Δ키오스크(무인 정보단말기)로 인공지능·증강현실 체험 등으로 구성됐다. 증강현실을 가미한 키오스크에서는 가상의 장소에서 사진을 촬영해 메일로 보내거나 소셜미디어에 탑재하는 일상·체험형 교육이 준비됐다. 3D 프린터는 일상용품부터 여러 캐릭터를 출력하는 교육이 가능해 4차 산업혁명을 폭넓게 이해하는 계기가 될 것으로 기대된다.한편 배재대는 2019년 과학기술정보통신부의 SW중심대학사업에 선정된 뒤 전국 대학 최초로 소외지역과 학교를 방문해 4차 산업혁명 교육이 가능한 SW버스를 선보였다.andrew73@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[이데일리 오희나 기자] 성균관대 소프트웨어융합대학은 과학기술정보통신부가 주관하는 SW중심대학사업(2단계)에 최종 선정됐다고 28일 밝혔다.성균관대는 1단계 SW중심대학사업에 이어 2단계 사업에도 선정되는 성과를 거뒀다. 연간 20억(단 1차년도는 9억5000만원)씩 최대 6년 동안 약 110억 원을 지원받게 된다.성균관대는 1단계 사업성과를 바탕으로 SW-AI 교육혁신 모델의 고도화 및 확산을 통해 4차 산업혁명 시대를 견인할 창의적 SW 융합인재를 양성할 계획이다.또한 전교생 대상 SW-AI 교육 강화, SW 융합 교육 확대, 산학협력 및 전주기적 창업지원 등을 추진하고, AI챗봇 지원 개방형 교육 포털 ‘온라인 명륜당’ 등을 통해 사업 참여대학은 물론 비참여대학과 일반인에게 교육성과를 공유하고 확산하기 위한 다양한 프로그램을 진행할 예정이다.사업 총괄 책임자인 이은석 학장은 “이번 사업을 통해 스스로 수양하고 주변을 감화시킨다는 수기치인의 성균관대 유학 교육이념을 SW-AI 교육으로 실현하는 기틀을 마련하겠다”고 말했다.오희나 (hnoh@edaily.co.kr)▶ #24시간 빠른 #미리보는 뉴스 #eNews+▶ 네이버에서 '이데일리 뉴스'를 만나보세요▶ 빡침해소, 청춘뉘우스 '스냅타임'＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t>충남대학교 정문 © 뉴스1(대전=뉴스1) 최영규 기자 = 충남대가 과학기술정보통신부 주관 ‘소프트웨어중심대학’ 2단계 사업에 선정돼 최대 6년간 110억원을 지원받아 인공지능(AI)·소프트웨어 전문인재를 양성한다고 22일 밝혔다.충남대는 지난 2015년 SW중심대학 1단계 사업에 이어 2단계 사업에도 선정됨에 따라 SW·AI 전공 및 융합과 관련한 핵심인력 양성에 박차를 가할 수 있게 됐다.충남대는 올해부터 인공지능 등 신기술교육 강화, 계열별·수준별 차별화된 SW 교육과정 마련 등 SW교육 체계를 고도화하는 2단계 사업을 진행한다.전교생이 AI와 SW 역량을 자신의 전공과 융합할 수 있도록 다원화된 AI·SW인재양성 체제를 구축하고, 융합학과, 연계전공, 나노학위 등의 다양한 교육 기회를 제공할 계획이다.또한 충남대가 개발한 해외인턴십 프로그램과 미국 퍼듀대학 파견 프로그램을 다른 대학들에도 개방해 인재양성 성과 확산에도 기여할 예정이다.andrew73@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶  터닝포인트 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>[혁신성장 정책 4년 성적표] ⑥SW 정책(지디넷코리아=김우용 김윤희 남혁우  기자)코로나19 대유행은 디지털 전환을 국가적 과제로 끌어올렸다. 일부 기업에서 점진적으로 진행되던 디지털 혁신 시도가 모든 산업으로 퍼져나가고, 국가 정책 어젠다 전면에 ‘디지털’이 자리잡았다.문재인 정부는 출범 당시부터 소프트웨어 교육, 인공지능(AI), 5G 등 디지털 전환 관련 정책을 추진하던 중 지난해 코로나19 사태를 계기로 ‘한국판 뉴딜’이란 국가 전략을 발표하고 대대적인 투자에 나섰다. 지난 한해는 그 전략의 본격적인 시행을 위한 여러 준비단계였다.정부는 작년에 디지털 뉴딜 정책을 발표했으며, 오랜 시간 끌어오던 소프트웨어 진흥법 개정 작업을 완료했다. 데이터와 개인정보 관련 정책을 통합 관리하는 개인정보보호위원회도 출범했다.전문가들은 지난 1년간 진행된 일련의 정책적 방향에 후한 평가를 줬다. 디지털 전환이 전세계적 흐름이기 때문에 피할 수 없는 대세를 잘 포착했다는 평가다. 그러나 다수 전문가가 세부적인 측면에서 미흡하다는 평을 덧붙였다. 특히 개발자, 엔지니어 등 우수한 IT인재를 키워내는 교육 정책 부분에 큰 변화가 필요하다고 조언했다.디지털 뉴딜디지털 뉴딜, SW진흥법 개정 높이 평가작년 6월 발표된 ‘한국판 뉴딜’은 4년차를 맞은 현정부의 새로운 승부수였다. 3년간 160조원을 투입하는 한국판 뉴딜은 ‘디지털 뉴딜’, ‘그린 뉴딜’, ‘안전망 강화’ 등 세 축을 바탕으로 진행된다. 산업의 방향 전환과 일자리 창출, 사회 취약계층 지원 등이 목표다. 그 가운데 디지털 뉴딜은 ▲데이터댐, 5G 네트워크, 클라우드 컴퓨팅 등 인프라 투자 ▲비대면 산업 육성, 교육 인프라 디지털 전환, 산업계 AI 접목 등의 체제 변환 ▲데이터, AI 등 인재 교육 등으로 진행된다. 3년간 58조2천억원을 투자하고, 일자리 90만3천개를 창출한다는 계획이다.디지털 뉴딜 정책은 일단 공공과 민간 각지에서 생성되는 데이터를 5G란 수로를 통해 데이터댐에 모으게 된다. 데이터댐 기반은 클라우드 컴퓨팅 기술로 구축되며, 데이터댐에 많은 데이터를 담으면서 동시에 AI와 분석에 활용하기 위한 빅데이터 플랫폼이 마련된다. 모인 데이터는 유관부처의 관리감독 하에 공공과 민간 전반에서 새로운 디지털 사업을 만들어내는데 쓰인다. 이것이 한국판 뉴딜 정책의 '디지털 인프라'다. SOC 디지털화, 교육인프라 디지털 전환, 비대면 산업 육성 등도 진행된다.이 과정에서 데이터 가공과 활용에 전문적인 역량을 갖춘 인재를 육성하고, 공공 일자리에서 시작된 데이터 관련 일자리가 민간으로 퍼지게 된다. 우선 당장 필요한 데이터 가공인력으로 단기 수요 일자리를 창출하고, 이들을 고급인력으로 키워 향후 성장할 미래산업 기업의 일자리로 이동시키겠다는 계획이다. 그를 위해 공공, 민간 교육기관의 소프트웨어 인재 공급 확충에 투자한다.정부는 2022년까지를 디딤돌 마련기라 표현하는데, 2년차에 첫해 사업비의 10배에 달하는 67.7조원이 투입된다. 3년차부터 디지털 전환을 마무리하고, 신산업 성장을 도모한다. 정부는 이 시기를 대전환 착근기라 설명하는데 3년 간 100조원 가량이 투입될 예정이다.디지털뉴딜 로고전반적인 디지털 뉴딜의 평가는 시의적절했다는 쪽이다.이민석 이노베이션아카데미 학장은 “정부가 팬데믹 상황에서 옳은 방향의 투자를 선정했다”며 “급하게 진행되는 와중에 부족한 점들도 나타나겠지만, 디지털 뉴딜은 거스를 수 없는 대세”라고 평가했다.최경진 가천대학교 교수는 “코로나19 대응, 디지털 전환의 시대적 요구, 글로벌 시장환경 변화 등을 종합적으로 고려했을 때 비대면, 클라우드, 데이터댐, AI 등 디지털 뉴딜이라는 정책 방향을 설정한 것은 매우 적절하고 바람직하다”며 “특히 지난해 코로나19로 긴박한 상황에서 시장에 활력을 불어넣기 위한 부양 측면의 정책으로서 시의적절한 정책이었다”고 밝혔다.작년 첫발을 뗀 후 정책이 본궤도에 오르는 올해가 성패의 분수령을 가를 전망이다. 질적인 성과를 보여야 내년 실질적 확산이 이뤄질 수 있다는 지적이다.최경진 교수는 “2021년은 이어진 위기를 극복하고, 2022년 이후의 미래를 준비하는 매우 중요한 전환기”라며 “전환기인 2021년은 미래 경제발전의 초석이 되기 위한 실질적 성과나 사회경제적 기반을 유형적으로 만들어내야하는 상황이기 때문에 클라우드 확산, 관련 산업 진흥, 단순히 데이터를 많이 모으는 것만이 아니라 실제 활용성을 높이기 위한 정책 수립 및 추진, 데이터산업의 고부가가치 창출을 위한 인력양성과 시범사업이 실시돼야 한다”고 설명했다.최 교수는 “데이터3법 개정 이후 데이터 활용을 활성화하기 위한 구체적인 모범사례 발굴, AI 진흥을 위한 규제의 예측가능성 제고와 학습용데이터 활용 기반 마련, AI 스타트업 지원 등 구체적인 세부 정책을 마련하고 추진해야 한다”며 “특히 AI 및 데이터 관련 정책은 각각의 수요에 맞는 활용 지원이 필수적이어서 세밀한 정첵 수립 및 추진이 필요하다”고 진단했다.뉴딜 정책이 다양한 분야에서 이뤄지다보니 실제 단일 사업의 규모에 아쉬움을 표하는 입장도 있다.채효근 IT서비스산업협회 부회장은 "단순히 나눠먹기식 뉴딜이 아니라 미래를 혁신적으로 가꾸어 나갈 수 있도록 예산의 폭과 적용 범위가 확대되길 바란다"며 "민간 자금이 적극 투자될 수 있는 규제의 개선과 같이 이루어 졌으면 한다"고 요청했다.소프트웨어 진흥법 개정 효과 서서히 나온다지난해 12월 오랜 시간 논의됐던 소프트웨어 진흥법 개정안이 마침내 시행됐다. 개정 법안 6월 공포 후 시행령 발표가 12월에야 이뤄졌다. 당초 손쉽게 국회 문턱을 넘을 수 있을 것으로 예상됐으나 정치적 상황에 휩쓸리며 표류하다 20대 국회 마지막 본회의에서 통과됐다.업계 염원을 담았다는 평가를 받았던 새로운 소프트웨어 진흥법은 8장 78개 조항 및 부칙으로 이뤄졌다. 이전 법보다 조항이 30개나 늘었다. 전면 개정으로 부르는 이유다. 법 이름도 기존 SW산업진흥법에서 산업을 떼어내고 'SW진흥법'으로 바뀌었다.30개 신설 조항은 다양하게 이뤄졌다. 기존 법에 없던 조항, 기존 법 조항을 늘린 조항, 하위법령에 있던 걸 끌어올린 조항 등 여러 형태가 혼합해 있다. 특히 업계는 공공SW시장 수발주 관행을 다룬 5장(SW사업 선진화)을 주목하고 있다. 불합리한 발주 관행을 개선하기 위한 과업심의위원회 설치, 요구 사항 상세화, 원격지 개발 등을 다루고 있기 때문이다.새 SW진흥법의 가장 큰 변화는 공공SW 사업 과업 내용 변경에 따른 계약금액 조정을 재심사하기 위한 과업심의위원 설치다. 공공분야 발주 문제를 개선해 공공SW 사업을 수주한 SW기업과 직원에게 안정된 개발환경을 제공하기 위해 포함됐다. 단계별 분리발주제도 도입됐다. 공공SW사업을 발주할 때 기획과 설계 부분을 우선 발주하고, 이후 개발 및 구축 과정을 별도 사업으로 발주하는 방식으로 바뀐다. 원격지 개발도 가능해졌다. 일정 보안요건을 갖춘 개발사는 원하는 장소에서 개발을 허용한다는 내용을 담았다.공정계약 원칙에 따라 갑질을 근절하고 수주자와 발주자, 기업과 근로자 간 공정한 거래를 위한 표준계약서도 제정될 예정이다.  민간 기업의 공공SW사업에 참가 폭도 확대됐다. SW설계서, 소스코드 등 SW사업 산출물을 다시 사용할 수 있는 지식재산권 인정 내용도 담았다.이민석 학장은 “오랫동안 업계에서 요구해왔던 내용들이 수용돼 다행이며, 늦은감 있지만 한 단계 올라섰다고 생각한다”며 “특히 국가연구개발사업에서의 소스의 공개 및 오픈소스 방식의 개발을 활성화에 관한 내용이 포함된 것을 높이 평가한다”고 밝혔다.그는 “구체적인 시행령과 연구개발에 적용되는 규정의 개정이 빠르게 이루어져야 혁신을 드라이브하는 가장 큰 힘인 오픈소스를 세금으로 진행되는 국가적 연구개발에도 잘 활용할 수 있게 된다”고 설명했다.최경진 교수는 “미래 지능정보사회에서의 소프트웨어의 중요성을 고려해 소프트웨어 진흥법으로 전면 개정한 것은 의미있는 진전이며, 시의적절한 개정”이라며 “중소 SW사업자의 사업참여를 지원하기 위한 공공SW사업 대기업참여제한제도를 개선해 데기업 및 상호출자제한기업집단에 속하는 회사가 참여할 수 있는 공공SW사업의 범위를 확대한 것도 의미있는 진전”이라고 평가했다.소기의 성과를 이뤘지만 구체적인 부분에서 아쉽다는 의견도 제기된다. 채효근 부회장은 과업 변경의 기준과 절차를 만들었지만 그에 소요되는 추가예산의 지급 여부, 헤드카운트 중심의 사업관리 관행, 상용SW 분리발주 강화에 따른 통합비용 현실화 부족, 민투형 사업에 대한 명확한 영역 및 대가 지급 방안 부재 등을 꼽았다.채 부회장은 "지속적으로 범 부처가 협력해서 개선해 나가야할 현안들이 많다"며 "중소 및 중견기업이 공공사업의 주역으로 성장할 수 있도록 더 많은 제도적 개선과 성장의 발판을 만들어 줄 수 있는 정책이 필요하다"고 밝혔다.공공 SW 사업 대기업 참여제한 제도도 소프트웨어 진흥법 시행령에서 수정됐다. 혁신 신시장 창출과 해외진출이 가능한 사업에 대해선 대기업 참여를 허용하기로 했고, ‘대기업 예외인정 조기심사제’를 도입해 예외인정 여부를 1년 전에 예측 가능하도록 했다. 무제한이던 대기업참여제한 예외인정 심의 신청 횟수는 2회까지로 제한했다. 대중소 기업 간 상생협력을 강화하기 위해 대기업이 주사업자가 아닌 공동수급인으로 참여하는 '부분인정제'도 도입했다.이에 대한 입장은 엇갈린다. 중소중견 기업을 육성한다는 기존 목적에서 다소 후퇴했다는 의견과, 단순히 기업 규모로 사업 참여를 규제하는 건 상호 연계 비중이 높은 현대 IT시스템에 적합하지 않다는 의견이 있다.최 교수는 “소프트웨어는 데이터와 함께 미래 사회의 필수적이고 핵심적인 요소를 이루고, 기반이 되는 중요 소프트웨어의 경우에는 대중소기업이 협력하고 각자의 장점을 살려서 완성도 높은 공공SW사업을 하도록 환경을 만드는 것이 중요하다”며 “대기업 등의 참여를 제한하는 형태로만 규제하는 것은 고도의 복잡하고 상호연계된 시스템이 점점 중요해지는 공공SW사업의 신뢰성과 대중소기업의 협업상생을 모두 고려한 적합한 규제체계라고 보기 어렵고, 더욱이 심의위원회의 심의결과에 따라 결과가 달라질 수 있어서 예외를 허용하는 범위에 대한 예측가능성이 담보되지 않는다”고 지적했다.그는 “AI 등 고도의 공공SW사업에 대한 집중적인 진흥을 위해 대중소기업의 상생협력과 고도 SW사업을 위한 대기업 참여가 조화되는 보다 발전된 규제모델을 찾는 것이 필요한 점에서 아쉽다”고 덧붙였다.수요에 대응 못하는 인재 양성, 변화 필요코로나19 대유행은 전세계 기업, 국가, 조직, 공공기관 등 전반적인 디지털 수요를 폭발시켰다. 이에 우수한 개발자와 엔지니어 인력 수요가 급증했고, 곳곳에서 인력 부족 현상이 나타나고 있다. 이런 가운데 대형 인터넷 서비스 기업이 고급 인력을 블랙홀처럼 빨아들이며 개발자 연봉 인상 릴레이가 이어지고 있다.정부는 그동안 초중등교육과정의 소프트웨어 교육 의무화, 소프트웨어 중심대학 지정, AI전문대학원 지정 등 IT인재 양성에 적지 않은 투자를 이어오고 있다. 하지만 시장의 인력 수요를 공급이 전혀 따라주지 못하는 상황이다. 소프트웨어 개발자 육성을 위한 정책이 이어지고 있지만, 큰 틀의 변화가 필요하다는 지적이 많다.이민석 학장은 “고등교육 수준의 개발자 육성은 계속 투자 성격으로 차근히 진행됐다”며 “다만, AI대학원 등 최고급 연구 인력 양성에 대한 투자를 가장 잘할 수 있는 곳에 집중하지 못하고 나눠주기식 지원을 하고 있는 것이 아쉽다”고 지적했다.(제공=이미지투데이)이 학장은 이어 “공교육 현장에 필요한 소프트웨어, 컴퓨팅 사고력 교육은 교육부 또는 교육계의 관성을 아직 이기지 못하고 표류하고 있는 것이 현실”이라며 “소프트웨어 교육 시수도 아직 턱없이 부족하고, 교사 양성 및 교육도 부족한 상황이며, 큰 틀의 변화가 필요하다”고 강조했다.최경진 교수는 “소프트웨어 교육 투자는 매우 바람직하나 소프트웨어교육의 양적 성과에 초점을 맞춰서는 안 되고 학생들의 진로를 고려해 공통 소프트웨어 교육과 개별화되거나 진로방향별 특화된 소프트웨어 교육이 병행돼야 한다”며 “입시 및 성과 위주의 교육환경에서 소프트웨어 교육이 과도한 부담이 되거나 구색맞추기식 교육이 되지 않고 실용적인 교육이 될 수 있도록 이끌어 가야 한다”고 밝혔다.일부 대기업과 유명 IT기업으로 인력이 쏠리면서 IT서비스 산업의 위기가 목전에 왔다는 지적도 있다. 공공, 민간 교육기관에서 인력이 나오고 있지만, 양적으로 질적으로 모두 부족하다는 것이다. 특히 새롭게 양성되는 개발자의 실무 역량 부족이 시급히 해결돼야 할 문제로 꼽힌다.채효근 IT서비스산업협회 부회장은 "정부 교육 기관을 통한 인재 양성은 한계가 있을 수 밖에 없다"며 "실무에서 쓰이는 자료나 기술을 사용하지 않기 때문에 사회에 진출하고 추가 교육이 필요하다"고 말했다.채 부회장은 "이를 개선하려면 대기업과 교육기관이 연계하는 산학협력을 강화해 학교 과정에서도 실무에 참여할 수 있는 기회를 늘리는 것이 필요하다"고 덧붙였다.개인정보보호위원회 원년, 국가 거버넌스 보완해야개인정보보호위원회는 작년 8월 공식 출범했다. 작년 2월 데이터3법(개인정보보호법, 정보통신망법, 신용정보법)의 시행에 따라 행정안전부, 방송통신위원회, 금융위원회 등에 분산됐던 개인정보보호 기능을 한곳으로 통합한 것이다.개인정보보호위원회는 ▲개인정보법에 따른 행정안정부의 공공·민간 개인정보보호 총괄 기능 ▲정보통신방법에 따른 방송통신위원회의 정보통신분야 개인정보보호 기능 ▲신용정보법에 따른 금융위원회의 상거래 기업의 개인신용 정보보호에 대한 기능 등을 포함한다.개보법 개정 취지를 반영해 향후 안전한 데이터 활용, 자율 보호, 신기술 대응 등과 관련된 정책 기능을 대폭 강화할 방침이다.데이터 및 개인정보 정책은 갈수록 중요해지고 있다. 데이터3법 개정으로 마이데이터 등 데이터 산업이 활성화의 물꼬를 텄고, 유럽연합의 개인정보보호규정(GDPR) 같이 정보주체자 권익 보호를 중시하는 흐름이 세계적으로 거세지고 있다. 데이터를 활용해 새로운 아이디어와 기술을 만들려는 수요 속에, 개인정보 오남용에 따른 피해를 방지해야 하는 어려운 줄타기가 시작됐다.개인정보보호위원회 전체회의 모습데이터 산업은 AI, 빅데이터, 사물인터넷(IoT) 등 4차산업혁명의 주요 지점이다. 미국과 중국이 한발 앞선 상황에서 선두권을 추격해야 할 때 일반소비자의 불신을 해소하고, 사업자의 원활한 데이터 활용이 이뤄져야 한다.개인정보보호위원회의 출범 자체는 좋은 평가를 받고 있다.최경진 교수는 “데이터3법 개정으로 독립 행정기관으로서 개인정보보호위원회를 출범시켜서 개인정보보호정책을 일원화시키고 있는 것은 매우 바람직한 방향으로서 적절한 정책추진”이라며 “미래 데이터 기반 사회는 모든 것이 개인정보와 관련이 있고, 개인정보를 합리적이고 효과적으로 보호하면서 활용토록 하는 것이 매우 중요하기 때문에 개인정보보호위원회가 일관성 있게 법을 집행하는 체계를 구축한 것은 바람직하다”고 밝혔다.그는 “최근 개인정보보호법 2차개정을 추진하면서 미래 사회에 대비하고 합리적인 활용을 꾀하면서 글로벌 데이터 유통까지 고려한 것은 개인정보보호위원회의 출범의 성과”라고 덧붙였다.반면 정부의 개인정보 정책과 데이터 정책에 대해 전문가들은 초기인 만큼 혼선을 보이고 있다고 지적도 있다.이민석 학장은 “개인정보, 데이터 정책은 정부가 의지는 가지고 있으나, 아직 중심을 확실히 잡고있지는 못하고 있다”며 “워낙 이해관계자가 많아 조율이 필요한 영역인데, 전체를 총괄하는 국가적 CDO 등과 같은 거버넌스가 부재해, 혼선과 지지부진함이 아직 존재하고 있다”고 지적했다.그는 “하지만 본격적인 마이데이터 사업이 시작되면 데이터 주권도 확보하고 서비스의 혁신을 이룰 수 있는 기반을 확보한 점은 높이 평가한다”고 덧붙였다.최경진 교수는 “개인정보보호위원회 출범 초기인만큼 다른 부처의 데이터 산업진흥 과정에서 약간의 불협화음이 발생하는 경우가 있는데, 이는 초기의 부처간 기능과 역할의 조화가 자리잡지 못한 것으로 보인다”며 “향후 명확한 역할 정립이 이루어지고 개인정보보호위원회의 일원화된 정책 추진체계가 공고화되면 해결될 것”이라고 말했다.최 교수는 “개인정보보호위원회의 보호기능과 과기부 등 다른 부처의 진흥 기능 사이에서 비교적 조화로운 개인정보 및 데이터 정책이 수립 및 추진되고 있다”며 “앞의로의 데이터 정책과 관련해서, 미래 사회의 핵심 요소인 개인정보의 안전한 활용을 통한 보호에 대한 민간의 신뢰성과 예측가능성을 제고할 수 있도록 개인정보보호위원회의 일관성 규제체계가 자리잡도록 정책을 추진해 나가야 한다”고 조언했다.그는 “그렇지 못하면 개인정보 규제의 혼란은 데이터 산업에 불확실성을 가져오고 결과적으로 데이터를 기반으로 한 모든 산업의 발전이 저해될 수 있다”고 강조했다.개인정보보호 정책을 네거티브 형태로 해 악용사례를 방지해야 한다는 의견도 제시됐다. 채효근 부회장은 "개인정보보호의 목적은 개인정보 악용 피해 방지하는 것으로 네거티브 정책이 필요한 분야인데 미리 포지티브 법령을 제정함으로 개인정보를 제대로 보호하지 못하고 공공데이터 활용을 근본적으로 막는 결과가 되는 것 같다"며 "일벌백계식으로 개인정보를 악용하고 피해를 주는 경우 회생할 수 없을 정도로 응징해야 하나, 지금은 법에 언급한 보호조치를 취한 경우 정보누출 사고에서 면책될 여지가 있어서 그 책임감이 약한 것 같다"고 지적했다.김우용 기자(yong2@zdnet.co.kr)김윤희 기자(kyh@zdnet.co.kr)남혁우 기자(firstblood@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 대학경제 송하늘 기자] 삼육대학교는 최근 과학기술정보통신부가 주관하는 '2021년 SW중심대학' 사업에 신규 선정됐다고 22일 밝혔다. 사업비 규모는 최대 6년(4+2년)간 연 10억 원에 달한다.SW중심대학은 대학교육을 소프트웨어(SW) 중심으로 혁신해 SW핵심인재를 양성하는 사업이다. 지난 2015년 시작돼 2019년까지 40개 대학이 이 사업에 선정됐으며, 1만 7485명의 SW전공인력과 9674명의 융합인력을 배출했다. 올해 SW중심대학은 삼육대가 포함된 특화트랙 2개 대학(경쟁률 5.2대 1)과 일반트랙 7개 대학(경쟁률(4대 1) 등 모두 9개 대학이 신규 선정됐다.삼육대는 '건강한 지역사회를 위한 SW건강과학 융합인재 양성'을 목표로 사업을 운영한다. 특히 건강과학 특성화 분야에서 100년 이상의 노하우를 축적한 만큼 보건의료에 인공지능(AI), 빅데이터 등 신기술을 접목해 SW역량을 갖춘 융합인재를 양성할 계획이다.우선 SW건강과학특화전공으로 △SW중독심리 △SW중독재활 △SW보건빅데이터 등 3개 연계전공 과정을 신설한다. 이는 SW·AI 전공인 컴퓨터공학부와 지능정보융합학부 외에도 간호학과, 물리치료학과, 보건관리학과, 상담심리학과, 약학과 등 보건의료 학과를 융합한 전공과정이다. SW 관련 학과 개편도 추진한다. 인문사회계열인 경영정보학과와 공학계열 IT융합공학과를 통합한 지능정보융합학부를 '인공지능융합학부'로 개편해 SW교육기반을 조성한다. 전임교원은 내년 4월까지 기존 14명에서 30명으로 확충한다. SW특성화 실습실도 기존 7개에서 24개로 증설한다. SW우수인재 선발을 위한 'SW인재전형'을 신설하고, SW·AI 단과대학인 미래융합대학 입학생 전원에게 SW특성화장학금도 지원할 예정이다.이와 함께 전교생 대상 SW기초교육을 강화한다. 기존 단일과목으로 운영 중인 '컴퓨팅사고력'을 전공별로 세분화하고 과목수도 늘린다. 입학 전 예비 신입생을 대상으로 하는 SW기초교육도 새롭게 도입한다. 'SW와미래사회', '컴퓨팅사고 및 기초코딩' 2개 과목이다. 이외에도 산학협력 교육과정을 강화해 현장밀착형 SW전문 인력을 양성한다. 모든 3~4학년 SW전공자는 산업체에서 실제 프로젝트를 수행하는 산학연계 교과목을 반드시 이수해야 한다. 해외 네트워크를 활용한 글로벌 펀드도 조성해 해외 인턴십과 취·창업도 지원한다.김일목 총장은 "삼육대는 전통적으로 보건의료 및 건강과학 분야에 강점을 갖고 있다"면서 "이번 SW중심대학 사업 선정을 계기로 이같은 특성화 분야를 4차 산업혁명 시대에 맞는 SW기반의 융합적 교육으로 전환할 것"이라고 말했다.송하늘 기자 webmaster@mt.co.kr▶부동산 투자는 [부릿지]▶주식 투자는 [부꾸미TALK]▶부자되는 뉴스, 머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>SW 미래채움사업을 통해 양성된 SW 강사가 최근 백령도의 한 초등학교에서 학생들을 대상으로 SW교육을 벌이고 있다.인천테크노파크(인천TP)는 인천 섬마을 학생의 소프트웨어(SW) 교육을 통한 도심과 정보교육 격차 해소 등을 위해 '찾아가는 SW교육'을 벌이고 있다고 26일 밝혔다.이 교육은 인천시와 과학기술정보통신부가 추진하는 'SW 미래채움사업'의 하나로, 청년 및 경력단절 여성, 시니어 등을 SW 강사로 양성, 초중고생 대상 SW교육에 투입하는 프로그램이다. 인천 등 전국 10개 지역에서 운영 중이다.올해 이 사업을 3년째 벌이고 있는 인천TP는 지금까지 209명의 SW강사를 양성, 인천지역 143개 초중고 1만여명의 학생을 대상으로 SW교육을 벌였다. 또 SW미래채움 교육페스티벌을 두 차례 열고 콘텐츠를 지속적으로 보급하고 있다.인천시교육청과의 협업으로 희망 학교 또는 기관을 찾아가는 SW교육은 인공지능(AI), 3D펜, 사물인터넷 등 다양한 분야의 SW교육과정을 운영, 호응을 얻고 있다.올해 찾아가는 SW교육에는 인천지역 500여개 초중고에서 2만9000여명이 신청하는 등 관심이 높다. 인천TP는 백령, 덕적, 연평, 주문, 대이작도 등 섬마을 학교를 앞서서 찾아 로봇을 이용한 AI 코딩 수업과 3D펜을 활용한 모델링 등 다채로운 SW교육을 제공할 예정이다.인천TP 관계자는 “찾아가는 SW교육에 대한 높은 수요는 SW미래채움사업으로 SW교육 생태계가 확장됐다 반증”이라며 “앞으로도 소외된 인천지역 학생들의 SW교육 격차 해소 및 우수한 미래 인재 양성을 위해 노력하겠다”고 말했다.김정희기자 jhakim@etnews.com▶ "OPC UA 입문, 기본 개념에서부터 적용까지" 30일 개최▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>조경식 과기정통부 제2차관이 28일 오후 서울 강남구 네이버커넥트를 방문해 SW 인재양성 지원방안을 논의하고 있다.  과기정통부 제공    조경식 과학기술정보통신부 제2차관이 28일 서울 강남구 네이버 커넥트재단(이사장 조규찬)을 방문해 민관 협력을 통한 SW(소프트웨어) 인재양성 지원 방안을 논의했다.간담회에는 네이버 커넥트재단, 팀 스파르타, 코스콤, 더존비즈온, 마이다스아이티, SW산업협회 등 산업계와 SW중심대학, SW정책연구소 등의 전문가가 참여했다.네이버 커넥트재단은 네이버가 2011년 설립한 비영리 SW 교육기관으로, 초·중등 학생부터 일반 성인까지 교육 대상이다. IT분야 실무 교육을 통해 현장형 인재를 양성하면서 온라인 교육 플랫폼을 운영하는 등 다양한 방식의 교육혁신 모델을 시도하고 있다. 특히, SW 교육과정 수료자를 자사 채용으로 연계하고 있다.간담회에서는 네이버 커넥트의 SW 교육모델 외에도, 기업이 대학에 직접 교육과정을 개설해 인재를 양성하고 채용으로 연계하는 팀 스파르타모델, 중소·벤처기업 등이 필요로 하는 교육과정을 전문 교육기관에 개설해 운영하는 모델 등이 제시됐다. 정부가 기업의 SW 인재양성 활동에 대해 재정적·제도적으로 지원하는 등 민관협력 방안도 논의했다조경식 과기정통부 제2차관은 "전 산업의 디지털 전환 가속화로 SW 인재 수요가 급증하고 있는 상황에서, 정부는 한국판 뉴딜 'AI·SW 핵심인재 10만 양성'을 통해 인재 공급을 지속적으로 확대하고 있다"면서 "SW인재 양성을 위해 민간 부문의 역할도 중요한 만큼 기존 정부사업에 기업 수요를 보다 적극적으로 반영하고, 기업이 필요한 인재를 직접 양성하는 과정에 대한 지원과 민관협력 방안도 적극 검토하겠다"고 밝혔다. 안경애기자 naturean@dt.co.kr ▶[ 네이버 메인에서 디지털타임스 구독 ] / ▶[ 뉴스스탠드 구독 ]▶디지털타임스 홈페이지 바로가기</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +380,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,16 +421,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,13 +729,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +749,513 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/crawling_data/6_10.xlsx
+++ b/crawling_data/6_10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
-  <si>
-    <t>paths</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
+  <si>
+    <t>path</t>
   </si>
   <si>
     <t>title</t>
@@ -25,7 +25,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>contents</t>
+    <t>content</t>
   </si>
   <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004582422</t>
@@ -729,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,16 +822,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -839,16 +839,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -856,16 +856,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -873,16 +873,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -890,16 +890,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -907,16 +907,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -924,16 +924,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -941,16 +941,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -958,16 +958,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -975,16 +975,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -992,16 +992,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1009,16 +1009,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1026,16 +1026,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1043,16 +1043,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1060,16 +1060,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1077,16 +1077,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1094,16 +1094,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1111,16 +1111,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1128,16 +1128,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1145,16 +1145,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1162,16 +1162,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1179,16 +1179,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1196,16 +1196,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1213,15 +1213,32 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>86</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1255,6 +1272,7 @@
     <hyperlink ref="B27" r:id="rId26"/>
     <hyperlink ref="B28" r:id="rId27"/>
     <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/crawling_data/6_10.xlsx
+++ b/crawling_data/6_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>path</t>
   </si>
@@ -25,340 +25,316 @@
     <t>date</t>
   </si>
   <si>
+    <t>press</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004582422</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002942712</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004633104</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010472110</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004538863</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010483106</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002672234</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=100&amp;oid=016&amp;aid=0001830375</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002942921</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=277&amp;aid=0004898192</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=001&amp;aid=0012343848</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010476203</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010464067</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005322796</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002186427</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002942710</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002941403</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010479381</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010479497</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=001&amp;aid=0012296173</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005310578</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005311188</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=018&amp;aid=0004914627</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005306793</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002220884</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004576699</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002941208</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002670474</t>
-  </si>
-  <si>
-    <t>현대오토에버도 SW 인력 500명 뽑는다</t>
-  </si>
-  <si>
-    <t>[신SW상품대상 3·4월 수상작]심사평</t>
-  </si>
-  <si>
-    <t>김봉진 "교육 불평등 해소위해 노트북 써달라"</t>
-  </si>
-  <si>
-    <t>울산 소프트웨어 교육의 산실 'SW미래채움 센터' 개소</t>
-  </si>
-  <si>
-    <t>순천향대, 소프트웨어 중심대학 선정...AI·SW 융·복합 인재양성</t>
-  </si>
-  <si>
-    <t>배재대 AI·SW사업단, 외국인 유학생 전주기적 SW 교육</t>
-  </si>
-  <si>
-    <t>SW협회-네이버클라우드, 중소 SaaS기업 글로벌 진출 돕는다</t>
-  </si>
-  <si>
-    <t>조선대 SW중심대학사업단-광주남구청 코딩교실 운영</t>
-  </si>
-  <si>
-    <t>한동대, SW중심대학 창업팀 '이노폴리스캠퍼스사업'에 선정</t>
-  </si>
-  <si>
-    <t>모아소프트 “과학기술정보통신부 선정 SW 전문인력 양성기관(SWETI) 지정”</t>
-  </si>
-  <si>
-    <t>성대 등 9곳 SW중심대학 선정…AI대학원은 서울대·중앙대에</t>
-  </si>
-  <si>
-    <t>포항테크노파크, SW 전문인재 양성기틀 마련한다</t>
-  </si>
-  <si>
-    <t>선문대, 충남교육청과 'AI·SW 인재' 발굴 협약</t>
-  </si>
-  <si>
-    <t>충북교육연구정보원, 소프트웨어 교육용 교구 대여</t>
-  </si>
-  <si>
-    <t>포항TP, 2021년 ‘SW전문인력양성기관’ 선정</t>
-  </si>
-  <si>
-    <t>[신SW상품대상 3·4월 수상작]블루커뮤니케이션 '어썸코드'</t>
-  </si>
-  <si>
-    <t>[한국정보과학회 SWCS2021 특별세션]"초·중 SW교육 확대, 관심 높이고 AI교육 연계해야"</t>
-  </si>
-  <si>
-    <t>폴리텍 분당기술교육원 10일까지 클라우드 훈련생 모집</t>
-  </si>
-  <si>
-    <t>[교육소식] 동신대, 전남도 대학·지역연계협력 지원사업 선정 등</t>
-  </si>
-  <si>
-    <t>네이버, 세종시 학생·교사 대상 AI·SW 교육</t>
-  </si>
-  <si>
-    <t>'디지털 혁신' 이끌 임베디드SW 경진대회 개최…5월24일까지 접수</t>
-  </si>
-  <si>
-    <t>배재대, SW버스 활용 지역 학생 대상 4차 산업혁명 체험 교육</t>
-  </si>
-  <si>
-    <t>성균관대 소프트웨어융합대학, 과기부 SW중심대학사업 선정</t>
-  </si>
-  <si>
-    <t>충남대, 과기부 SW중심대학 2단계 사업 선정…6년간 110억 지원</t>
-  </si>
-  <si>
-    <t>SW 정책, B학점...'디지털 뉴딜'은 최선·디테일은 다소 미흡</t>
-  </si>
-  <si>
-    <t>삼육대, 'SW중심대학' 신규 선정...최대 60억 원 지원</t>
-  </si>
-  <si>
-    <t>인천TP, 섬마을 학생 찾아가는 SW교육 인기</t>
-  </si>
-  <si>
-    <t>SW 산업현장 찾은 조경식 과기부 차관 “민관협력 SW 인재양성 추진”</t>
-  </si>
-  <si>
-    <t>2021.05.04. 오전 10:08</t>
-  </si>
-  <si>
-    <t>2021.05.03. 오후 4:02</t>
-  </si>
-  <si>
-    <t>2021.05.04. 오후 5:53</t>
-  </si>
-  <si>
-    <t>2021.04.28. 오후 4:44</t>
-  </si>
-  <si>
-    <t>2021.04.29. 오후 4:09</t>
-  </si>
-  <si>
-    <t>2021.05.05. 오전 10:21</t>
-  </si>
-  <si>
-    <t>2021.05.09. 오전 10:43</t>
-  </si>
-  <si>
-    <t>2021.05.03. 오후 1:10</t>
-  </si>
-  <si>
-    <t>2021.05.05. 오전 10:02</t>
-  </si>
-  <si>
-    <t>2021.05.06. 오후 3:06</t>
-  </si>
-  <si>
-    <t>2021.04.21. 오후 12:00</t>
-  </si>
-  <si>
-    <t>2021.04.30. 오후 2:21</t>
-  </si>
-  <si>
-    <t>2021.04.23. 오후 4:38</t>
-  </si>
-  <si>
-    <t>2021.04.30. 오전 8:25</t>
-  </si>
-  <si>
-    <t>2021.04.29. 오후 6:00</t>
-  </si>
-  <si>
-    <t>2021.04.27. 오전 8:22</t>
-  </si>
-  <si>
-    <t>2021.05.03. 오후 12:00</t>
-  </si>
-  <si>
-    <t>2021.05.03. 오후 12:57</t>
-  </si>
-  <si>
-    <t>2021.03.31. 오전 9:43</t>
-  </si>
-  <si>
-    <t>2021.04.25. 오전 11:00</t>
-  </si>
-  <si>
-    <t>2021.04.25. 오후 4:26</t>
-  </si>
-  <si>
-    <t>2021.04.28. 오후 4:25</t>
-  </si>
-  <si>
-    <t>2021.04.22. 오후 3:53</t>
-  </si>
-  <si>
-    <t>2021.05.02. 오전 11:56</t>
-  </si>
-  <si>
-    <t>2021.04.22. 오전 10:37</t>
-  </si>
-  <si>
-    <t>2021.04.26. 오전 11:12</t>
-  </si>
-  <si>
-    <t>2021.04.28. 오후 6:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		[머니투데이 이동우 기자] 현대오토에버가 핵심 인력 확보를 위해 상반기 대졸 신입사원 공개채용을 실시한다고 4일 밝혔다. 이번 공채는 현대자동차그룹 내 IT 3사인 현대오토에버, 현대엠엔소프트, 현대오트론의 합병법인 출범 이후 처음이다. 오는 11일까지 진행된다. 미래 자동차 IT 기술을 선도하기 위해 컴퓨터공학, 공간정보공학, 통계학 등 다양한 공학 분야의 인재를 모집한다. 채용 분야는 크게 △ICT(정보통신기술) △차량 전장 소프트웨어 R&amp;D △차량 응용 소프트웨어 R&amp;D △IT 영업·사업 기획 부문이다.자격 요건은 기졸업자 또는 2021년 8월 졸업 예정자다. ICT 분야 연구·개발(R&amp;D) 직무를 제외하고 전공에 대한 제한은 없다. 기본적인 개발 역량과 ICT 분야에 대한 꾸준한 관심과 열정을 갖춘 사람이라면 누구나 지원할 수 있다.채용 프로세스는 모두 비대면으로 진행된다. 서류 전형 합격자 대상 인성 검사 및 직무 역량 테스트를 시행하며, 1·2차 면접을 거쳐 최종 선발된 인원은 2021년 8월 안에 입사할 예정이다.이번 채용을 시작으로 올해 말까지 대규모 공채와 수시 채용을 통해 약 500여명의 소프트웨어 전문 인력을 확보해 R&amp;D 역량을 강화한다는 계획이다. 현대오토에버는 신규 비즈니스 대응력 강화 및 디지털 전환 가속을 지원하기 위해 조직 체계와 인사 제도의 개선도 추진한다는 계획이다. 모든 직원의 호칭을 '책임'으로 통일하고 사내외 신기술, 직무 관련 교육을 강화해 수평적 문화에서 전문가로 성장할 수 있는 발판을 제공한다. 유연 근로제와 재택근무 등으로 일에 몰입할 수 있는 환경도 만든다. 현대오토에버 관계자는 "글로벌 최고 기술력을 보유한 업체와 협업 등을 통해 모빌리티 소프트웨어 전문 기업으로 도약할 것"이라고 말했다. 이동우 기자 canelo@mt.co.kr▶부동산 투자는 [부릿지]▶주식 투자는 [부꾸미TALK]▶부자되는 뉴스, 머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>게티이미지뱅크일반소프트웨어(SW) 부문 수상제품인 이파피루스의 '모터센스'는 산업용 모터 고장 예측 솔루션이다.이 제품은 사물인터넷(IoT) 무선 센서를 모터에 부착해 진동, 온도 등의 모터 환경을 클라우드로 전송한 후, 인공지능(AI) 분석을 통해 모터 고장을 예측한다. PC와 모바일로 모터의 실시간 상태와 고장 예상 알림 서비스를 제공한다.센서는 내장 배터리로 작동되고 가동 중인 모터에도 간편하게 부착 가능해 가동 중단으로 인한 생산 손실이 없다. 와이파이를 통해 모터 정보를 전송하므로 별도 서버나 통신망을 구축할 필요가 없다.비싼 비용 때문에 도입하기 어려웠던 예지 정비 솔루션을 월 구독형 방식으로 도입해 생산 효율을 향상시킬 수 있다는 점도 주목할 만한 부분이다.멀티미디어&amp;서비스SW 부문 수상제품인 블루커뮤니케이션의 '어썸코드'는 SW 코딩 교육 솔루션이다.이 제품은 복잡한 코드를 입력하지 않고 쉽고 재미있게 코딩을 배울 수 있도록 스크래치, 엔트리와 같은 블록코딩 기능을 제공한다. 자체 개발한 각종 센서와 부품을 이용해 로봇, 자율주행, IoT 분야 교육이 가능하다.초급자를 위한 자동 환경설정과 업데이트 기능을 지원한다. 코드 에디터를 통해 소스코드를 파이썬으로 확인한 후 직접 코드를 수정해 여러 가지 형태로 동작시킬 수 있다.Hi 서울어워드 우수상품 선정, 미국, 중국, 인도네시아, 베트남 등 해외 시장에도 진출하고 있어 해당 분야에서 선전이 기대된다.김정국 한국외대 컴퓨터·전자시스템공학부 명예교수김정국 한국외국어대학교 컴퓨터 및 정보통신공학부 교수.▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>저소득층 1만명에 노트북 기부SW탑재한 삼성·LG 신형 제품'더기빙플레지' 첫 이행 '훈훈'  푸드테크(음식+기술) 서비스 '배달의민족' 운영사인 우아한형제들 김봉진 의장(사진)이 저소득층 학생 1만명에게 고성능 노트북을 지급한다. 앞서 지난 2월 공식 참여한 세계적 기부활동인 '더 기빙 플레지' 일환이다.   우아한형제들은 "김 의장이 지난 2월 발표한 '개인 재산 절반 이상 사회 환원 약속'의 첫번째 이행 방안으로 약 두 달에 걸쳐 전국 저소득층 학생 1만명에게 고성능 노트북을 순차적으로 지급할 예정"이라며 4일 이같이 밝혔다.   우아한형제들과 독일 딜리버리히어로(DH) 인수합병(M&amp;A) 작업 완료 등 싱가포르 기반 합작회사(조인트벤처, JV)인 '우아DH아시아' 설립을 위해 싱가포르에 머물고 있는 김 의장은 이날 희망브리지 전국재해구호협회와 온라인으로 '교육 불평등 해소를 위한 고성능 노트북 1만대 전달식'을 진행했다.   김 의장은 이날 전달식에서 "코로나 팬데믹 시대에 노트북은 아이들에게 꼭 필요한 학습도구라고 생각한다"며 "노트북이 아이들에게 신분 표시가 아니라 공부에 자신감을 불어넣어 주는 한편, 아이들이 어려운 환경에서도 희망을 가지고 열심히 공부했으면 좋겠다"고 강조했다. 이어 "친구들이 보는 앞에서 노트북을 나눠주면 낙인효과가 생길까 우려됐는데, 아이들이 직접 집에서 받을 수 있도록 배려줘서 감사하다"고 덧붙였다.   김 의장은 또 이번 고성능 노트북 확보에 선제적 도움을 준 업체에 감사인사를 전했다. 삼성전자와 LG전자가 올해 출시한 신형 노트북을 각각 5000대씩 구매했으며 학업에 필요한 소프트웨어(SW) 라이선스(MS오피스, 한컴오피스)도 구입해 함께 지급됐다. 총 지원액은 약 150억원 규모이다. 그는 "삼성전자와 LG전자에도 감사한 마음을 전한다"며 "CPU와 램 수급이 전 세계적으로 어려움이 많다고 하는데 이번 기부를 위해 우선적으로 많은 도움을 준 것에 대해 감사하다"고 말했다.   김 의장과 희망브리지는 지난달 28일 전국 17개 시·도교육청 협조를 받아 노트북을 지원할 대상 학생을 모집 및 선정했다. 희망브리지 송필호 회장은 "전 재산의 절반 이상을 기부하기로 한 김 의장의 첫 여정에 희망브리지가 함께 하게 된 것은 매우 의미 깊다"며 "김 의장 기부가 더욱 가치 있도록 최선을 다하겠다"고 말했다.  elikim@fnnews.com 김미희 기자 ▶ 헉! 소리나는 스!토리 뉴스 [헉스] / ▶ 너 그거 아니? [두유노우]▶ 날로먹고 구워먹는 금융이슈 [파인애플] / ▶ 모(毛)아 모아 [모아시스]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
-  </si>
-  <si>
-    <t>[울산=뉴시스]유재형 기자 = 울산시는 28일 울산정보산업진흥원(원자 구자록) 대강당에서 울산지역 소프트웨어 교육의 거점 임무를 수행할 'SW미래채움 울산센터' 개소식을 열고 본격적인 미래 SW 인재 양성에 들어갔다. 2021.04.28. (사진= 울산시 제공)photo@newsis.com *재판매 및 DB 금지[울산=뉴시스]유재형 기자 = 울산시는 28일 울산정보산업진흥원(원자 구자록) 대강당에서 울산지역 소프트웨어 교육의 거점 임무를 수행할 'SW미래채움 울산센터' 개소식을 열고 본격적인 미래 SW 인재 양성에 들어갔다.이날 개소식에는 송철호 시장, 박병석 울산시의회 의장, 노옥희 울산시교육감, 송주영 정보통신산업진흥원 본부장과 100명의 SW미래채움 울산센터 강사가 온·오프라인으로 함께했다.SW미래채움 울산센터는 2020년 61억원을 들여 조선해양 하이테크타운 3층 약 240㎡ 규모에 SW교육실, 참여형 수업지원 공유실, 창작전시실 등을 갖췄다.연간 SW 전문 강사 양성(300명), SW 초중등 교육(9000명) 등을 진행할 계획이다.SW미래채움 울산센터는 사업 1차연도인 지난해 5월부터 울산지역 초중고교롸 특수학교 아동·청소년을 대상으로 '찾아가는 SW 교육'을 통해 인공지능(AI), 코딩, 메이킹, 드론 등 수준별 맞춤형 전문교육으로 호응을 얻고 있다.SW 전문 강사 양성 및 고용 100명, SW 교육 4000여 명 등 실적을 거뒀다.SW미래채움 울산센터는 미취업 청년, 경력단절 여성도 SW 강사로 양성해 일자리를 지원한다.구자록 울산정보산업진흥원장은 "4차산업혁명 시대 AI·소프트웨어 교육의 필요성은 점점 중요해지고 있다"면서 "디지털 교육도시 울산 구현을 위해 울산이노베이션스쿨 등 울산형 데이터 크리에이터 양성 교육과 체계적인 연계를 통해 전문인재를 양성하겠다"고 전했다.☞공감언론 뉴시스 you00@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>150억원 투자해 SW 융합 교육 확대전공능력·AI핵심인재·산업연계 강화충남 아산의 순천향대(총장 김승우)가 8년간 150억원을 투자해 ‘웰라이프 분야 레인보우(RAINBOW)형 인공지능(AI)·소프트웨어(SW) 융·복합 인재양성’에 나선다. 순천향대는 과학기술정보통신부가 주관하는 소프트웨어(SW) 중심대학사업(2단계)에 최종 선정됐다고 29일 밝혔다.레인보우(RAINBOW)는 SW 중심대학의 핵심 사업으로 Reinforced(전공능력 강화), AI Skilled(AI 핵심 인재양성), Industrial(산업연계 강화), Notional(AI·SW 개념 확립), Boom-up(AI·SW 창업 확산), Open(AI·SW 교육 개방), Warrantable(AI·SW 교육능력 보증)을 의미한다.순천향대는 2015년부터 지난해까지 6년간 2만5095명의 SW 전공인력과 1만5642명의 융합 인력을 배출했다. 올해부터는 AI 신기술 교육 강화, 계열·수준별 SW 교육과정 운영 등 SW 교육 체계를 고도화한다.과기정통부는 올해 일반트랙(7개)과 특화트랙(2개)으로 9개 대학을 SW 중심대학으로 신규 선정했다. 순천향대는 일반트랙으로 기존 SW 중심대학과 신청요건(SW 입학정원 100명 이상)과 지원금(연 20억원)이 동일하다이 대학은 웰라이프 생활·실습형 빅데이터 기반의 교육연구 플랫폼(BLEP) 및 RAINBOW 교육 플랫폼 구축, SW융합대학(가칭) 신설, SW 특기자 전형 신설, 전교생 SW 기초교양 필수화, SW 친화적 교원업적평가제도 개선 등을 추진한다.또 SW 전공교육 이수학점을 높이고, AI·SW 전공 역량 졸업인증제와 산학필수 이수제를 신설해 졸업요건을 강화하기로 했다. 실습 비중 확대, 충남특화 심화트랙 및 웰라이프 특화 연계전공 신설 등 대학 특성을 반영한 SW 융합교육도 확대한다.전창완 연구산학부총장은 “건강하고 안전한 웰라이프(Well-Life) 신기술 수요에 맞는 차별화된 RAINBOW형 AI·SW 혁신 인재양성으로 대학의 위상을 더욱 높이겠다”고 말했다.아산=강태우 기자▶ 경제지 네이버 구독 첫 400만, 한국경제 받아보세요▶ 한국경제앱 다운받고 ‘암호화폐’ 받아가세요▶ 한국경제 구독신청-구독료 10% 암호화폐 적립 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>‘AI와 생활의 변화’ 시청각 자료 이용 4차산업혁명 흥미 유도배재대 AI·SW중심대학사업단 외국인 유학생 교육 *재판매 및 DB 금지[대전=뉴시스] 유순상 기자 = 배재대는 AI(인공지능)·SW(소프트웨어)중심대학사업단이 전날 외국인 유학생 110여명을 대상으로 전주기적 SW 교육을 실시했다고 5일 밝혔다.‘AI와 생활의 변화’라는 주제로 시청각 자료를 이용, 일상에서 활용되고 있는 인공지능 분야를 다뤄 4차 산업혁명의 흥미를 돋웠다.교육 참여 학생들은 배재대 한국어교육원 소속 정부초청장학생으로 베트남, 중국, 인도네시아 등 32개국 출신이다.사업단은 AI 및 4차 산업혁명 선도를 위해 구성원을 대상으로 AI·SW 공유교육을 매년 실시하고 있다. SW 중요성에 대한 대학 구성원들 인식 제고를 위해 자발적인 참여를 유도하고 있다.배재대 AI·SW중심대학사업단 외국인 유학생 교육 *재판매 및 DB 금지정회경 사업단장은 “AI와 SW 중요성은 아무리 강조해도 지나치지 않아 꾸준하게 공유 교육을 실시하고 있다"며 "대학 전구성원이 참여하는 AI·SW중심대학 위상을 굳건히 정립해 나가겠다”고 말했다.☞공감언론 뉴시스 ssyoo@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>본투글로벌센터·요즈마그룹코리아·GS글로벌 등과 공조국내 기업의 SaaS 전환, 인력교육, 판로개척 등 나서기로김상윤(왼쪽부터) GS글로벌 상무, 김종갑 본투글로벌센터 센터장, 박환수 한국SW협회 상무, 이기엽 요즈마그룹코리아 부사장, 김태창 네이버클라우드 전무가 7일 협약식에서 사진을 찍고 있다. SW협회 제공     한국소프트웨어산업협회(회장 조준희)는 7일 서울 강남구 네이버클라우드에서 네이버클라우드(대표 박원기), 본투글로벌센터(센터장 김종갑), 요즈마그룹코리아(대표 이원재), GS글로벌(대표 김태형)과 '국내 중소 SaaS(SW서비스) 기업의 글로벌 진출을 위한 컨소시엄' 업무협약을 맺었다고 밝혔다.컨소시엄은 'SaaS N(Successful And Absolute SaaS in Ncloud) 프로그램'이라는 이름의 파트너십 생태계를 구축, 기술 지원, 비즈니스 지원, 글로벌 판로개척 등 총 3단계를 돕는다. 기술 지원은 SW협회와 네이버클라우드가 맡는다. 협회는 △우수 중소기업의 SaaS 전환 및 역량 향상을 위한 전문 교육프로그램 운영 △SaaS 기업의 인재양성 및 우수 인재 채용 지원을 수행한다. 네이버클라우드는 프로그램 전반의 운영 및 참여기업 발굴, 클라우드 인프라 구축 교육 및 컨설팅을 담당한다. 완성된 SaaS 솔루션은 글로벌 진출을 고려한 비즈니스 지원으로 연결된다.본투글로벌은 SaaS 현지화를 위해 제품 시장 적합성을 검증한다. 요즈마그룹코리아는 글로벌 비즈니스 모델 수익 최적화를 위한 전략 수립 및 투자 연계를 지원한다. GS글로벌은 글로벌 네트워크를 활용해 판로를 확장하고, SaaS 솔루션이 필요한 고객을 매칭해 서비스가 이뤄질 수 있도록 돕는다. 박환수 SW협회 상무는 "클라우드 교육을 통해 국내 SaaS 기업의 역량향상을 지원하는 한편 'SaaS N' 프로그램의 성공적인 추진을 위해 중추적인 역할을 하겠다"고 밝혔다.안경애기자 naturean@dt.co.kr ▶[ 네이버 메인에서 디지털타임스 구독 ] / ▶[ 뉴스스탠드 구독 ]▶디지털타임스 홈페이지 바로가기</t>
-  </si>
-  <si>
-    <t>조선대학교 SW중심대학사업단 ‘찾아가는 코딩교실‘ 수업.[헤럴드경제(광주)=박대성 기자] 호남 최초 소프트웨어 중심대학인 조선대학교 SW중심대학사업단이 광주 남구청과 함께하는 ‘2021 찾아가는 코딩교실 AI·SW교육’ 프로그램을 진행하고 있다.조선대 SW중심사업단은 남구와 ‘인공지능(AI) 활용 평생교육을 위한 AI·SW교육을 위한 업무협약’을 체결하고 2019년 찾아가는 코딩교실에 이어 ‘지식재산 아카데미’ 프로그램 지원, 지난해에는 AI기초 활용을 위한 코딩교실을 확대했고 올해도 남구 지역민을 위한 AI·SW가치확산 프로그램을 진행 중이다.‘2021 찾아가는 코딩교실’은 조영주 담당교수가 SW중심대학사업단 교수진(이광옥, 임희경, 유소월 교수), 서희철 연구원과 함께 진행하고 있다. 소프트웨어 코딩체험이란 주제로 4월2일부터 12월까지 남구지역 빛여울초교 외 6개교 초등학교 학생들을 대상으로 언플러그드 교육, AR과 VR의 이해, 로봇과 함께하는 블록코딩언어를 로봇을 활용해 쉽고 재미있게 배울 수 있는 SW교육의 체험기회를 제공한다.조대 SW중심대학사업단 조영주 담당교수는 “AI 시대가 오고 초등학교 SW교육 의무화가 강화됨에 따라 학생들이 SW에 대한 흥미를 높이고 미래 진로탐색에 도움을 주는 시간이 되도록 최선을 다해 진행하겠다”고 말했다. parkds@heraldcorp.com▶환경적 대화기구 '헤럴드에코'▶밀리터리 전문 콘텐츠 ‘헤밀’▶헤럴드경제 네이버 채널 구독- Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		한동대학교(총장 장순흥)는 SW중심대학 창업팀이 이노폴리스캠퍼스사업에 최종 선정됐다고 5일 밝혔다.이노폴리스캠퍼스사업은 과학기술정보통신부 주최하고 연구개발특구진흥재단 주관하는 사업이다. 이번에 선정된 한동대 'DOBBY'팀(김민주, 김세인, 박예지, 이인석, 이정현), '큐'팀(문정예원, 전영우, 장유림)과 'WEIGHIT'팀(박건희, 김재빈, 박현아, 송하민)은 초기 MVP 제작비, 추후 법인 설립과 후속 성장지원 기회를 제공받을 예정이다.한동대 SW중심대학 창업팀(앞줄 왼쪽에서 4번째 조성배 SW중심대학 창업지원실장)이번 선정팀은 각각 'AI를 활용한 식자재 관리 애플리케이션', '연기연습 기능과 한국어 섀도잉 기능을 융합시킨 모바일 미디어 플랫폼', '타임랩스를 활용한 동기부여 모바일 트레이너' 아이템으로 선정됐다.조성배 SW중심대학 창업지원실장은 “한동대는 창업 교육으로 디자인 스프린트 캠프 개최, 창업 캡스톤 프로젝트, 소프트웨어 팩토리 창업 S-Lab, IT창업학회 벤처러스, 창업 자유학기 운영 등 창업을 희망하는 학생들을 적극적으로 지원하고 있다”고 말했다.포항=정재훈기자 jhoon@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>- 국방 무기체계 개발에 특화된 SW·AI·Big Data 전문가 인력 양성 목표스마트국방 전문기업 모아소프트(대표 장주수)는 과학기술정보통신부가 선정하는 ‘소프트웨어(SW)전문인력양성기관(이하 SWETI)’으로 지정(제 2021-17호)되었다고 4일 밝혔다.SWETI 사업은 소프트웨어산업진흥법 제22조제2항, 같은 법 시행령 제 23조5항 및 같은 법 시행규칙 제12조제3항에 따라 SW전문인력의 양성과 자질 향상을 위해 2013년 7월에 시작된 교육훈련 사업으로 소프트웨어 인력양성 프로그램을 운영하는 기업의 신청을 받아 평가위원회를 통해 교육과정, 교육시설 및 설비, 전문교수요원, SW전문교육 추진 및 운영계획, 교육운영 조직 및 예산 등 서류심사, 발표평가를 거쳐 최종 선정된다.모아소프트는 “국방 무기체계 개발에 특화된 SW·AI·Big Data 전문가 양성”을 목표로 국방부, 방위사업청, 주요 방산업체(LIG넥스원, 한화, 한화시스템, 현대로템, KAI, 대한항공 등)와 연계를 통한 기술수요 기반의 방산 수요기업 맞춤형 교육으로 무기체계 SDLC(Software Development Life Cycle)에 필요한 기술을 교육함으로써 방위산업 선진화를 촉진하고, 국방 무기체계 SW 전문인력 경쟁력을 확대해 갈 예정이다.모아소프트는 항공 SW 인증 획득을 위한 DO-178C 프로세스 교육, 자동화 도구를 활용한 정적시험 및 동적시험 과정, 국방무기체계 소프트웨어 보안성 시험, 국방무기체계 소프트웨어 신뢰성 시험, Kalman Filter 기본 과정, Bayesian Learning &amp; MCMC methods 과정, ▲ANSYS를 활용한 디지털 트윈 구축 등 다양한 주제로 방산 수요기업 맞춤형 교육 프로그램을 개발·운영 할 예정이다.모아소프트 장주수 대표는 “미래 전장에서는 첨단 무기 기술과 혁신 정도가 승패를 결정할 것이며, 미래 전장에서 우위를 점하려면 제4차 산업혁명 핵심기술을 무기체계에 적용하는 것이 필수적 이고, 이를 위해 SW가 핵심적인 역할을 담당해야 하며 국방무기체계 SW의 발전을 위해서는 국방무기체계 SW전문인력이 절대적으로 중요하다”고 강조 하며 “모아소프트는 스마트국방 전문기업이자 국방무기체계 소프트웨어 전문인력 양성기관으로서 사명감과 자부심을 갖고 24년간 방산·철도·항공·자동차·원자력 등 다양한 영역의 SW, AI, Data Science 분야에서 컨설팅/SW개발/시험/인증 경험을 통해 쌓아온 Know-How를 바탕으로 4차산업혁명의 기술적 Trend와 무기체계 SW개발에 특화된 교육을 시행하여 지상, 해상 및 공중과 우주 및 사이버공간을 포함한 5차원으로 확장된 미래전에 대비한 군 요구사항에 충족하는 국방 무기체계 개발에 특화된 SW·AI·Big Data 전문가 인력 양성에 최선을 다 할 것”이라고 밝혔다.최봉석 기자 mail00@asiae.co.kr▶ 속 시원한 풀이! 2021년 정통사주·운세·토정비결▶ 내가 몰랐던 당신들의 이야기 [나돌] 네이버TV ▶ 투자 성공의 핵심은 기업분석! 'CORE' 바로가기&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
-  </si>
-  <si>
-    <t>과기부, SW인재양성 위한 SW스타랩에 6개 연구실 선정과학기술정보통신부[과학기술정보통신부 제공]    (서울=연합뉴스) 정윤주 기자 = 소프트웨어(SW) 분야 인재 양성을 위한 SW중심대학이 9개 대학에 설치된다.    과학기술정보통신부는 21일 SW중심대학에 가천대, 경기대, 경북대, 성균관대, 순천향대, 전남대, 충남대, 항공대, 삼육대 등 9곳을 선정했다고 밝혔다.     이 중 가천대, 경기대, 경북대, 성균관대, 순천향대, 전남대, 충남대 등 7곳은 입학정원 100명 이상을 충족해야 하고 연 20억원을 지원받는다.    중·소규모 대학인 항공대와 삼육대에는 연 10억원을 지원한다. SW중심대학은 산업체 수요를 기반으로 SW교육과정을 개편하고, 전공 정원을 확대하거나 융합인력을 양성해야 한다.    올해부터는 인공지능(AI) 등 신기술 교육을 강화하고 계열별·수준별로 차별화된 SW교육과정을 마련해야 한다.    올해 신규 AI 대학원으로는 서울대와 중앙대가 선정됐다.     이들 대학은 AI 석·박사 40명 이상을 확보하고 전공 교수진 확충과 AI 심화·특화 교육과정 개설 등 운영계획을 제시했다. AI 대학원은 10년간 최대 190억원을 받는다.     이밖에 석·박사급 SW 인재양성을 지원하는 SW 스타랩으로는 서울대 시스템 소프트웨어 및 구조 연구실, 성균관대 자동화 연구실, KAIST AI 및 머신러닝 연구실, KAIST SW 보안 연구실, 단국대 임베디드 시스템 연구실, KAIST 인터랙션 연구실 등 6곳이 뽑혔다. SW 스타랩은 최대 8년간 연간 3억원씩을 지원받는다.      조경식 과기정통부 2차관은 "최근 산업계에서 사람 구하기가 힘들다는 목소리가 점점 커지고 있어 SW중심대와 AI대학원 등 신규 선정 대학이 빠르게 자리 잡는 것이 시급하다"며 "정부도 산업계 수요와 각 대학의 SW교육혁신 노력에 맞춰 인재양성 지원을 확대하겠다"고 말했다.  jungle@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 남녀 징병국가 현실은?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>SW전문인력양성기관 문 열어디지털 뉴딜 선도 기대[포항=뉴시스] 강진구 기자 = 경북 포항테크노파크(원장 이점식)는 지난 29일 오후 제5벤처동에서 과학기술정보통신부 지정 ‘2021년 SW전문인력양성기관(이하 SWETI)’을 개관했다.(사진=포항테크노파크 제공) 2021.04.30.photo@newsis.com *재판매 및 DB 금지[포항=뉴시스] 강진구 기자 = 경북 포항테크노파크(원장 이점식)는 지난 29일 오후 제5벤처동에서 과학기술정보통신부 지정 ‘2021년 SW전문인력양성기관(이하 SWETI)’을 개관했다고 30일 밝혔다.SWETI는 소프트웨어진흥법에 따라 매년 과기정통부에서 지정한다. 포항테크노파크 경북SW진흥본부는 24개 신규 지정기관 중 유일하게 경북지역 내 기관으로 선정됐다. 부설기관인 경북SW진흥본부는 과기정통부의 핵심 목표인 지역내 AI·SW전문인력 10만 명 양성을 달성하기 위해 지난 2020년부터 지역ICT이노베이션스퀘어조성사업과 SW미래채움사업 등 다양한 SW전문인력 양성 프로그램을 수행해 오고 있다.ICT이노베이션스퀘어조성사업은 지난 해 권역 평가에서 1위를 차지해 2021년도에 국비 28억원을 추가 확보하는 등 지역내 SW교육 전문기관으로서 위상을 높여 나가고 있다.이점식 포항테크노파크 원장은 “경북지역 디지털 뉴딜 선도를 위한 AI·SW인재 양성의 기틀이 마련됐다"며 "경북SW진흥본부를 중심으로 인공지능과 빅데이터, IoT 등 최신 SW기술의 시장 수요에 부합하는 SW전문인력 양성기관으로 육성해 나가겠다”고 말했다.☞공감언론 뉴시스 dr.kang@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>[아산=뉴시스] 이종익 기자 = 충남 아산이 선문대학교(총장 황선조)는 23일 충청남도교육청(교육감 김지철)과 인공지능·소프트웨어 가치 확산 및 활성화 지원을 위한 업무협약을 체결했다고 밝혔다.이날 협약을 통해 양 기관은 지역의 초·중·고 대상의 AI, SW 동아리 집중 발굴 및 육성을 위한 사업을 공동으로 추진할 계획이다.선문대는 앞으로 SW중심대학사업단 중심으로 관련 교육을 진행하며, 추가로 AI 선도 교사 협의체 구성, SW 동아리 경진대회 및 축전 개최 등의 프로그램을 운영한다.이날 황선조 총장은 "미래 교육을 통해 지역의 디지털 인재 양성을 위한 기반을 마련하겠다"며 "지역의 인공지능, 소프트웨어 교육 가치 확산에 두 기관이 앞장서겠다"고 말했다.☞공감언론 뉴시스 007news@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>4월부터 12월까지 24종 637개 4주간 대여충북교육연구정보원은 학교의 소프트웨어(SW) 교육을 지원하기 위해 소프트웨어 교육용 교구 대여 사업을 한다.© 뉴스1(청주=뉴스1) 이성기 기자 = 충북교육연구정보원은 오는 12월까지 학교의 소프트웨어(SW) 교육을 지원하기 위해 소프트웨어 교육용 교구 대여 사업을 한다고 30일 밝혔다.대여 신청은 충북교수학습지원센터를 통해 하면 되며 상반기(4월~8월)에 대여하는 교구는 드론 등 24종 637개로 4주 동안 사용할 수 있다. 1개교에 2회 이내 대여가 원칙이지만, 해당 교구를 신청하는 학교가 없으면 추가 대여도 가능하다.청주 인근 희망학교는 방문 수령하며, 청주 이외 지역 원거리 학교는 택배로 교구를 지원한다. 다만, 반납 택배 요금은 해당 학교에서 부담해야 한다.하반기에는 권역별 SW교육을 지원하기 위해 9월 오픈 예정인 충주소프트웨어교육센터, 제천학생회관, 보은도서관의 소프트웨어교육체험실 등과 연계해 교구 대여 사업을 확대 운영할 예정이다.민경찬 충북교육연구정보원장은 "이번 소프트웨어 교육용 교구 대여 사업으로 학교 현장에서 수업과 동아리, 자유학기제 등에 교구를 활용해 소프트웨어 교육이 활성화될 것으로 기대한다"고 말했다.sklee@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>디지털 뉴딜 선도 위한 AI·SW 전문 인재 양성의 기틀 마련[오주호 기자(=포항)(phboss7777@naver.com)](재)포항테크노파크(원장 이점식)는 과학기술정보통신부(이하 과기정통부)가 지난 6일 ‘2021년 SW전문인력양성기관’으로 선정해 29일 현판식을 가졌다고 밝혔다. 이날 현판식에는 경북도, 포항시, 안동시 지자체 및 지역 SW교육 관련 기관 관계자 등 30명이 참석해 방역수칙과 거리두기를 준수한 가운데 진행됐다. ▲ SW전문인력양성기관지정 현판식을 갖고 있다. ⓒ 포항테크노파크 제공 SWETI는 소프트웨어진흥법에 근거해 매년 과기정통부에서 지정하며, 포항테크노파크 경북SW진흥본부가 24개 신규 지정기관 중 유일하게 경북지역 내 기관으로 선정됐다. 또한 부설기관인 경북SW진흥본부에서는 과기정통부의 핵심 목표인 지역내 AI·SW전문인력 10만 양성을 달성하고자 지난 2020년부터 지역 ICT이노베이션스퀘어조성사업, SW미래채움사업 등 다양한 SW전문인력 양성 프로그램을 수행하고 있다. 특히 ICT이노베이션스퀘어조성사업은 지난해 권역 평가에서 1위를 차지해 2021년도에 국비 28억원을 추가 확보하는 등 지역내 SW교육 전문기관으로써 그 위상을 높이고 있다. 포항테크노파크 이점식 원장은 “경상북도 지역 디지털 뉴딜 선도를 위한 AI·SW인재 양성의 기틀이 마련되었다”며 “경북SW진흥본부를 중심으로 인공지능, 빅데이터, IoT 등 최신 SW기술의 시장 수요에 부합하는 SW전문인력 양성기관으로 만들겠다”고 말했다. [오주호 기자(=포항)(phboss7777@naver.com)]▶프레시안 CMS 정기후원▶네이버 프레시안 채널 구독 ▶프레시안 기사제보Copyrightsⓒ PRESSian.com 무단전재 및 재배포금지</t>
-  </si>
-  <si>
-    <t>블루커뮤니케이션(대표 정희용)의 '어썸코드'는 누구나 쉽고 재미있게 코딩을 접할 수 있는 피지컬 컴퓨팅 기반 소프트웨어 코딩 교육 통합 플랫폼 소프트웨어(SW)다.어썸코드는 SW 코딩 교육 교재와 동영상 강의, 코딩 실습을 한 번에 해결하는 제품이다. 교구와 SW를 이용해 코딩을 어떻게 시작해야 할지 막연하게 생각하는 초급자나 어린이도 간편하게 코딩을 접하고 경험할 수 있다.어썸코드는 피지컬 컴퓨팅 기반 SW 통합 교육 플랫폼 '어썸아이티'의 교육용 SW로 동작한다. 어썸아이티 통합 교육 플랫폼은 교육용 SW 어썸코드와 자체 개발한 실습용 메인보드 '어썸보드', 이족보행로봇 교구 '어썸봇', 무선조종 자동차 '어썸카', 사물인터넷 체혐용 킷 '어썸킷' 등으로 구성됐다.어썸보드가 탑재된 3종 교구를 PC에 연결해 어썸코드를 실행하고, 직접 프로그래밍을 입력해 교구를 동작하면서 코딩을 경험할 수 있다. 사용자는 교구를 직접 조립하며 메이커(Maker)의 경험을 즐길 수 있고, 직접 조립한 교구에 소스 코드를 입력하면서 코딩을 배울 수 있다.어썸코드 프로그램에는 코딩 교육용 교재와 강의 영상이 포함됐다. 콘텐츠를 읽고 따라 하다보면 자연스럽게 교구를 조립하고 각 부품의 작동원리를 이해할 수 있다. 교구를 동작하는 소스 코드와 명령어에 대한 자세한 설명과 함께 작동원리와 연계된 과학적 원리 등도 함께 습득할 수 있다.어썸코드에는 코딩을 배우는 초급자가 가장 많이 접하게 되는 스크래치나 엔트리 형태 블록코딩도 자체적으로 구현됐다. SW 구동 원리와 개념을 한 눈에 파악할 수 있다. 교재를 읽고 그림과 영상을 보고 실습하며 버튼을 눌러 교구를 작동해보고 해당 동작의 소스 코드를 살펴볼 수 있다.어썸코드 프로그램에는 코드에디터가 내장돼 클릭앤플레이로 동작했던 움직임의 소스 코드를 파이선 코드로 확인할 수 있다. 직접 코드를 수정해서 교구를 여러 가지 형태로 움직여 볼 수도 있다.어썸아이티 통합 교육 플랫폼을 구성하는 3종 교구는 지난해 'Hi 서울어워드 우수상품'으로 선정됐다. 미국, 인도네시아, 베트남, 중국 등 세계 시장으로 진출도 시작된 상태다. 지난해 6월 미국 UT달라스대 썸머캠프 프로그램으로 채택되어 K-12 교육에 활용됐고 베트남에서는 공영방송 VTV4 뉴스에 소개되며 주목을 받은 바 있다.정희용 블루커뮤니케이션 대표-제품 개발 배경은.제품 출시 전 2000명 이상 학생을 대상으로 다양한 SW교육을 수행해 본 결과 기존 교육 프로그램에 다소 부족한 점이 있다고 판단했다. 하드웨어(HW)를 만드는 회사는 콘텐츠 없이 HW만 만들고 개발툴을 만드는 회사는 기존 개발 환경을 단순히 그래픽(블록 형태의 코딩) 환경으로 옮기기만 했다. 교육 회사는 각기 다른 목적으로 만들어진 HW와 개발툴을 이용해 콘텐츠를 개발했다. 누군가 하나의 방향성을 가지고 HW와 개발툴, 교육용 콘텐츠까지 일관되게 만들어 주지 않는다면 풀 수 없는 문제였다. 이를 하나로 통합 운영하자는 관점에서 어썸보드와 어썸봇, 어썸카 등을 개발했다.-수출 현황과 계획은.중국에서는 지커천싱이란 온·오프라인 SW코딩 교육 학원 프랜차이즈(현재 300개 가맹점 보유)와 함께 중국향 교육 콘텐츠를 공동 개발 중이다. 중국 내 일부 학원을 통한 테스트 교육을 진행 중이며 올해 빠른 시장 확대를 위해 노력한다. 코로나19로 다소 일정이 지연되고 있지만 미국, 인도네시아, 베트남과 두바이 등에 협력 파트너를 둬 서비스를 확대하고 있다.이를 통해 올해 30억원의 매출 목표를 달성할 계획이다. 반드시 실습이 병행돼야 하는 SW코딩 교육의 특성을 고려해 온라인 통합 교육 플랫폼 개발을 추진중이다. 이를 통해 국내와 해외 SW코딩 교육 시장 확대를 가속할 계획이다. 지난 2년간 전국 1300명 이상 강사 교육과 협력 교육기관 네트워크를 통해 국내 시장을 안정화 하는 한 해로 삼고자 한다.-향후 신제품 개발과 출시 계획은.지난해 기준 4000명 이상 강사와 학생을 대상으로 온라인 교육을 하며 축적한 노하우와 기 확보된 기술력을 바탕으로 실습이 필요한 SW코딩 교육에 특화된 온라인 교육 플랫폼을 개발 중이다. 기존 로봇과 자동차, 사물인터넷 킷에 음성형 AI 코딩 기능을 추가한 AI 교육 기능과 커리큘럼을 추가 개발한다. 이를 위해 국내 음성칩 전문 기업인 시누스와 협력하고 있다.드론에 부착된 카메라로 촬영한 이미지와 영상 분석을 통해 다양한 시나리오에 따라 동작하는 드론을 프로그래밍할 수 있도록 준비 중이다. 이를 위해 중국의 전문 드론 기업 베스누보 테크놀로지와 협력하고 있다. 커리큘럼 개발 완료 후 샤오미의 드론 법인인 페이미(飛米)와의 협력 체계도 구축하고 있다.김지선기자 river@etnews.com▶ "2021 스마트 디지털 워크스페이스 이노베이션" 개최▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>2022 교육 개편 앞두고 정책 고민사고력 강화·진료탐색 기능 등 강조공교육-민간 교육두구 연계도 논의“한국정보과학회 등 학계도 초·중·고 소프트웨어(SW)교육에 많은 관심을 가져야 합니다. 2022 교육과정 개편 시 SW교육을 보다 효과적으로 보완해야 합니다.”(김현철 고려대 교수)“인공지능(AI)은 SW 일부분입니다. 2025년 도입되는 초·중·고 AI교육은 SW교육을 확대하는 기회가 돼야 합니다.”(신혜권 이티에듀 대표)초·중학교 SW교육이 효과적으로 개편되도록 학회에서 많은 관심이 요구된다. 부족한 SW교육 수업시간은 AI교육과 연계해 확대한다. SW교육·코딩교육·AI교육 등 명칭도 교육 취지에 맞게 적합한 용어로 통일돼야 한다.한국정보과학회·한국전자통신연구원·한국전자기술연구원·소프트웨어정책연구소·한국과학기술정보연구원 주최 '소프트웨어 컨버전스 심포지움(SWCS) 2021' 부대행사로 지난 23일 부산 더베이101에서 열린 특별세션에서 이 같이 논의됐다. 특별세션은 '컴퓨터 비전공자들을 위한 코딩 교육 현안과 SW인재 양성 정책'을 주제로 기조강연과 지정토론으로 이뤄졌다.나연묵 한국정보과학회장(왼쪽에서 다섯번째)을 비롯해 학회 관계자, 특별세션 기조강연자, 지정토론자가 기념촬영을 하고 있다.특별세션은 이원준 고려대 교수 사회로 나연묵 한국정보과학회장(단국대 교수) 축사, 이민석 이노베이션 아카데미 학장 기조강연, 홍봉희 부산대 교수 강연으로 시작됐다. 나 회장은 “특별세션이 정보통신기술(ICT), SW, AI 관련 교육과 산업 발전에 기여하기를 바란다”고 말했다.지정 토론은 최진영 고려대 교수 좌장으로 김현철 고려대 교수, 박종현 한국전자통신연구원 부원장, 신혜권 이티에듀 대표, 하준홍 과학기술정보통신부 팀장, 한혁수 상명대 교수가 참여했다. 특별세션은 코로나19로 50명 미만이 참석한 가운데 진행됐다.◇SW교육, 창의융합·사고력 강화 목적초·중·고 SW교육 목표는 디지털 기반 창의융합 역량과 사고력 강화, 관련 분야 진로 탐색 기회 제공이어야 한다고 제시됐다. 대학에서 SW인재를 양성하는 것과는 다르다. 수학·과학처럼 기본 역량을 갖추는 교육으로 확대해야 한다.김현철 교수는 “초·중·고 SW교육은 성인이 갖춰야 할 소양인 디지털 역량을 갖게 해주는 것”이라며 “컴퓨팅 사고력, 데이터 사고, AI 역량 등이 해당된다”고 말했다. “컴퓨팅 사고력을 높이기 위해 코딩을 통한 프로젝트 활동이 가장 효과적”이라고 덧붙였다.현재 초·중·고 SW교육 문제점도 지적했다. 김 교수는 “SW교육 수업시간 비중이 초등학교 0.28%, 중학교 약 1%로 너무 적다”면서 “체계적이고 연속적인 교육이 불가능하다”고 언급했다. 영국은 2014년부터 모든 학년에서 필수로 SW교육을 배운다. 일본은 2025년부터 대학입시에 SW교육 과목을 포함시킨다.2022교육과정 개편을 앞두고 컴퓨터공학 관련 학계에서 초·중·고 SW교육에 관심을 가져야 한다고 강조했다. 김 교수는 “SW학계·산업계 등 다양한 분야에서 SW교육 필요성에 관심을 갖고 공감대를 형성해야 보다 올바른 교육 개편이 가능하다”고 전했다.김현철 고려대 교수(왼쪽부터), 박종현 한국전자통신연구원 부원장, 신혜권 이티에듀 대표가 지정토론 주제발표 후 청중 질의에 답하고 있다.◇SW·AI교육, 공·사교육 연계 필요2025년 초·중·고 도입이 논의되는 AI교육을 SW교육 확대 기회로 삼아야 한다고 제안됐다. 먼저 초·중·고 단계에 맞는 SW와 AI교육 방향 수립이 필요하다.신혜권 대표는 “SW교육은 학교 도입 후 여러 문제로 학교와 학생으로부터 외면 받는다”면서 “이런 상황에서 AI교육 도입을 별도로 추진해 학교와 학생은 혼란스럽다”고 지적했다.효과적 SW인재 양성을 위해 공교육과 사교육 조화 필요성도 언급했다. SW공교육은 원리를 깨닫고 창의력과 사고력을 높이는 보편교육으로 강화하고, 프로그래밍 언어 등 심화교육은 사교육으로 보완해 우수 SW인재가 진로교육을 받도록 하자는 것이다.신 대표는 “사교육 문제인 고비용과 서울·대도시 등 특정지역 쏠림현상은 온라인 원격교육으로 해결할 수 있다”면서 “저렴한 비용으로 전국 학생에게 질 높은 SW교육을 제공하도록 실시간 원격교육을 활성화해야 한다”고 강조했다. 이티에듀는 저렴한 비용으로 전국 어디에서든 SW교육을 받을 수 있도록 실시간 원격교육 플랫폼 '껌이지(Easy)'를 운영한다.◇민간 우수 SW·AI교육도구 활용 검토정부도 초·중·고 SW교육 질적 성장을 위해 관련부처와 다각도로 협의 중이다. 하준홍 SW인재정책팀장은 “초·중등 SW교육에 대한 근본적 개편이 요구되는 상황”이라면서 “민간의 우수 SW와 AI 교육 학습도구를 공교육에서 활용하는 방안도 검토한다”고 말했다.2025년까지 1조원을 투입해 SW·AI인력 10만명을 양성할 계획이다. AI대학원과 SW중심대학 제도도 우수인재 양성을 위한 제도다. 컴퓨터 비전공자를 위한 교육도 확대한다. 하 팀장은 “지난해 SW중심대학에서 4700명 학생이 융합·복수전공으로 SW교육을 받았다”면서 “40.5%가 인문·사회계열 학생이다”고 전했다.홍봉희 부산대 교수가 컴퓨터 비전공자 코딩교육 사례를 발표하고 있다.한국전자통신연구원은 지속가능한 AI혁신 생태계 기반 제공을 위해 AI전문인재를 양성한다. 박종현 부원장은 “AI아카데미를 통해 전략과정, 실무과정, 고급과정을 운영한다”고 설명했다. 홍봉희 교수는 “SW·코딩·AI교육 등 혼용되는 용어를 취지에 맞게 통일시켜야 한다”고 제언했다.부산=김지선기자 river@etnews.com▶ "AI·DX SUMMIT KOREA 2021" 6월 24일 개최▶ "OPC UA 입문, 기본 개념에서부터 적용까지" 30일 개최 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>22명 소수정예 과정…우수생 취업 연계【서울=뉴시스】한국폴리텍대학 CI. 2019.11.29 (사진=폴리텍대학 제공)[서울=뉴시스] 김진아 기자 = 한국폴리텍대학 분당 융합기술교육원이 오는 10일까지 클라우드 전문가 육성을 위한 교육 훈련생을 모집한다고 3일 밝혔다.분당 융합기술교육원은 대졸 취업희망자 대상 고급 기술 교육과정을 운영하고 있으며 지난달 클라우드 서비스 업체인 메가존클라우드, 제니앤컴퍼니와 클라우드 인재 양성을 위한 업무협약(MOU)을 체결한 바 있다. 클라우드 컴퓨팅은 프로그램이나 데이터를 개별 기기에 저장하지 않고 인터넷 서버에 저장·처리하는 기술이다.이에 따라 교육 과정은 교육생 22명을 대상으로 소수 정예 과정으로 운영된다.이번 개설되는 과정인 '데이터융합 소프트웨어(SW)'과는 앞선 10개월 과정 입학생 경쟁률이 4.35 : 1을 기록했으며, 최근 3년간 평균 취업률은 92.1%에 달한다.훈련은 비전공자도 수월하게 입문할 수 있도록 기본 프로그래밍부터 기업요구 프로젝트실습까지 현장 맞춤형 커리큘럼으로 구성된다.클라우드 분야에 특화한 필수 교과목을 중심으로 훈련을 제공해 기업에 필요 인력을 신속히 공급할 수 있도록 3개월 압축 과정으로 진행될 예정이다. 우수 교육생의 경우 메가존클라우드, 제니앤컴퍼니 두 기업에 취업이 연계된다.분당융합기술교육원 홍필두 교학처장은 "IT 개발 인력의 수요가 높아지면서 인공지능, 소프트웨어, 데이터 사이언스 등 디지털 신기술 분야 교육의 인기가 높아지고 있다"며 "교육생들의 다양한 전공과 정보기술(IT)이 접목되면 창의적인 결과물이 쏟아질 것"이라고 말했다.폴리텍은 2년제 학위과정, 전문기술과정, 하이테크 과정 등을 운영하고 있으며, 대졸 미취업자 청년층을 대상으로 신산업 분야 직업교육훈련을 제공하는 하이테크 과정을 지속해서 확대하고 있다. 현재 20개 캠퍼스에 자동화·IT·바이오 등 38개 학과가 개설됐으며 올해 정원은 1095명이다.☞공감언론 뉴시스 hummingbird@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>[나주=뉴시스] 동신대학교. (사진 제공 = 동신대학교) *재판매 및 DB 금지[광주=뉴시스] 구용희 기자 = 동신대학교는 전남도의 2021년 대학·지역연계협력 지원사업에 2개 과제가 선정됐다고 3일 밝혔다.다른 지역 학생들의 전남에 대한 이해를 높이기 위한 지역 바로 알기 분야에는 동신대 국제교육원의 '남도랑해'가 선정됐다.전남도의 예산 지원을 받아 외국인 유학생과 다른 지역 출신 학생들에게 남도 관광과 문화예술 체험 기회를 제공한다.농산어촌의 초·중학교를 찾아가는 창의 교실 분야에는 동신대 메이커스페이스 사업단의 '4차산업 맞춤 농산어촌 교육'이 선정됐다.인공지능(AI)과 소프트웨어(SW)를 활용한 ▲4차산업 기초 체험 ▲창의융합 기초교육 ▲제작을 통한 창의융합 체험 ▲아두이노 응용 체험 ▲3D 모델링 프린팅 기술 체험 ▲인공지능 체험 프로그램을 운영한다.◇ 조선대학교 김계하 교수, 광주 노인간호사회 회장 취임조선대학교는 의과대학 간호학과 김계하 교수가 제12회 광주 노인간호사회 설립총회에서 노인간호사회 회장에 연임됐다고 3일 밝혔다.임기는 오는 2023년 4월13일까지 2년이다.김 교수는 2019년 4월 광주 노인간호사회 회장으로 취임했다. 비대면으로 진행된 이번 총회에서는 김 교수의 연임이 만장일치로 통과됐다.◇ 광주대, 자율혁신학과 지원 사업 본격 시행광주대학교(총장 김혁종)는 교육의 자율적 혁신을 통해 창의·융합형 인재를 육성하는 자율개선학과 지원 사업을 본격 시행한다고 3일 밝혔다.교육부가 발표한 대학기본역량진단평가 결과 최상위 등급인 자율개선대학으로 선정된 광주대는 최근 학교 성실관 아동학과 전공강의실에서 김황용 대학혁신지원사업단장과 한규무 교무처장, 김수향 아동학과장 등이 참석한 가운데 자율혁신학과 현판식을 개최했다.대학혁신지원사업을 기반으로 펼쳐지는 자율혁신학과 지원 사업은 사회수요가 반영된 특성화 교육과정 설계와 운영, 환류를 통한 지역강소학과 경제력 제고를 위함이다.올해 3차년도에 돌입한 광주대는 선도형 6개와 일반형 10개 등 총 16개의 자율혁신학과를 선정했다.광주대는 자율혁신학과를 통해 교육과정 개편과 특강, 자격증 과정, 동아리, 멘토링, 현장 견학, 경진대회, 공모전 등 다양한 프로그램을 지원할 방침이다. 광주대는 2019년 1차년도 10개, 2020년 2차년도에는 13개 학부(과)를 선정해 교육환경 개선과 학생이 꿈꾸는 캠퍼스 조성, 글로벌 교육프로그램 개발 등을 목표로 자율혁신학과 지원 사업을 지속해 추진하고 있다.☞공감언론 뉴시스 persevere9@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>[네이버 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 홍지인 기자 = 네이버는 세종시 교사·초중학생을 대상으로 인공지능(AI)과 데이터를 활용한 소프트웨어(SW) 코딩 교육을 한다고 31일 밝혔다.    세종시 교육청 소속 초중고 교사를 대상으로 한 'AI&amp;데이터 시대 기업가정신' 연수와 초중학생 360명이 참여하는 AI·SW 교육이 각각 마련된다.     실습과 체험 중심으로, 온라인 협업 도구와 프로그램을 익히는 교육이 함께 제공될 예정이라고 회사 측은 전했다.     한성숙 대표는 "앞으로도 네이버는 지방자치단체와의 협력을 확대해 상대적으로 AI·SW교육 기회가 부족한 지역에서도 충분한 교육 기회를 누릴 수 있도록 교육 프로그램을 지원하겠다"고 말했다.  ljungberg@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크] 서울 소상공인 평균 월세 얼마?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>최종 결선은 11월 개최…총 17팀에게 2160만원 상금 수여 예정(사진은 기사 내용과 무관함) / 뉴스1 © News1(세종=뉴스1) 나혜윤 기자 = 대한민국 산업의 디지털 혁신을 이끌어 나갈 임베디드소프트웨어 인재 발굴 프로젝트가 시작된다. 25일 산업통상자원부에 따르면, 산업부가 주최하고 임베디드소프트웨어·시스템산업협회가 주관하는 '제19회 임베디드 소프트웨어 경진대회'가 오는 26일 대회 접수를 시작으로 11월 최종 결선까지 7개월간의 레이스에 돌입한다. 임베디드소프트웨어는 기기에 내장돼 특정 기능을 수행하는 소프트웨어로 IoT(사물인터넷)가전, 자율차, 첨단로봇, 스마트 선박 등 주요 산업의 지능화를 구현하기 위한 핵심기술로서 최근 인공지능 기술의 발전으로 중요도가 높아지고 있다. 2003년부터 시작된 임베디드 소프트웨어 경진대회는 국내 유일의 임베디드 소프트웨어 전문 경진대회로 아이디어 발굴과 임베디드 소프트웨어에 대한 창의적 인재의 등용문이 돼 국내 임베디드 산업계의 인력난 해소에 기여해왔다.올해 임베디드 소프트웨어 경진대회는 자유공모, 지능형 휴머노이드, webOS(LG전자 후원), 산학 프로젝트, 틴 메이커스 챌린지(초‧중‧고등부)로 구성된 총 5개 부문으로 진행할 예정이다.총 5개 부문 중 가장 우수한 팀에게 주어지는 대상과 자유공모 최우수상, 산학프로젝트 부문 최우수상 그리고 틴 메이커스 챌린지 최우수상에게는 산업통상자원부 장관상이 수여된다. 올해는 총 17팀에게 2160만원의 상금을 수여할 예정이다.또 자유 공모 부문에서 기업이 후원하는 아크데이타 사장상, LS Electric 사장상이 추가되어 작년과 비교해 더 많은 우수팀을 선정할 예정이다.주니어 부문인 '틴 메이커스 챌린지 부문'은 초등부와 중‧고등부로 나누어 심사되며, 최우수상은 초등부, 중‧고등부 전체에서 1팀, 우수상은 초등부 1팀, 중‧고등부 1팀씩 선정할 예정이다.각 분야별 맞춤 홍보 및 온라인 기술 교육을 통해 임베디드SW관련 기본 지식이 있지 않아도 응모할 수 있도록 지원해 학생들의 진입장벽을 허물 수 있도록 할 예정이다. 아울러 '임베디드소프트웨어 전문인력양성사업' 참여 학생들이 컨소시엄 기업과 함께 진행한 프로젝트 중 우수한 내용을 선별해 11월 결선에서 전시·심사를 진행하는 산학 프로젝트 분야도 진행한다.강경성 산업정책실장은 "최근 데이터 경제의 대두로 인공지능 기술이 다양한 산업과 융합되고 있으며, 이를 구현하기 위해서는 임베디드소프트웨어 기술 발전이 필수적"이라며 "경진대회가 관련 인재 발굴 및 육성의 기반이 될 수 있도록 정부에서도 관심과 지원을 아끼지 않겠다"고 밝혔다.한편 '제19회 임베디드 소프트웨어 경진대회' 참가 신청은 26일부터 내달 24일까지 접수를 받는다. 각 부문별 자세한 내용과 일정 등은 대회 공식 홈페이지에서 확인할 수 있다.freshness410@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>지난해 전국 대학 최초로 도입한 SW버스에서 가상현실을 체험하는 모습 ＠ 뉴스1(대전=뉴스1) 최영규 기자 = 배재대가 전국 최초로 도입한 SW(소프트웨어) 버스를 이용해 대전지역 학생들의 4차 산업혁명 체험형 교육에 나선다.배재대 AI·SW중심대학사업단은 26일 대전삼성초를 시작으로 오는 11월까지 24개 학교에서 '2021년도 AI·SW중심대학사업 PCU-SW버스 프로그램'을 진행한다.이번 교육은 ΔAI로봇을 활용한 인공지능 교육과 SW코딩 ΔVR 가상현실 체험 Δ드론 비행원리·동작방법 Δ3D 프린터 체험 Δ키오스크(무인 정보단말기)로 인공지능·증강현실 체험 등으로 구성됐다. 증강현실을 가미한 키오스크에서는 가상의 장소에서 사진을 촬영해 메일로 보내거나 소셜미디어에 탑재하는 일상·체험형 교육이 준비됐다. 3D 프린터는 일상용품부터 여러 캐릭터를 출력하는 교육이 가능해 4차 산업혁명을 폭넓게 이해하는 계기가 될 것으로 기대된다.한편 배재대는 2019년 과학기술정보통신부의 SW중심대학사업에 선정된 뒤 전국 대학 최초로 소외지역과 학교를 방문해 4차 산업혁명 교육이 가능한 SW버스를 선보였다.andrew73@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶ 뉴스1 미래포럼 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		[이데일리 오희나 기자] 성균관대 소프트웨어융합대학은 과학기술정보통신부가 주관하는 SW중심대학사업(2단계)에 최종 선정됐다고 28일 밝혔다.성균관대는 1단계 SW중심대학사업에 이어 2단계 사업에도 선정되는 성과를 거뒀다. 연간 20억(단 1차년도는 9억5000만원)씩 최대 6년 동안 약 110억 원을 지원받게 된다.성균관대는 1단계 사업성과를 바탕으로 SW-AI 교육혁신 모델의 고도화 및 확산을 통해 4차 산업혁명 시대를 견인할 창의적 SW 융합인재를 양성할 계획이다.또한 전교생 대상 SW-AI 교육 강화, SW 융합 교육 확대, 산학협력 및 전주기적 창업지원 등을 추진하고, AI챗봇 지원 개방형 교육 포털 ‘온라인 명륜당’ 등을 통해 사업 참여대학은 물론 비참여대학과 일반인에게 교육성과를 공유하고 확산하기 위한 다양한 프로그램을 진행할 예정이다.사업 총괄 책임자인 이은석 학장은 “이번 사업을 통해 스스로 수양하고 주변을 감화시킨다는 수기치인의 성균관대 유학 교육이념을 SW-AI 교육으로 실현하는 기틀을 마련하겠다”고 말했다.오희나 (hnoh@edaily.co.kr)▶ #24시간 빠른 #미리보는 뉴스 #eNews+▶ 네이버에서 '이데일리 뉴스'를 만나보세요▶ 빡침해소, 청춘뉘우스 '스냅타임'＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
-  </si>
-  <si>
-    <t>충남대학교 정문 © 뉴스1(대전=뉴스1) 최영규 기자 = 충남대가 과학기술정보통신부 주관 ‘소프트웨어중심대학’ 2단계 사업에 선정돼 최대 6년간 110억원을 지원받아 인공지능(AI)·소프트웨어 전문인재를 양성한다고 22일 밝혔다.충남대는 지난 2015년 SW중심대학 1단계 사업에 이어 2단계 사업에도 선정됨에 따라 SW·AI 전공 및 융합과 관련한 핵심인력 양성에 박차를 가할 수 있게 됐다.충남대는 올해부터 인공지능 등 신기술교육 강화, 계열별·수준별 차별화된 SW 교육과정 마련 등 SW교육 체계를 고도화하는 2단계 사업을 진행한다.전교생이 AI와 SW 역량을 자신의 전공과 융합할 수 있도록 다원화된 AI·SW인재양성 체제를 구축하고, 융합학과, 연계전공, 나노학위 등의 다양한 교육 기회를 제공할 계획이다.또한 충남대가 개발한 해외인턴십 프로그램과 미국 퍼듀대학 파견 프로그램을 다른 대학들에도 개방해 인재양성 성과 확산에도 기여할 예정이다.andrew73@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1&amp;BBC 한글 뉴스 ▶  터닝포인트 2021 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>[혁신성장 정책 4년 성적표] ⑥SW 정책(지디넷코리아=김우용 김윤희 남혁우  기자)코로나19 대유행은 디지털 전환을 국가적 과제로 끌어올렸다. 일부 기업에서 점진적으로 진행되던 디지털 혁신 시도가 모든 산업으로 퍼져나가고, 국가 정책 어젠다 전면에 ‘디지털’이 자리잡았다.문재인 정부는 출범 당시부터 소프트웨어 교육, 인공지능(AI), 5G 등 디지털 전환 관련 정책을 추진하던 중 지난해 코로나19 사태를 계기로 ‘한국판 뉴딜’이란 국가 전략을 발표하고 대대적인 투자에 나섰다. 지난 한해는 그 전략의 본격적인 시행을 위한 여러 준비단계였다.정부는 작년에 디지털 뉴딜 정책을 발표했으며, 오랜 시간 끌어오던 소프트웨어 진흥법 개정 작업을 완료했다. 데이터와 개인정보 관련 정책을 통합 관리하는 개인정보보호위원회도 출범했다.전문가들은 지난 1년간 진행된 일련의 정책적 방향에 후한 평가를 줬다. 디지털 전환이 전세계적 흐름이기 때문에 피할 수 없는 대세를 잘 포착했다는 평가다. 그러나 다수 전문가가 세부적인 측면에서 미흡하다는 평을 덧붙였다. 특히 개발자, 엔지니어 등 우수한 IT인재를 키워내는 교육 정책 부분에 큰 변화가 필요하다고 조언했다.디지털 뉴딜디지털 뉴딜, SW진흥법 개정 높이 평가작년 6월 발표된 ‘한국판 뉴딜’은 4년차를 맞은 현정부의 새로운 승부수였다. 3년간 160조원을 투입하는 한국판 뉴딜은 ‘디지털 뉴딜’, ‘그린 뉴딜’, ‘안전망 강화’ 등 세 축을 바탕으로 진행된다. 산업의 방향 전환과 일자리 창출, 사회 취약계층 지원 등이 목표다. 그 가운데 디지털 뉴딜은 ▲데이터댐, 5G 네트워크, 클라우드 컴퓨팅 등 인프라 투자 ▲비대면 산업 육성, 교육 인프라 디지털 전환, 산업계 AI 접목 등의 체제 변환 ▲데이터, AI 등 인재 교육 등으로 진행된다. 3년간 58조2천억원을 투자하고, 일자리 90만3천개를 창출한다는 계획이다.디지털 뉴딜 정책은 일단 공공과 민간 각지에서 생성되는 데이터를 5G란 수로를 통해 데이터댐에 모으게 된다. 데이터댐 기반은 클라우드 컴퓨팅 기술로 구축되며, 데이터댐에 많은 데이터를 담으면서 동시에 AI와 분석에 활용하기 위한 빅데이터 플랫폼이 마련된다. 모인 데이터는 유관부처의 관리감독 하에 공공과 민간 전반에서 새로운 디지털 사업을 만들어내는데 쓰인다. 이것이 한국판 뉴딜 정책의 '디지털 인프라'다. SOC 디지털화, 교육인프라 디지털 전환, 비대면 산업 육성 등도 진행된다.이 과정에서 데이터 가공과 활용에 전문적인 역량을 갖춘 인재를 육성하고, 공공 일자리에서 시작된 데이터 관련 일자리가 민간으로 퍼지게 된다. 우선 당장 필요한 데이터 가공인력으로 단기 수요 일자리를 창출하고, 이들을 고급인력으로 키워 향후 성장할 미래산업 기업의 일자리로 이동시키겠다는 계획이다. 그를 위해 공공, 민간 교육기관의 소프트웨어 인재 공급 확충에 투자한다.정부는 2022년까지를 디딤돌 마련기라 표현하는데, 2년차에 첫해 사업비의 10배에 달하는 67.7조원이 투입된다. 3년차부터 디지털 전환을 마무리하고, 신산업 성장을 도모한다. 정부는 이 시기를 대전환 착근기라 설명하는데 3년 간 100조원 가량이 투입될 예정이다.디지털뉴딜 로고전반적인 디지털 뉴딜의 평가는 시의적절했다는 쪽이다.이민석 이노베이션아카데미 학장은 “정부가 팬데믹 상황에서 옳은 방향의 투자를 선정했다”며 “급하게 진행되는 와중에 부족한 점들도 나타나겠지만, 디지털 뉴딜은 거스를 수 없는 대세”라고 평가했다.최경진 가천대학교 교수는 “코로나19 대응, 디지털 전환의 시대적 요구, 글로벌 시장환경 변화 등을 종합적으로 고려했을 때 비대면, 클라우드, 데이터댐, AI 등 디지털 뉴딜이라는 정책 방향을 설정한 것은 매우 적절하고 바람직하다”며 “특히 지난해 코로나19로 긴박한 상황에서 시장에 활력을 불어넣기 위한 부양 측면의 정책으로서 시의적절한 정책이었다”고 밝혔다.작년 첫발을 뗀 후 정책이 본궤도에 오르는 올해가 성패의 분수령을 가를 전망이다. 질적인 성과를 보여야 내년 실질적 확산이 이뤄질 수 있다는 지적이다.최경진 교수는 “2021년은 이어진 위기를 극복하고, 2022년 이후의 미래를 준비하는 매우 중요한 전환기”라며 “전환기인 2021년은 미래 경제발전의 초석이 되기 위한 실질적 성과나 사회경제적 기반을 유형적으로 만들어내야하는 상황이기 때문에 클라우드 확산, 관련 산업 진흥, 단순히 데이터를 많이 모으는 것만이 아니라 실제 활용성을 높이기 위한 정책 수립 및 추진, 데이터산업의 고부가가치 창출을 위한 인력양성과 시범사업이 실시돼야 한다”고 설명했다.최 교수는 “데이터3법 개정 이후 데이터 활용을 활성화하기 위한 구체적인 모범사례 발굴, AI 진흥을 위한 규제의 예측가능성 제고와 학습용데이터 활용 기반 마련, AI 스타트업 지원 등 구체적인 세부 정책을 마련하고 추진해야 한다”며 “특히 AI 및 데이터 관련 정책은 각각의 수요에 맞는 활용 지원이 필수적이어서 세밀한 정첵 수립 및 추진이 필요하다”고 진단했다.뉴딜 정책이 다양한 분야에서 이뤄지다보니 실제 단일 사업의 규모에 아쉬움을 표하는 입장도 있다.채효근 IT서비스산업협회 부회장은 "단순히 나눠먹기식 뉴딜이 아니라 미래를 혁신적으로 가꾸어 나갈 수 있도록 예산의 폭과 적용 범위가 확대되길 바란다"며 "민간 자금이 적극 투자될 수 있는 규제의 개선과 같이 이루어 졌으면 한다"고 요청했다.소프트웨어 진흥법 개정 효과 서서히 나온다지난해 12월 오랜 시간 논의됐던 소프트웨어 진흥법 개정안이 마침내 시행됐다. 개정 법안 6월 공포 후 시행령 발표가 12월에야 이뤄졌다. 당초 손쉽게 국회 문턱을 넘을 수 있을 것으로 예상됐으나 정치적 상황에 휩쓸리며 표류하다 20대 국회 마지막 본회의에서 통과됐다.업계 염원을 담았다는 평가를 받았던 새로운 소프트웨어 진흥법은 8장 78개 조항 및 부칙으로 이뤄졌다. 이전 법보다 조항이 30개나 늘었다. 전면 개정으로 부르는 이유다. 법 이름도 기존 SW산업진흥법에서 산업을 떼어내고 'SW진흥법'으로 바뀌었다.30개 신설 조항은 다양하게 이뤄졌다. 기존 법에 없던 조항, 기존 법 조항을 늘린 조항, 하위법령에 있던 걸 끌어올린 조항 등 여러 형태가 혼합해 있다. 특히 업계는 공공SW시장 수발주 관행을 다룬 5장(SW사업 선진화)을 주목하고 있다. 불합리한 발주 관행을 개선하기 위한 과업심의위원회 설치, 요구 사항 상세화, 원격지 개발 등을 다루고 있기 때문이다.새 SW진흥법의 가장 큰 변화는 공공SW 사업 과업 내용 변경에 따른 계약금액 조정을 재심사하기 위한 과업심의위원 설치다. 공공분야 발주 문제를 개선해 공공SW 사업을 수주한 SW기업과 직원에게 안정된 개발환경을 제공하기 위해 포함됐다. 단계별 분리발주제도 도입됐다. 공공SW사업을 발주할 때 기획과 설계 부분을 우선 발주하고, 이후 개발 및 구축 과정을 별도 사업으로 발주하는 방식으로 바뀐다. 원격지 개발도 가능해졌다. 일정 보안요건을 갖춘 개발사는 원하는 장소에서 개발을 허용한다는 내용을 담았다.공정계약 원칙에 따라 갑질을 근절하고 수주자와 발주자, 기업과 근로자 간 공정한 거래를 위한 표준계약서도 제정될 예정이다.  민간 기업의 공공SW사업에 참가 폭도 확대됐다. SW설계서, 소스코드 등 SW사업 산출물을 다시 사용할 수 있는 지식재산권 인정 내용도 담았다.이민석 학장은 “오랫동안 업계에서 요구해왔던 내용들이 수용돼 다행이며, 늦은감 있지만 한 단계 올라섰다고 생각한다”며 “특히 국가연구개발사업에서의 소스의 공개 및 오픈소스 방식의 개발을 활성화에 관한 내용이 포함된 것을 높이 평가한다”고 밝혔다.그는 “구체적인 시행령과 연구개발에 적용되는 규정의 개정이 빠르게 이루어져야 혁신을 드라이브하는 가장 큰 힘인 오픈소스를 세금으로 진행되는 국가적 연구개발에도 잘 활용할 수 있게 된다”고 설명했다.최경진 교수는 “미래 지능정보사회에서의 소프트웨어의 중요성을 고려해 소프트웨어 진흥법으로 전면 개정한 것은 의미있는 진전이며, 시의적절한 개정”이라며 “중소 SW사업자의 사업참여를 지원하기 위한 공공SW사업 대기업참여제한제도를 개선해 데기업 및 상호출자제한기업집단에 속하는 회사가 참여할 수 있는 공공SW사업의 범위를 확대한 것도 의미있는 진전”이라고 평가했다.소기의 성과를 이뤘지만 구체적인 부분에서 아쉽다는 의견도 제기된다. 채효근 부회장은 과업 변경의 기준과 절차를 만들었지만 그에 소요되는 추가예산의 지급 여부, 헤드카운트 중심의 사업관리 관행, 상용SW 분리발주 강화에 따른 통합비용 현실화 부족, 민투형 사업에 대한 명확한 영역 및 대가 지급 방안 부재 등을 꼽았다.채 부회장은 "지속적으로 범 부처가 협력해서 개선해 나가야할 현안들이 많다"며 "중소 및 중견기업이 공공사업의 주역으로 성장할 수 있도록 더 많은 제도적 개선과 성장의 발판을 만들어 줄 수 있는 정책이 필요하다"고 밝혔다.공공 SW 사업 대기업 참여제한 제도도 소프트웨어 진흥법 시행령에서 수정됐다. 혁신 신시장 창출과 해외진출이 가능한 사업에 대해선 대기업 참여를 허용하기로 했고, ‘대기업 예외인정 조기심사제’를 도입해 예외인정 여부를 1년 전에 예측 가능하도록 했다. 무제한이던 대기업참여제한 예외인정 심의 신청 횟수는 2회까지로 제한했다. 대중소 기업 간 상생협력을 강화하기 위해 대기업이 주사업자가 아닌 공동수급인으로 참여하는 '부분인정제'도 도입했다.이에 대한 입장은 엇갈린다. 중소중견 기업을 육성한다는 기존 목적에서 다소 후퇴했다는 의견과, 단순히 기업 규모로 사업 참여를 규제하는 건 상호 연계 비중이 높은 현대 IT시스템에 적합하지 않다는 의견이 있다.최 교수는 “소프트웨어는 데이터와 함께 미래 사회의 필수적이고 핵심적인 요소를 이루고, 기반이 되는 중요 소프트웨어의 경우에는 대중소기업이 협력하고 각자의 장점을 살려서 완성도 높은 공공SW사업을 하도록 환경을 만드는 것이 중요하다”며 “대기업 등의 참여를 제한하는 형태로만 규제하는 것은 고도의 복잡하고 상호연계된 시스템이 점점 중요해지는 공공SW사업의 신뢰성과 대중소기업의 협업상생을 모두 고려한 적합한 규제체계라고 보기 어렵고, 더욱이 심의위원회의 심의결과에 따라 결과가 달라질 수 있어서 예외를 허용하는 범위에 대한 예측가능성이 담보되지 않는다”고 지적했다.그는 “AI 등 고도의 공공SW사업에 대한 집중적인 진흥을 위해 대중소기업의 상생협력과 고도 SW사업을 위한 대기업 참여가 조화되는 보다 발전된 규제모델을 찾는 것이 필요한 점에서 아쉽다”고 덧붙였다.수요에 대응 못하는 인재 양성, 변화 필요코로나19 대유행은 전세계 기업, 국가, 조직, 공공기관 등 전반적인 디지털 수요를 폭발시켰다. 이에 우수한 개발자와 엔지니어 인력 수요가 급증했고, 곳곳에서 인력 부족 현상이 나타나고 있다. 이런 가운데 대형 인터넷 서비스 기업이 고급 인력을 블랙홀처럼 빨아들이며 개발자 연봉 인상 릴레이가 이어지고 있다.정부는 그동안 초중등교육과정의 소프트웨어 교육 의무화, 소프트웨어 중심대학 지정, AI전문대학원 지정 등 IT인재 양성에 적지 않은 투자를 이어오고 있다. 하지만 시장의 인력 수요를 공급이 전혀 따라주지 못하는 상황이다. 소프트웨어 개발자 육성을 위한 정책이 이어지고 있지만, 큰 틀의 변화가 필요하다는 지적이 많다.이민석 학장은 “고등교육 수준의 개발자 육성은 계속 투자 성격으로 차근히 진행됐다”며 “다만, AI대학원 등 최고급 연구 인력 양성에 대한 투자를 가장 잘할 수 있는 곳에 집중하지 못하고 나눠주기식 지원을 하고 있는 것이 아쉽다”고 지적했다.(제공=이미지투데이)이 학장은 이어 “공교육 현장에 필요한 소프트웨어, 컴퓨팅 사고력 교육은 교육부 또는 교육계의 관성을 아직 이기지 못하고 표류하고 있는 것이 현실”이라며 “소프트웨어 교육 시수도 아직 턱없이 부족하고, 교사 양성 및 교육도 부족한 상황이며, 큰 틀의 변화가 필요하다”고 강조했다.최경진 교수는 “소프트웨어 교육 투자는 매우 바람직하나 소프트웨어교육의 양적 성과에 초점을 맞춰서는 안 되고 학생들의 진로를 고려해 공통 소프트웨어 교육과 개별화되거나 진로방향별 특화된 소프트웨어 교육이 병행돼야 한다”며 “입시 및 성과 위주의 교육환경에서 소프트웨어 교육이 과도한 부담이 되거나 구색맞추기식 교육이 되지 않고 실용적인 교육이 될 수 있도록 이끌어 가야 한다”고 밝혔다.일부 대기업과 유명 IT기업으로 인력이 쏠리면서 IT서비스 산업의 위기가 목전에 왔다는 지적도 있다. 공공, 민간 교육기관에서 인력이 나오고 있지만, 양적으로 질적으로 모두 부족하다는 것이다. 특히 새롭게 양성되는 개발자의 실무 역량 부족이 시급히 해결돼야 할 문제로 꼽힌다.채효근 IT서비스산업협회 부회장은 "정부 교육 기관을 통한 인재 양성은 한계가 있을 수 밖에 없다"며 "실무에서 쓰이는 자료나 기술을 사용하지 않기 때문에 사회에 진출하고 추가 교육이 필요하다"고 말했다.채 부회장은 "이를 개선하려면 대기업과 교육기관이 연계하는 산학협력을 강화해 학교 과정에서도 실무에 참여할 수 있는 기회를 늘리는 것이 필요하다"고 덧붙였다.개인정보보호위원회 원년, 국가 거버넌스 보완해야개인정보보호위원회는 작년 8월 공식 출범했다. 작년 2월 데이터3법(개인정보보호법, 정보통신망법, 신용정보법)의 시행에 따라 행정안전부, 방송통신위원회, 금융위원회 등에 분산됐던 개인정보보호 기능을 한곳으로 통합한 것이다.개인정보보호위원회는 ▲개인정보법에 따른 행정안정부의 공공·민간 개인정보보호 총괄 기능 ▲정보통신방법에 따른 방송통신위원회의 정보통신분야 개인정보보호 기능 ▲신용정보법에 따른 금융위원회의 상거래 기업의 개인신용 정보보호에 대한 기능 등을 포함한다.개보법 개정 취지를 반영해 향후 안전한 데이터 활용, 자율 보호, 신기술 대응 등과 관련된 정책 기능을 대폭 강화할 방침이다.데이터 및 개인정보 정책은 갈수록 중요해지고 있다. 데이터3법 개정으로 마이데이터 등 데이터 산업이 활성화의 물꼬를 텄고, 유럽연합의 개인정보보호규정(GDPR) 같이 정보주체자 권익 보호를 중시하는 흐름이 세계적으로 거세지고 있다. 데이터를 활용해 새로운 아이디어와 기술을 만들려는 수요 속에, 개인정보 오남용에 따른 피해를 방지해야 하는 어려운 줄타기가 시작됐다.개인정보보호위원회 전체회의 모습데이터 산업은 AI, 빅데이터, 사물인터넷(IoT) 등 4차산업혁명의 주요 지점이다. 미국과 중국이 한발 앞선 상황에서 선두권을 추격해야 할 때 일반소비자의 불신을 해소하고, 사업자의 원활한 데이터 활용이 이뤄져야 한다.개인정보보호위원회의 출범 자체는 좋은 평가를 받고 있다.최경진 교수는 “데이터3법 개정으로 독립 행정기관으로서 개인정보보호위원회를 출범시켜서 개인정보보호정책을 일원화시키고 있는 것은 매우 바람직한 방향으로서 적절한 정책추진”이라며 “미래 데이터 기반 사회는 모든 것이 개인정보와 관련이 있고, 개인정보를 합리적이고 효과적으로 보호하면서 활용토록 하는 것이 매우 중요하기 때문에 개인정보보호위원회가 일관성 있게 법을 집행하는 체계를 구축한 것은 바람직하다”고 밝혔다.그는 “최근 개인정보보호법 2차개정을 추진하면서 미래 사회에 대비하고 합리적인 활용을 꾀하면서 글로벌 데이터 유통까지 고려한 것은 개인정보보호위원회의 출범의 성과”라고 덧붙였다.반면 정부의 개인정보 정책과 데이터 정책에 대해 전문가들은 초기인 만큼 혼선을 보이고 있다고 지적도 있다.이민석 학장은 “개인정보, 데이터 정책은 정부가 의지는 가지고 있으나, 아직 중심을 확실히 잡고있지는 못하고 있다”며 “워낙 이해관계자가 많아 조율이 필요한 영역인데, 전체를 총괄하는 국가적 CDO 등과 같은 거버넌스가 부재해, 혼선과 지지부진함이 아직 존재하고 있다”고 지적했다.그는 “하지만 본격적인 마이데이터 사업이 시작되면 데이터 주권도 확보하고 서비스의 혁신을 이룰 수 있는 기반을 확보한 점은 높이 평가한다”고 덧붙였다.최경진 교수는 “개인정보보호위원회 출범 초기인만큼 다른 부처의 데이터 산업진흥 과정에서 약간의 불협화음이 발생하는 경우가 있는데, 이는 초기의 부처간 기능과 역할의 조화가 자리잡지 못한 것으로 보인다”며 “향후 명확한 역할 정립이 이루어지고 개인정보보호위원회의 일원화된 정책 추진체계가 공고화되면 해결될 것”이라고 말했다.최 교수는 “개인정보보호위원회의 보호기능과 과기부 등 다른 부처의 진흥 기능 사이에서 비교적 조화로운 개인정보 및 데이터 정책이 수립 및 추진되고 있다”며 “앞의로의 데이터 정책과 관련해서, 미래 사회의 핵심 요소인 개인정보의 안전한 활용을 통한 보호에 대한 민간의 신뢰성과 예측가능성을 제고할 수 있도록 개인정보보호위원회의 일관성 규제체계가 자리잡도록 정책을 추진해 나가야 한다”고 조언했다.그는 “그렇지 못하면 개인정보 규제의 혼란은 데이터 산업에 불확실성을 가져오고 결과적으로 데이터를 기반으로 한 모든 산업의 발전이 저해될 수 있다”고 강조했다.개인정보보호 정책을 네거티브 형태로 해 악용사례를 방지해야 한다는 의견도 제시됐다. 채효근 부회장은 "개인정보보호의 목적은 개인정보 악용 피해 방지하는 것으로 네거티브 정책이 필요한 분야인데 미리 포지티브 법령을 제정함으로 개인정보를 제대로 보호하지 못하고 공공데이터 활용을 근본적으로 막는 결과가 되는 것 같다"며 "일벌백계식으로 개인정보를 악용하고 피해를 주는 경우 회생할 수 없을 정도로 응징해야 하나, 지금은 법에 언급한 보호조치를 취한 경우 정보누출 사고에서 면책될 여지가 있어서 그 책임감이 약한 것 같다"고 지적했다.김우용 기자(yong2@zdnet.co.kr)김윤희 기자(kyh@zdnet.co.kr)남혁우 기자(firstblood@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		[머니투데이 대학경제 송하늘 기자] 삼육대학교는 최근 과학기술정보통신부가 주관하는 '2021년 SW중심대학' 사업에 신규 선정됐다고 22일 밝혔다. 사업비 규모는 최대 6년(4+2년)간 연 10억 원에 달한다.SW중심대학은 대학교육을 소프트웨어(SW) 중심으로 혁신해 SW핵심인재를 양성하는 사업이다. 지난 2015년 시작돼 2019년까지 40개 대학이 이 사업에 선정됐으며, 1만 7485명의 SW전공인력과 9674명의 융합인력을 배출했다. 올해 SW중심대학은 삼육대가 포함된 특화트랙 2개 대학(경쟁률 5.2대 1)과 일반트랙 7개 대학(경쟁률(4대 1) 등 모두 9개 대학이 신규 선정됐다.삼육대는 '건강한 지역사회를 위한 SW건강과학 융합인재 양성'을 목표로 사업을 운영한다. 특히 건강과학 특성화 분야에서 100년 이상의 노하우를 축적한 만큼 보건의료에 인공지능(AI), 빅데이터 등 신기술을 접목해 SW역량을 갖춘 융합인재를 양성할 계획이다.우선 SW건강과학특화전공으로 △SW중독심리 △SW중독재활 △SW보건빅데이터 등 3개 연계전공 과정을 신설한다. 이는 SW·AI 전공인 컴퓨터공학부와 지능정보융합학부 외에도 간호학과, 물리치료학과, 보건관리학과, 상담심리학과, 약학과 등 보건의료 학과를 융합한 전공과정이다. SW 관련 학과 개편도 추진한다. 인문사회계열인 경영정보학과와 공학계열 IT융합공학과를 통합한 지능정보융합학부를 '인공지능융합학부'로 개편해 SW교육기반을 조성한다. 전임교원은 내년 4월까지 기존 14명에서 30명으로 확충한다. SW특성화 실습실도 기존 7개에서 24개로 증설한다. SW우수인재 선발을 위한 'SW인재전형'을 신설하고, SW·AI 단과대학인 미래융합대학 입학생 전원에게 SW특성화장학금도 지원할 예정이다.이와 함께 전교생 대상 SW기초교육을 강화한다. 기존 단일과목으로 운영 중인 '컴퓨팅사고력'을 전공별로 세분화하고 과목수도 늘린다. 입학 전 예비 신입생을 대상으로 하는 SW기초교육도 새롭게 도입한다. 'SW와미래사회', '컴퓨팅사고 및 기초코딩' 2개 과목이다. 이외에도 산학협력 교육과정을 강화해 현장밀착형 SW전문 인력을 양성한다. 모든 3~4학년 SW전공자는 산업체에서 실제 프로젝트를 수행하는 산학연계 교과목을 반드시 이수해야 한다. 해외 네트워크를 활용한 글로벌 펀드도 조성해 해외 인턴십과 취·창업도 지원한다.김일목 총장은 "삼육대는 전통적으로 보건의료 및 건강과학 분야에 강점을 갖고 있다"면서 "이번 SW중심대학 사업 선정을 계기로 이같은 특성화 분야를 4차 산업혁명 시대에 맞는 SW기반의 융합적 교육으로 전환할 것"이라고 말했다.송하늘 기자 webmaster@mt.co.kr▶부동산 투자는 [부릿지]▶주식 투자는 [부꾸미TALK]▶부자되는 뉴스, 머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t>SW 미래채움사업을 통해 양성된 SW 강사가 최근 백령도의 한 초등학교에서 학생들을 대상으로 SW교육을 벌이고 있다.인천테크노파크(인천TP)는 인천 섬마을 학생의 소프트웨어(SW) 교육을 통한 도심과 정보교육 격차 해소 등을 위해 '찾아가는 SW교육'을 벌이고 있다고 26일 밝혔다.이 교육은 인천시와 과학기술정보통신부가 추진하는 'SW 미래채움사업'의 하나로, 청년 및 경력단절 여성, 시니어 등을 SW 강사로 양성, 초중고생 대상 SW교육에 투입하는 프로그램이다. 인천 등 전국 10개 지역에서 운영 중이다.올해 이 사업을 3년째 벌이고 있는 인천TP는 지금까지 209명의 SW강사를 양성, 인천지역 143개 초중고 1만여명의 학생을 대상으로 SW교육을 벌였다. 또 SW미래채움 교육페스티벌을 두 차례 열고 콘텐츠를 지속적으로 보급하고 있다.인천시교육청과의 협업으로 희망 학교 또는 기관을 찾아가는 SW교육은 인공지능(AI), 3D펜, 사물인터넷 등 다양한 분야의 SW교육과정을 운영, 호응을 얻고 있다.올해 찾아가는 SW교육에는 인천지역 500여개 초중고에서 2만9000여명이 신청하는 등 관심이 높다. 인천TP는 백령, 덕적, 연평, 주문, 대이작도 등 섬마을 학교를 앞서서 찾아 로봇을 이용한 AI 코딩 수업과 3D펜을 활용한 모델링 등 다채로운 SW교육을 제공할 예정이다.인천TP 관계자는 “찾아가는 SW교육에 대한 높은 수요는 SW미래채움사업으로 SW교육 생태계가 확장됐다 반증”이라며 “앞으로도 소외된 인천지역 학생들의 SW교육 격차 해소 및 우수한 미래 인재 양성을 위해 노력하겠다”고 말했다.김정희기자 jhakim@etnews.com▶ "OPC UA 입문, 기본 개념에서부터 적용까지" 30일 개최▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t>조경식 과기정통부 제2차관이 28일 오후 서울 강남구 네이버커넥트를 방문해 SW 인재양성 지원방안을 논의하고 있다.  과기정통부 제공    조경식 과학기술정보통신부 제2차관이 28일 서울 강남구 네이버 커넥트재단(이사장 조규찬)을 방문해 민관 협력을 통한 SW(소프트웨어) 인재양성 지원 방안을 논의했다.간담회에는 네이버 커넥트재단, 팀 스파르타, 코스콤, 더존비즈온, 마이다스아이티, SW산업협회 등 산업계와 SW중심대학, SW정책연구소 등의 전문가가 참여했다.네이버 커넥트재단은 네이버가 2011년 설립한 비영리 SW 교육기관으로, 초·중등 학생부터 일반 성인까지 교육 대상이다. IT분야 실무 교육을 통해 현장형 인재를 양성하면서 온라인 교육 플랫폼을 운영하는 등 다양한 방식의 교육혁신 모델을 시도하고 있다. 특히, SW 교육과정 수료자를 자사 채용으로 연계하고 있다.간담회에서는 네이버 커넥트의 SW 교육모델 외에도, 기업이 대학에 직접 교육과정을 개설해 인재를 양성하고 채용으로 연계하는 팀 스파르타모델, 중소·벤처기업 등이 필요로 하는 교육과정을 전문 교육기관에 개설해 운영하는 모델 등이 제시됐다. 정부가 기업의 SW 인재양성 활동에 대해 재정적·제도적으로 지원하는 등 민관협력 방안도 논의했다조경식 과기정통부 제2차관은 "전 산업의 디지털 전환 가속화로 SW 인재 수요가 급증하고 있는 상황에서, 정부는 한국판 뉴딜 'AI·SW 핵심인재 10만 양성'을 통해 인재 공급을 지속적으로 확대하고 있다"면서 "SW인재 양성을 위해 민간 부문의 역할도 중요한 만큼 기존 정부사업에 기업 수요를 보다 적극적으로 반영하고, 기업이 필요한 인재를 직접 양성하는 과정에 대한 지원과 민관협력 방안도 적극 검토하겠다"고 밝혔다. 안경애기자 naturean@dt.co.kr ▶[ 네이버 메인에서 디지털타임스 구독 ] / ▶[ 뉴스스탠드 구독 ]▶디지털타임스 홈페이지 바로가기</t>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002683212</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=082&amp;aid=0001102737</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=082&amp;aid=0001101923</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002952772</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004565365</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002953023</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002953464</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002682071</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012482097</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010563371</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012483220</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010562975</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=110&amp;oid=030&amp;aid=0002954187</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=081&amp;aid=0003197936</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010561903</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002105818</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004965212</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002953867</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=029&amp;aid=0002684349</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012458243</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010552424</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010552110</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002224445</t>
+  </si>
+  <si>
+    <t>티맥스오에스, 공개SW 개발자대회 후원</t>
+  </si>
+  <si>
+    <t>동의대 인공지능로봇연구소, SW·AI·Robotics 전문기업과 지능형 코딩 로봇 공동연구와 산학협력 MOU 체결</t>
+  </si>
+  <si>
+    <t>동명대 경력단절여성 SW교육강사양성과정 모집</t>
+  </si>
+  <si>
+    <t>강원정보문화진흥원-강원도일자리재단, SW융합전문 인력 양성 협력</t>
+  </si>
+  <si>
+    <t>"학교 SW·AI 교육 턱없이 부족…학부모들은 학원행"</t>
+  </si>
+  <si>
+    <t>경기도, AI·로봇 교육체험 '미래채움센터' 개소</t>
+  </si>
+  <si>
+    <t>조선대 SW중심대학사업단, 광주월산초등학교 AI·SW STEAM 페스티벌 성료</t>
+  </si>
+  <si>
+    <t>“공개SW 개발자대회에서 실력 키우세요”</t>
+  </si>
+  <si>
+    <t>조선대, AI 등 체험 첨단기술 교육 공간 구축</t>
+  </si>
+  <si>
+    <t>'섬마을 학교서 AI 교육' 찾아가는 코딩교실 호응</t>
+  </si>
+  <si>
+    <t>부산 기업 연계 인재 양성…CJ올리브네트웍스 교육과정</t>
+  </si>
+  <si>
+    <t>[울산소식] '제1 회 울산 지역 SW미래채움 SW경진대회' 성료 등</t>
+  </si>
+  <si>
+    <t>[미래포럼]대응 필요한 'SW전략물자관리제도'</t>
+  </si>
+  <si>
+    <t>‘취업률 68%’ 삼성 청년SW아카데미 교육생 2배 확대</t>
+  </si>
+  <si>
+    <t>SKT 기업용 SW 장터에 '마이크로소프트 365' 입점 기념 이벤트</t>
+  </si>
+  <si>
+    <t>오픈소스SW 관리 툴 ‘포스라이트’ 공개한 LG전자, “글로벌 표준 거듭나겠다”</t>
+  </si>
+  <si>
+    <t>KT, 국내 SW기업 클라우드 전환 돕는다</t>
+  </si>
+  <si>
+    <t>[신SW상품대상 5·6월 수상작]심사평</t>
+  </si>
+  <si>
+    <t>(주)무하유 LMS API 연동형 표절검사 ‘CK브릿지’, 신SW 상품대상 장관상 수상</t>
+  </si>
+  <si>
+    <t>한국해양대·동의대·부산경상대 스마트 물류 SW교육 선정</t>
+  </si>
+  <si>
+    <t>경기도경제과학진흥원, '경기SW미래채움 센터' 24일 개소식</t>
+  </si>
+  <si>
+    <t>[부산소식]동의대, 스마트물류 SW인재 양성사업 선정 등</t>
+  </si>
+  <si>
+    <t>정부, 5년간 SW인재 41.3만명 키운다</t>
+  </si>
+  <si>
+    <t>2021.06.28. 오전 9:03</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오후 2:12</t>
+  </si>
+  <si>
+    <t>2021.06.25. 오후 3:19</t>
+  </si>
+  <si>
+    <t>2021.06.23. 오후 7:11</t>
+  </si>
+  <si>
+    <t>2021.06.21. 오후 4:58</t>
+  </si>
+  <si>
+    <t>2021.06.24. 오후 4:37</t>
+  </si>
+  <si>
+    <t>2021.06.27. 오전 8:30</t>
+  </si>
+  <si>
+    <t>2021.06.22. 오후 12:00</t>
+  </si>
+  <si>
+    <t>2021.06.24. 오후 3:20</t>
+  </si>
+  <si>
+    <t>2021.06.21. 오후 4:02</t>
+  </si>
+  <si>
+    <t>2021.06.25. 오전 8:02</t>
+  </si>
+  <si>
+    <t>2021.06.21. 오후 2:44</t>
+  </si>
+  <si>
+    <t>2021.06.29. 오후 4:02</t>
+  </si>
+  <si>
+    <t>2021.06.30. 오전 5:09</t>
+  </si>
+  <si>
+    <t>2021.06.21. 오전 9:49</t>
+  </si>
+  <si>
+    <t>2021.06.28. 오전 10:29</t>
+  </si>
+  <si>
+    <t>2021.06.23. 오전 8:56</t>
+  </si>
+  <si>
+    <t>2021.06.28. 오후 4:02</t>
+  </si>
+  <si>
+    <t>2021.07.01. 오전 11:23</t>
+  </si>
+  <si>
+    <t>2021.06.14. 오전 11:31</t>
+  </si>
+  <si>
+    <t>2021.06.15. 오후 1:55</t>
+  </si>
+  <si>
+    <t>2021.06.15. 오전 11:06</t>
+  </si>
+  <si>
+    <t>2021.06.09. 오후 2:55</t>
+  </si>
+  <si>
+    <t>디지털타임스</t>
+  </si>
+  <si>
+    <t>부산일보</t>
+  </si>
+  <si>
+    <t>전자신문</t>
+  </si>
+  <si>
+    <t>한국경제</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>뉴시스</t>
+  </si>
+  <si>
+    <t>서울신문</t>
+  </si>
+  <si>
+    <t>디지털데일리</t>
+  </si>
+  <si>
+    <t>이데일리</t>
+  </si>
+  <si>
+    <t>ZDNet Korea</t>
+  </si>
+  <si>
+    <t>“국내 오픈소스·개방형OS 생태계 활성화 도울 것”티맥스OS 인스톨러 개발 등 참가자 멘토링·교육 제공티맥스오에스(대표 허희도)는 정보통신산업진흥원(NIPA)이 주관하고 과학기술정보통신부가 주최하는 제15회 공개SW(소프트웨어) 개발자대회를 후원해 개발자 교육을 지원한다고 밝혔다.이 대회는 공개SW 프로젝트 공모를 통해 관련 생태계 활성화와 인재 양성을 돕는 게 목적이다. 공개SW에 관심 있는 누구나 공개SW포털을 통해 신청할 수 있다.티맥스오에스는 PC용 운영체제의 손쉬운 설치를 돕는 '티맥스OS(TmaxOS)' 인스톨러 개발 및 오픈소스 프레임워크 일렉트론 등에 대해 멘토링과 교육을 지원한다. 티맥스오에스 지정 과제에 참여한 참가자는 대회 상금 외에도 개방형OS 개발용 노트북과 티맥스오에스 지원 시 가산점과 인턴십 기회를 얻을 수 있다.티맥스오에스는 국가보안기술연구소의 개방형 보안 OS '구름 플랫폼'을 기반으로 'Tmax구름'을 개발했다. Tmax구름을 필두로 개방형OS 확산과 인재 육성을 도와 시장 성장을 지원하겠다는 의지다. 허희도 티맥스오에스 대표는 "오픈소스와 개방형OS는 4차 산업혁명시대 IT인프라의 핵심 요소가 됐다"며 "다양한 활동을 펼쳐 오픈소스를 기반으로 한 국내 SW 생태계의 건강한 순환을 돕겠다"고 말했다.</t>
+  </si>
+  <si>
+    <t>동의대(총장 한수환) 인공지능로봇연구소(소장 옥승호)는 지난 6월 22일 동의대 정보공학관에서 ㈜큐브로이드(대표 신재광)·㈜삼쩜일사(대표 채덕병)·㈜코더블(대표 김기만)·코딩하루(대표 신영수)·DO메이커(대표 한신애)와 SW·AI·Robotics 교육산업의 활성화와 이공계 맞춤형 인력양성을 위한 MOU를 체결했다.이날 협약에는 큐브로이드 신재광 대표, DO메이커 한신애 대표, 코딩하루 신영수 대표, 삼쩜일사 채덕병 대표가 참석하였으며, 각 기관들은 △지능형 로봇 연구와 인력양성 △SW·AI·Robotics 교육 활성화를 위한 인적, 물적 자원의 교류 △공동 프로그램 기획과 개발 등에 상호 협력하기로 했다.또한 협약식에 이어 동의대 재학생을 대상으로 ‘교육용 인공지능 코딩 로봇 기술 및 산업 동향’을 주제로 특강을 개최하였으며, 큐브로이드의 인공지능 코딩 로봇 기부 행사도 진행되었다.인공지능로봇연구소 옥승호 소장(로봇·자동화공학전공 교수)은 “이번 협약과 특강을 계기로 로봇을 활용한 코딩과 인공지능 교육 활성화에 더욱 힘쓰고, 기업의 수요를 충족하는 인재양성을 통해 지역경제 성장에 도움이 되기를 기대합니다”고 말했다.㈜큐브로이드는 지난해 과학기술정보통신부 장관상을 수상한 에듀테크기업으로 AI 기반의 모듈러 로보틱스 제품과 비대면 디지털콘텐츠를 만들고 있으며, DO메이커는 AR, 코딩드론, 3D모델링, 인공지능 등의 다양한 교육을 진행하고 있다.또한 코딩하루는 코딩교육 프랜차이즈 기업이며, 코더블은 소프트웨어 교육용 교구와 콘텐츠 개발 전문기업이다. 삼쩜일사는 에듀테크 스타트업 기업으로 소프트웨어 교육용 교구 ‘카미봇’을 출시했다.</t>
+  </si>
+  <si>
+    <t>SW중심대학사업단 7월 13일부터 26일까지 시행동명대(총장 전호환) SW중심대학사업단(단장 조미경)은 7월 13일부터 26일까지 부산시민을 대상으로 「경력단절여성 대상 SW교육강사 양성과정」 프로그램을 진행한다.SW교육강사를 희망하는 경력단절 여성 30여명에 ▲1부 EPL(Entry+Scratch), ▲2부 Physical(Arduino +Micro-bit) 교육을 진행한다. 하루 6시간씩, 총 60시간의 교육시간을 가진 후, 수강생 대상으로 강의 형태의 발표평가를 한다.수료자들은 동명대 SW중심대학사업단 가치확산 교육 프로그램에 보조강사로 투입되어 교육 경력을 쌓도록 한다.조미경 단장은 가사나 육아, 다른 직업을 희망하는 경력이 단절된 여성이 자신감을 회복하고 취업 욕구를 높여 직업세계로 진입할 수 있는 기회가 될 수 있을 것이라고 말했다.사업단은 결혼과 출산, 육아 등의 문제로 직장을 그만둔 여성의 경력단절을 예방하고 출산 후 업무 복귀를 위한 SW 교육 및 취업을 지원하며, 경력 단절 여성이 자신감을 회복하고 취업욕구를 높여 직업세계로 진입할 수 있도록 이 프로그램을 마련했다.</t>
+  </si>
+  <si>
+    <t>강원정보문화진흥원(원장 김흥성)은 23일 강원도일자리재단과 소프트웨어(SW) 융합산업 일자리 창출 활성화 업무협약을 체결했다. 사진출처=강원정보문화진흥원강원정보문화진흥원(원장 김흥성)은 23일 강원도일자리재단과 소프트웨어(SW) 융합산업 일자리 창출 활성화 업무협약을 체결했다.양 기관은 도내 산·학·연·관 정보 수집·공유를 통해 고품질 교육 시행 및 SW산업 분야 중심 전문인력 양성과 일자리 창출·지원 활성화 정책사업을 공동 추진한다.김흥성 원장은 “SW융합 전문 인력 양성을 통해 SW융합산업 생태계 활성화에 적극 협력할 것”이라며 “다양한 융합분야 일자리 기반을 확장해 나갈 수 있도록 하겠다”고 말했다.강원=이인희기자 leeih@etnews.com▶ "OPC UA 입문: 기본 개념에서부터 적용까지" 29일 개최▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>전국 정보교육네트워크 발족"2022 교육과정에 정보교육 시수 늘려야"이재호 한국정보교육학회장(경인교대 교수)가 온라인으로 발표하고 있다.공교육에서 소프트웨어(SW), 인공지능(AI)을 가르치는 정보교육 시수가 부족한 가운데 사교육만 부채질하고 있다는 정보교육계의 비판이 나왔다.이재호 한국정보교육학회장(경인교대 교수)는 21일 서울 서초구 신라스테이 세미나실에서 전국 정보교육네트워크가 연 ‘제2회 초·중등 정보(SW·AI)교육 정상화를 위한 교육과정 개편 혁신포럼’에서 이같은 입장을 밝혔다.이 교수는 초·중등교육에서 정보교육의 시수가 매우 부족하다는 점을 우선 지적했다. 그는 “초등학교 SW교육이 2003년에는 특별활동으로 200시간 이상 이뤄졌으나 2015 교육과정에서는 17시간으로 매우 축소됐다”며 “정보교과가 없고 ‘실과’ 교과 안에 1개의 단원으로만 포함되어 있다”고 말했다. 이어 그는 “이번 2022 교육과정에서는 정보교육 시수를 대폭 늘려야 한다”고 강조했다.현재 초·중등 과정에서 의무로 지정된 소프트웨어 교육은 초등학교가 17시간, 중학교가 34시간이다. 고등학교는 선택 과목이다. 이렇게 적은 수업시간으로 인해 오히려 SW 사교육이 늘어나고 있다는 것이 이 교수의 주장이다. 한국정보교육학회가 학부모를 대상으로 진행한 설문결과에 따르면 SW 사교육을 시키고 있는 학부모들의 42.9%는 ‘학교교육이 부족해 사교육을 시키고 있다’고 답했다.김한일 한국컴퓨터교육학회장(제주대 교수)도 SW 수업 비율이 매우 낮다고 꼬집었다. 김 교수는 “2015 개정 교육과정에서 초등학교의 SW 수업 비율은 전체의 0.29%, 중학교는 1%에 불과하다”며 “교육과정 편제표에는 정보 교과가 명시되어있지도 않다”고 했다. 이어 그는 “2022 교육과정에서는 학생들에게 격차 없는 정보교육을 제공하고, 학습권도 보장해야 한다”고 덧붙였다.전국 정보교육네트워크는 한림과학기술한림원, 한국공학한림원, 정보교육확대추진단, AI미래포럼 등 18개 단체가 올 하반기 정부의 ‘2022 개정 교육과정 총론’ 발표를 앞두고 교육과정에 소프트웨어(SW)와 인공지능(AI) 교육을 대폭 확대해야 한다는 취지로 발족된 단체다.이들은 초·중·고의 정상적인 정보교육을 위해서는 최소한 초등학교의 경우 3~4학년 군에서 68시간, 중학교의 경우 136시간, 고등학교의 경우 4학점에 해당하는 64시간의 시수와 이를 위한 독립적이고 필수화된 교육과정이 필요하다는 입장이다.김남영 기자 nykim@hankyung.com▶ 경제지 네이버 구독 첫 400만, 한국경제 받아보세요▶ 한경 고품격 뉴스레터, 원클릭으로 구독하세요▶ 한국경제신문과 WSJ, 모바일한경으로 보세요 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>왼쪽부터 김규태 경기도교육청 제1부교육감, 심규순 경기도의회 기획재정위원장, 이용철 경기도 행정1부지사, 유승경 경기도경제과학진흥원장.경기도와 경기도경제과학진흥원은 24일 '경기 소프트웨어 미래채움센터(이하 SW미래채움센터) 개소식'을 개최했다고 밝혔다.경기SW미래채움센터는 총 200평 규모로 수원(광교)과 의정부 2곳에 강의실과 온라인 스튜디오, SW체험존으로 리모델링해 조성됐다. 로봇·인공지능(AI) 등을 시연해볼 수 있도록 맞춤형 체험공간을 구축한 것이 특징이다.SW미래채움센터는 지난해 과학기술정보통신부의 'SW 미래채움 공모 사업'에 선정돼 만들어진 센터로 초·중등학생을 대상으로 △AI △로봇 △3D 프린팅 △VR·AR 등 4차산업 선도 기술에 대한 교육과 체험 및 SW 교육 전문가 양성이 이뤄진다.특히 SW미래채움센터는 도내 SW 교육기회가 부족한 도서벽지, 정보소외계층 아이들에게 무상으로 교육을 실시하며, 주말에는 가족과 함께하는 SW 교육 및 체험활동을 통해 도내 SW 문화확산에 기여한다.이날 개소식 행사에는 이용철 경기도 행정1부지사, 심규순 경기도의회 기획재정위원장, 김규태 경기도교육청 제1부교육감을 비롯해 전국 SW 교육기관·단체 등 70여명이 온·오프라인으로 참석했다.유승경 경기도경제과학진흥원 원장은 “SW미래채움센터가 SW 교육 기회 불평등으로 인한 디지털 격차를 해소하는데 큰 역할을 할 것으로 기대하며, 이러한 센터가 경기도 전역에 확대될 수 있도록 노력하겠다”고 말했다.김정희기자 jhakim@etnews.com▶ "OPC UA 입문: 기본 개념에서부터 적용까지" 29일 개최▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		호남 최초 소프트웨어(SW) 중심대학인 조선대 SW중심대학사업단은 24일 융합인재교육 'STEAM(과학, 기술, 공학, 예술, 수학)' 선도학교인 광주월산초등학교 3~5학년 전체 학생을 대상으로 '2021 인공지능(AI)·SW STEAM 페스티벌'을 성황리에 개최했다.이번 행사에서 광주월산초등학교 학생들은 로봇과 함께하는 AI·SW코딩놀이 시간을 가졌다.조영주 SW중심대학사업단 담당교수는 이광옥·유소월 교수, 서희철 연구원, IT융합대학 노치상·김준현·박민솔·문강현·김동현 조교진과 함께 오전 9시부터 12시까지 월산초 학생들에게 건강하게 즐길 수 있는 AI·SW코딩놀이 프로그램을 진행했다.조선대 SW중심대학사업단은 24일 광주월산초등학교 3~5학년 전체 학생을 대상으로 2021 인공지능(AI)·SW STEAM 페스티벌을 성황리에 개최했다.조선대 SW중심대학사업단은 24일 광주월산초등학교 3~5학년 전체 학생을 대상으로 2021 인공지능(AI)·SW STEAM 페스티벌을 성황리에 개최했다.조선대 SW중심대학사업단은 24일 광주월산초등학교 3~5학년 전체 학생을 대상으로 2021 인공지능(AI)·SW STEAM 페스티벌을 성황리에 개최했다.교육내용은 △로봇과 함께하는 미래도시 만들기 △아이돌 군무 로봇도 할 수 있어요!! △알파1 로봇과 함께 신나는 운동을~ 등 친구들과 함께 즐거운 미션을 해결하며 직접 로봇을 제어하고 조작하는 건강하고 신나는 시간을 가졌다.조영주 담당교수는 “요즘 우리가 일상생활에서 만나는 AI로봇은 많은 양의 데이터를 분석하고 문제를 해결해 나가는 기능을 포함하고 있다”며 “학생들이 주어진 문제를 해결하기 위해서는 컴퓨팅사고력(CT)이 필요하다”고 말했다.이어 “컴퓨팅 사고력은 AI·SW코딩교육을 통해 논리적인 사고력과 문제해결능력을 함께 향상시킬 수 있다. 그러기 위해서는 어렵고 딱딱한 AI·SW코딩교육이 아닌 즐겁고 재미있는 코딩교육이 필요하다”며 “로봇미션해결 수업을 통해 월산초 학생들에게 AI·SW코딩교육은 즐겁고 재미난 것이라는 기분좋은 변화가 일어나길 바란다”고 덧붙였다.유은경 광주월산초등학교 교장은 “AI·SW코딩교육은 필수 조건이 되었다. 과학을 즐기고, 창의성과 바른 인성을 갖춘 융합인재로 성장하고 있는 월산초 학생들에게 보다 재미있고 즐거운 로봇코딩의 기회를 제공해준 조선대 SW중심대학사업단과 교수께 감사인사를 전한다”며 “STEAM선도학교로서 학생들에게 실질적인 AI·SW코딩교육이 이어질 수 있도록 하겠다”고 말했다.</t>
+  </si>
+  <si>
+    <t>과기정통부, 공개SW 개발자대회 참가자 모집공개SW 개발자대회 시상 내역  &lt;출처:과기정통부&gt;    과학기술정보통신부가 23일부터 7월 23일까지 '공개SW 개발자대회' 참가자를 모집하고, 실력자를 발굴한다. 이 대회는 창의적인 공개SW 개발자를 키우기 위한 것으로, 최종 26개 팀을 선발해 총 상금 7200만원을 지원한다. 대상에는 과기정통부장관상이 주어진다. 공개SW에 관심있는 국민 누구나 참여할 수 있으며, 참가자에게는 개발실력과 출품작의 완성도를 높일 수 있는 온라인 교육과 멘토링 등이 제공된다. 온라인 교육은 SW 비전공자, 대학생·일반인 및 공개SW를 처음 접하는 개발자 등을 위한 것으로, 공개SW 기초과정, 기술별 심화과정이 제공된다. 참가자들은 제공된 교육 자료를 학습하고, 자율적 개발을 거쳐 9월 9일까지 출품작을 제출하게 되며, 1차 심사를 통해 50개 내외의 결선 진출작이 선발된다. 결선 진출작에 대해서는 1개월 간의 집중 멘토링을 통해 개발역량 향상, 출품작 고도화 기간을 가진다. 이후 2차 심사를 거쳐 최종 수상작이 선정된다.개발 주제는 인공지능, 빅데이터, 클라우드, 사물인터넷 등 신기술 분야의 자유과제와, 공개SW 기업이 지정하는 개방형OS, 멀티 클라우드 등 지정과제로 구성된다. 여기에 올해는 사회적 약자 배려, 환경보호, 감염병 대응 등 사회문제를 해결하는 유형의 지정과제가 추가됐다. 대회 수상자가 창업을 희망하는 경우, 정보통신산업진흥원의 창업 교육, 사업화 컨설팅 등을 제공한다. 대회 문의는 '2021 공개SW 개발자 대회' 운영 사무국에 하면 된다.박윤규 과기정통부 정보통신정책실장은 "최근 인공지능, 블록체인, 빅데이터 등 신기술 분야를 포함한 대부분의 소프트웨어가 공개SW를 활용해 개발되면서 공개SW가 제품서비스의 경쟁력을 좌우하는 핵심 요인이 되고 있다"며 "대회를 통해 창의적인 공개SW 개발자를 발굴, 육성해 공개SW 저변이 확대되고, 관련 생태계가 활성화되도록 지원하겠다"고 말했다.안경애기자 naturean@dt.co.kr ▶[ 네이버 메인에서 디지털타임스 구독 ] / ▶[ 뉴스스탠드 구독 ]▶디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t>증강현실·가상현실·3D프린터 체험도조선대학교[연합뉴스 자료]    (광주=연합뉴스) 전승현 기자 = 조선대학교가 인공지능(AI) 분야 등을 체험할 수 있는 첨단 기술 교육 공간인 'CU INNO SPACE'(조선대 혁신 공간)를 교내에 구축했다.    조선대는 24일 IT융합대학 내에 마련된 CU INNO SPACE에서 민영돈 총장과 이대용 부총장, 김판구 IT융합대학장, 이민창 대학혁신사업지원센터장, 정일용 SW중심대학사업단장, 유민우 IT융합대학학생회장 등 교수와 학생 50여 명이 참석한 가운데 개소식을 했다. CU INNO SPACE는 창조공간, 혁신공간, 교육공간, 프로젝트 공간 겸 3D프린터 공작실 등 4개의 세부공간으로 구성됐다.    이들 공간에서는 인공지능(AI), 증강현실(AR), 가상현실(VR), 3D프린터 등을 체험할 수 있다.    조선대는 이들 공간을 첨단기술을 활용한 프로젝트 창작·체험·구현 공간으로 특화해 다양한 비교과 프로그램 교육에 활용할 뿐 아니라 연구 개발과 지역사회 연계 프로그램 운영 등 점차 활용도를 높여나갈 계획이다.    민영돈 총장은 "실패는 젊음의 특권이기에 CU INNO SPACE가 실패를 두려워하지 않고 도전하는 우리 학생들과 지역민들이 창의적 역량을 마음껏 펼치는 공간이 되기를 바란다"고 말했다. shchon@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크]'기습추행' 주장한 오거돈…인정되면 선처?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>전남정보문화산업진흥원 전문강사 파견학생 눈높이에 맞춘 SW·AI 교육에 관심[무안=뉴시스] 전남정보문화산업진흥원의 찾아가는 SW·AI 코딩 교실. (사진=진흥원 제공) photo@newsis.com *재판매 및 DB 금지[무안=뉴시스]맹대환 기자 = 전남지역 도서벽지 초등학교와 지역아동센터를 대상으로 소프트웨어(SW)와 인공지능(AI) 교육을 진행하는 '찾아가는 SW·AI 코딩 교실'이 호응을 얻고 있다.21일 전남정보문화산업진흥원에 따르면 진흥원은 과학기술정보통신부가 시행하고 전남도와 나주시, 전남도교육청이 지원하는 찾아가는 SW·AI 코딩 교실을 운영하고 있다.도서벽지 학교와 취약계층 보호기관 등에  SW·AI 교육 전문강사를 파견해 학생들의 눈높이에 맞는 교육을 제공함으로써, SW·AI 교육격차를 해소하는 게 사업 목적이다.진흥원은 올해 3월부터 상반기 지역아동센터 57곳, 섬마을 학교 47학급, 장애청소년 22학급 등을 대상으로 교육을 진행하고 있다.교육의 질 향상을 위해 파견 학교를 대상으로 모니터링도 지속하고 있다.완도군 섬마을의 한 학교 교사는 “육지 학교에 비해 소프트웨어 교육 기자재가 부족하고, 정보통신 환경도 열악하다"며 “학교 입장에서는 소프트웨어 교육에 대한 과제를 해소했고, 학생들은 평소 접하기 힘들었던 정보통신 흥미에 빠져드는 계기가 됐다”고 말했다.진흥원은 이 사업의 원활한 추진을 위해 지난해 폐교인 나주 산포초등학교 덕례분교를 리모델링해 '전남 소프트웨어 미래채움센터'를 출범시켰다.2019년부터 3년 간 국비 35억원을 포함한 총 71억원을 투입한다. SW 강사 일자리 창출 300명, SW 인재 양성 9000명을 목표로 운영 중이다.이준근 진흥원장은 “전남의 꿈나무들이 4차 산업혁명시대의 창의적 인재로 성장할 수 있도록, SW·AI 교육 기회를 확대하겠다”고 말했다.☞공감언론 뉴시스 mdhnews@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (부산=연합뉴스) 김선호 기자 = 부산시는 부산정보산업진흥원, CJ올리브네트웍스와 물류 분야 AI 전문 인재를 발굴하는 인공지능 지역특화 과정을 운영한다고 25일 밝혔다.     교육과정은 인공지능 및 IT·SW분야 취업을 희망하는 미취업자 청년을 대상으로 하루 8시간, 주 5일의 4개월 집중교육으로 구성됐다.    우수 교육생 대상으로 CJ올리브네트웍스 실무를 체험할 수 있는 '리모트 인턴쉽' 프로그램에 참여할 기회가 제공된다.    교육생은 국내 IT물류 분야 대기업의 커리큘럼과 강사진을 만나볼 수 있다.     교육 신청은 7월 1일까지 배울랑 홈페이지(www.baeulang.kr)에 가입하면 된다. wink@yna.co.kr</t>
+  </si>
+  <si>
+    <t>[울산=뉴시스]  *재판매 및 DB 금지[울산=뉴시스] 조현철 기자 = 울산정보산업진흥원(원장 구자록)은 울산시 및 정보통신산업진흥원(원장 김창용)과 공동개최한 '제1회 울산지역 SW미래채움 SW경진대회'가 지난 19일 시상식을 끝으로 성황리에 막을 내렸다고 21일 밝혔다.비대면으로 열린 이번 경진대회는 5월 21일 참가자 모집을 시작으로 예선과 본선이 지난 5일과 12일 진행됐다.본선에선 '로봇을 이용한 스마트 물류'란 주제로 마인크래프트 코딩 프로그램을 활용한 코딩 대회가 펼쳐졌다.본선에 진출한 34명의 참가자 중 대상 1명, 최우수상 2명, 우수상 4명, 장려상 10명이 선정됐다.이들 수상자에게는 울산정보산업진흥원장상(월봉초등 양진우 학생)과 함께 인공지능 교구재가 부상으로 주어졌다.한편 울산 SW미래채움사업은 2020년 5월부터 미취업 청년, 경력단절 여성, 퇴직전문가 등을 SW강사 양성 교육을 통한 SW전문강사로 고용함으로써 일자리 창출에 기여하고 특수학교 및 정보소외계층 학생의 SW코딩, AI로봇, 3D프린팅 등에 대한 교육 접근성을 강화할 목적으로 추진하고 있다.◇장수완 행정부시장 물놀이 관리지역 현장 점검울산시는 장수완 행정부시장이 6월 안전점검의 날을 맞아 21일 여름철 물놀이 관리지역 현장 점검을 했다고 전했다.점검 대상은 여름철 물놀이 관리지역으로 선정된 울주군 상북면 배내골 철구소, 범서읍 선바위 일원이다.장 행정부시장은 이날 안전사고 예방을 위한 구명조끼·구명환 등 안전시설 정비, 안전요원 배치 상태, 코로나19 예방을 위한 방역 계획 등을 중점적으로 살펴봤다.한편 물놀이 관리지역은 여름철 시민들이 물놀이를 위해 많이 찾는 장소를 지정해 안전시설물, 안전관리 요원 등을 배치한다. 울주군에 5곳이 있다.물놀이 위험구역은 물놀이가 금지된 구역으로, 선바위교 위 300m 한 곳이 지정됐다.☞공감언론 뉴시스 jhc@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>코로나19로 위축된 소프트웨어(SW) 업계 수출이 4차 산업혁명 시대에 맞춰 활기를 되찾고 있는 가운데 전략물자관리제도가 다시 한번 뜨거운 감자로 떠올랐다. 전략물자관리제도란 국제평화와 안보를 보장하기 위해 무기 제조에 사용될 수 있는 산업용 물자가 분쟁 다발 지역, 테러 지원국으로 수출되는 것을 예방하거나 차단하기 위한 국제 규범이다. 전략물자관리제도가 시행된 지 10년이 넘었지만 여전히 대다수 SW 중소기업이 제도 인지 부족으로 처벌 위기에 놓여 있다.제도가 실시된 후 SW 기업은 △SW 기업의 전략물자관리제 인식 부족 △수출 SW의 전략물자 판단 기준과 난해한 문구에 따른 객관적인 판단의 어려움 △SW 수출 시 전략물자관리제도에 수반되는 행정 절차의 번거로움 △암호화 오픈소스를 활용한 시스템·솔루션의 전략물자 면제 조건인 소스코드 공개로 말미암은 기업의 핵심 기술 유출 우려를 애로사항으로 언급한 바 있다.이 가운데 중소기업이 겪는 가장 큰 고충은 법적 전문가 부족이다. 산업통상자원부는 각 기업에 전략물자 판정 필요성에 대한 공문 등으로 안내하고 있지만 이를 숙지하지 못한 기업은 위반 가능성까지 거론된다. 결국 제도와 행정 절차를 완벽하게 숙지하고 이행할 수 있는 인력이 있어야 하는데 중소기업에서는 연구개발(R&amp;D)과 비즈니스 활동에 집중해야 할 실무자가 전담하는 실정이다. 또 SW 제품의 서비스 특성과 계약 형태에 따른 전략물자 판단 기준, 이에 대한 난해한 문구로 말미암아 객관적 판단이 어렵다. 사전 판정의 경우에도 예외 조항이나 법 해석이 포괄적이어서 실무자가 이후 판정 결과에 따라 어떤 대응이 필요할지 등 행정 절차 상에서의 어려움을 겪는다.전략물자관리제도가 국제 평화 질서를 위한 제도인 만큼 기업 애로 사항에 대한 정부의 지속적인 후속 대책과 개선 방안 마련이 시급하다. 먼저 SW 산업 전체와 중소기업이 사전에 제도를 인지하고 위반 행위의 재발 방지를 위해서는 먼저 정부 차원의 적극 홍보와 교육이 필요하다. 전략물자관리원의 무역 안보 교육과 홈닥터 사업이 마련됐지만 이에 대한 인식은 여전히 부족하다. 산업부는 각 정보보안산업협회 및 SW협회 등 회원사 네트워크를 활용해 기업에 사전 교육 정보를 적극적으로 공유하고, 기업 또한 교육·지원 제도 수행에 대한 중요성을 인지해야 할 것이다.산업부는 각 기업 제품의 서비스 특성과 계약 형태에 의한 전략물자 판정에 따른 허가 절차 및 예외 범위, 면제 조항을 명확하게 표현할 필요가 있다. 큰 쟁점이 된 부분은 전략물자 판정 체크리스트 내 용어에 대한 기업의 주관적인 해석으로서 위배 사항이 아님에도 법적 책임을 물게 되는 경우다. 대부분 고의성이 없는 만큼 처벌보다는 법 위반 행위의 재발 방지를 위한 교육이 우선시돼야 한다. 더 나아가 기업 스스로 전략물자 해당 여부를 확인할 수 있도록 동일 사례 판정에 근거한 체계적 자료를 보강할 필요가 있다.무엇보다 SW 중소기업이 제도를 정확하게 숙지하고 준수할 수 있도록 법적 차원의 개선 외에도 자율준수 프로그램 확대, 행정 절차 간소화 등 다양한 지원 사업으로 뒷받침해야 한다. 4차 산업혁명의 핵심 요소 산업에서 중심인 SW 기업이 정부와 긴밀한 소통을 이어 가고 공공 규범을 성실하게 준수, 세계 시장에서 입지를 견고히 할 수 있기를 바란다.</t>
+  </si>
+  <si>
+    <t>내년부터 2300명… 부울경 캠퍼스 신설지난 9일 서울 강남구 멀티캠퍼스 교육센터에서 열린 ‘삼성 청년SW아카데미’ 4기 수료식에서 수료생들과 관계자들이 기념 촬영하고 있다.삼성전자 제공삼성의 대표적인 사회공헌활동으로, 경제활성화와 청년 일자리 창출을 위해 시작한 ‘삼성 청년SW아카데미’가 내년부터 교육생 규모를 2배 수준으로 확대한다.29일 삼성전자 등에 따르면 ‘삼성 청년SW아카데미’는 정부의 ‘2021년 하반기 경제정책방향’에 따라 내년도 교육생 규모를 기수당 1150명까지 확대할 방침이다. 연간 기준 약 2300여명이 해당 아카데미에 참여하는 것으로, 지난해와 비교하면 규모가 2배 이상 늘어난다. 삼성전자는 지난해 상·하반기에 각각 500명씩 모집하던 기수별 교육생을 올해 상반기 750명, 하반기 950명으로 확대한 바 있다. 더불어 다음달 부산·울산·경남 캠퍼스를 부산에 신설하게 돼 지역별 캠퍼스는 서울과 대전, 광주, 구미에 이어 총 5개로 늘어난다.이 같은 변화는 정부가 전날 발표한 ‘하반기 경제정책방향’에 포함된 기업 우수 인재양성 프로그램 확대 방침에 따른 것이다. 이들 기업과 협의를 거친 기획재정부와 고용노동부는 해당 프로그램의 교육생 훈련 및 강사 선발 교육 커리큘럼 구성은 기업들이 자율적으로 기획·운영하도록 하고 교육 규모 확대에 따른 비용 일부를 정부가 분담하기로 했다. 대한상공회의소는 각 기업들에 필요한 행정사항을 지원하고 신규 참여기업 발굴과 교육 수료생의 취업 지원을 맡게 된다.삼성전자 외에도 SK하이닉스의 반도체 인재양성 프로그램인 ‘청년 하이파이브’와 포스코의 ‘AI·빅데이터 아카데미’ 등 주요 기업들이 운영하는 디지털 인재양성 프로그램도 정부와 협의를 거쳐 교육 과정과 인프라를 확대하기로 했다.특히 삼성전자의 청년SW아카데미는 2018년 도입된 이후 수료생들의 누적 취업률이 68%에 이를 만큼 취업준비생들에게 큰 인기를 끌고 있다. 이재용 부회장이 직접 교육 현장을 찾기도 하는 등 경영진 차원에서도 큰 관심을 갖고 있는 것으로도 알려져 있다.</t>
+  </si>
+  <si>
+    <t>[서울=뉴시스]SK텔레콤은 자사의 클라우드 마켓플레이스에 중소기업들의 디지털 업무 환경 구축을 쉽고 빠르게 지원 가능한 '마이크로소프트365'이 새롭게 입점했다고 21일 밝혔다. (사진=SK텔레콤 제공) 2021.06.21[서울=뉴시스] 이진영 기자 = SK텔레콤은 기업형 소프트웨어(SW) 온라인 거래 장터인 'SKT 클라우드 마켓플레이스'에 중소기업들의 디지털 업무 환경 구축을 쉽고 빠르게 지원 가능한 '마이크로소프트 365'(M365)이 신규로 입점했다고 21일 밝혔다.'M365'는 사무용 소프트웨어 제품인 '오피스 365'에 아웃룩(Outlook), 팀즈(Teams), 원드라이브(OneDrive) 등 다양한 디지털 업무 지원 솔루션들과 보안, 디바이스 관리 기능을 함께 제공하는 토탈 비즈니스 클라우드 서비스다.SKT는 세계 최고 수준의 비즈니스 서비스인 M365의 마켓플레이스 입점을 통해 국내 중소 기업들의 디지털 업무 환경 도입에 탄력이 붙을 것이라고 기대했다. SKT는 이달 초 마이크로소프트와 체결한 파트너십을 바탕으로 이날부터 종업원 300명 이하 중소기업을 대상으로 M365를 최대 40% 할인된 가격으로 연말까지 제공하는 국내 최저가 프로모션을 진행한다고 강조했다. 또 SKT 클라우드 마켓플레이스 홈페이지를 통해 문서 공동 작업 등이 가능한 마이크로소프트의 '팀즈'를 무료로 다운로드 받아 이용할 수 있도록 지원한다고 알렸다. 아울러 자사 클라우드 마켓플레이스에서 마이크로소프트와 협력을 바탕으로 서비스형 소프트웨어 진출을 희망하는 국내 중소 소프트웨어 개발사들에게 클라우드 교육 무상 제공과 클라우드 마켓 수수료 3개월 면제 혜택을 제공하기로 했다. 이 밖에 마이크로소프트의 개방형 클라우드 플랫폼인 '애저'(Azure) 가입 시 이용 가능한 클라우드 전용 크레딧을 최대 500만원까지 제공하고 있다.SKT 관계자는 "지난 3월 말 오픈한 'SKT 클라우드 마켓플레이스'는 이번 M365입점을 계기로 벤처 소프트웨어 개발사들에게 도움이 될 수 있는 각종 솔루션들을 지속 선보이는 등 다양한 지원을 통해 국내 서비스형 소프트웨어 시장 활성화에 나설 계획이다"고 밝혔다.☞공감언론 뉴시스 mint@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>LG전자 오픈소스 태스크. 사진 왼쪽부터 방재권 선임, 김소임 선임, 최혜성 책임, 김경애 리더, 석지영 선임, 박원재 선임[디지털데일리 백지영기자] 현재 새로운 소프트웨어나 서비스를 개발하는데 오픈소스 소프트웨어(SW)를 활용하지 않는 경우는 드물다. 시높시스와 가트너 등의 조사에 따르면 상용 애플리케이션 코드의 60~90%는 오픈소스 SW로 이뤄져 있으며, 사물인터넷(IoT) 기기의 경우 평균 77%의 오픈소스 SW가 내장돼 있다. 국내 역시 마찬가지다. 정보통신산업진흥원(NIPA)에 따르면, 2020년 기준 국내 기업의 오픈소스 SW 활용률은 약 60%에 달한다. 실제 활용율은 이보다 훨씬 높을 것으로 보인다. 이처럼 개발자들의 오픈소스 활용이 제품 개발의 필수가 되고 있지만, 소스코드 관리나 보안 취약점 대응에 어려움을 겪고 있는 것도 사실이다. 일반적으로 오픈소스 SW를 사용하는 것은 자유지만, 각 오픈소스마다 정의된 라이선스 규정을 반드시 지켜야 하기 때문이다. 라이선스 규정에 따라 저작권 관련 문구를 유지하거나, 활용한 결과물의 전체 소스코드를 공개해야 하는 의무가 존재한다. 만약 의무사항을 지키지 않을 경우엔 저작권 침해 문제가 발생할 수 있어 세심한 주의와 관리가 필요하다. 실제 수년 전 한 국내기업은 오픈소스 저작권을 침해해 수백만 달러의 합의금을 지불한 적도 있다.이러한 가운데 최근 LG전자가 자체 개발해 2014년부터 운영해오고 있는 오픈소스 SW관리 도구인 ‘포스라이트(FOSSLight ; Free and Open Source Software Light)’를 공개해 주목을 받고 있다. 포스라이트는 개발자의 SW를 분석해 오픈소스를 사용했는지, 오픈소스 사용 조건이나 의무사항을 준수했는지 등을 검증해 주는 툴이다.◆오픈소스 컴플라이언스 구축 위한 올인원 시스템=포스라이트를 개발하고 오픈소스로 공개한 팀은 LG전자 SW센터 SW공학연구소 산하 오픈소스 태스크다. 오픈소스 태스크는 현재 LG전자의 OSPO(오픈소스 프로그램 오피스) 역할을 담당하고 있다. OSPO는 오픈소스 사용 및 배포에 대한 감사(audit)와 컴플라이언스(규제준수), 사내 SW 개발자 교육, 문화 확산 등 전반적인 오픈소스 전략을 구축하는 역할을 한다. 이같은 노력의 일환으로 LG전자는 국내기업으로는 최초로 국제표준규격인 ‘ISO/IEC 5230 오픈체인 프로젝트’의 표준 준수 기업으로 등록된 바 있다. 리눅스재단에서 운영하는 오픈체인 프로젝트는 오픈소스 소프트웨어의 라이선스 준수 등 관리 역량을 판단해 선정한다. 국내에선 LG전자 외에 엔씨소프트가 두 번째로 가입했다.이번 포스라이트 공개를 주도한 김경애 LG전자 오픈소스 태스크 리더(사진 가운데)은 최근 기자와 만나 “포스라이트는 각 기업에서 사용하는 오픈소스 히스토리 관리와 보안 취약점 관리 등을 한 번에 할 수 있는 올인원 시스템”이라며 “이미 사내에서 7년 넘게 사용하면서 고도화시킨 만큼, 이를 통해 누구나 오픈소스 컴플라이언스 구축이 가능하다”고 강조했다.포스라이트는 그동안 LG전자 각 사업부 프로젝트 시 사용한 오픈소스 SW를 리뷰하는 역할을 담당해왔다. 써드파티 솔루션 도입 시에도 활용하고 있다. ‘포스라이트’라는 이름으로 외부에 공개하면서 안정성과 기능을 확대하는 한편 글로벌 인지도를 높일 수 있게 할 계획이다. 포스라이트에는 ‘세상에 빛을 밝혀줄 오픈소스’라는 의미가 담겼다.◆“홍익인간 정신으로”…ETRI 참여 의사 밝혀=김 파트장은 “현재 오픈소스 태스크를 이끄는 엄위상 SW공학연구소장께서 항상 ‘오픈소스는 홍익인간의 정신으로 해야 한다’고 하신다”며 “내부에 꽁꽁 싸매고 있기보단 좋은 솔루션을 외부에 공개해 여러 회사가 사용하면 좋을 것이라고 생각했다”고 공개 배경에 대해 설명했다.오픈소스로 공개하기 전부터 테스트해보겠다는 기업도 많았다. 이미 한국전자통신연구원(ETRI)이 포스라이트를 활용해 올 하반기 중 오픈소스 컴플라이언스 시스템을 구축하겠다는 의사를 밝혔다. 이밖에도 여러 산업군의 기업들이 테스트를 준비하고 있는 것으로 알려진다.현재 포스라이트는 AGPL-3.0 라이선스로 공개돼 있다. 기업이 내부적으로 구축해 사용하는 데는 문제가 없지만, 이를 수정해서 외부에 배포하기 위해선 소스코드를 공개해야 하는 의무가 있다.오픈소스 태스크에도 최소 3년 이상 관련 업무에 경험을 쌓아온 인력들이 모여 있다. 김경애 태스크 리더는 지난 2007년부터 LG전자 내부 오픈소스 라이선스 관리체계를 구축한 인물로 현재 저작권위원회 자문위원 등 다양한 오픈소스 관련 활동을 하고 있다.이번 포스라이트의 외부 공개는 오픈소스 태스크에도 큰 전환점이 됐다. 이름을 정하는 것부터 소스코드 및 문서 정리, 내부 절차 등 오랜 기간 준비를 해 오면서 사업화와 포스라이트콘(가칭)과 같은 행사를 개최하는 상상도 펼칠 수 있는 즐거운 시간이 됐다는 설명이다.◆국내 대표 오픈소스SW·글로벌 표준 목표=오픈소스 태스크 박원재 선임은 “잘 되는 오픈소스 프로젝트를 보면 개발자 실력도 좋아야 하지만, 사용자가 많아서 피드백이 많아야 한다”며 “물론 오픈소스 태스크에서 주도해서 만들었지만, 각 사업부 담당자들도 같이 사용하며 기능적으로 잘 구현된 툴”이라며 “앞으로 사용자가 늘어나고 더 좋은 아이디어가 생겨 더 좋은 시스템으로 발전했으면 좋겠다”고 말했다.별도의 홍보를 하지 않았음에도 해외에서도 관심이 높다. 글로벌 코드 공유사이트인 깃허브에 올려둔 ‘포스라이트 소스코드 레파지토리’에는 서비스 호감도를 확인할 수 있는 ‘스타’를 44개나 받았다. 김소임 선임은 “스타의 대부분은 외국 개발자로부터 받은 것”이라며 “유럽지역에서 특히 관심이 많은 것으로 보인다”고 했다. 김 선임은 올해 NIPA에서 진행하는 오픈 프론티어의 멘토 역할인 ‘마스터 프론티어’도 맡았다.오픈소스 태스크에 합류한지 3개월밖에 안된 ‘뉴비’ 방재권 선임은 “현재 하는 업무가 외부에 공개돼 많은 사람들이 사용할 수 있기 돼 보람과 자긍심, 뿌듯함을 느낀다”며 말했다. 최혜성 책임도 “이번 공개를 계기로 많은 사람들이 기여해 오픈소스를 붐업시킬 수 있는 계기가 됐으면 한다”고 목소리를 높였다.포스라이트 사이트를 만든 석지영 선임은 “웹사이트도 오픈소스 활용해 만들었다”며 “좋은 경험을 했다고 생각한다”고 말했다.오픈소스 태스크는 ‘포스라이트’를 국내 대표 오픈소스 SW로 키우겠다는 야심찬 목표도 갖고 있다. 현재 오픈소스로 공개된 오픈소스 컴플라이언스 툴은 전세계적으로도 거의 찾아보기 어렵다. 김경애 파트장은 “앞으로 오픈소스 컴플라이언스 시스템을 구축하려면 포스라이트가 필수 툴로 여겨질 만큼, 글로벌한 표준으로 만들겠다는 목표도 갖고 있다”며 “포스라이트를 지속적으로 개발해 새로운 기능을 계속해서 공개하겠다”고 강조했다.※이 기사는 디지털데일리와 정보통신산업진흥원(NIPA) 오픈-업(Open-Up)이 공동 기획한 기사입니다.</t>
+  </si>
+  <si>
+    <t>[이데일리 노재웅 기자] KT(030200)는 23일 서울 영등포구 메리어트호텔에서 한국상용소프트웨어협회, 오픈플랫폼개발자커뮤니티, 인프라닉스와 함께 ‘국내 상용 소프트웨어의 클라우드 전환 지원을 위한 업무협약(MOU)’을 맺었다고 밝혔다.이번 업무협약을 통해 4개 기관은 △상용소프트웨어의 클라우드 전환을 위한 인프라 자원 및 재원 지원 △개방형 클라우드 플랫폼 파스-타(PaaS-TA) 활용 기술 지원 △클라우드화를 통한 경쟁력 확보 및 글로벌 진출 토대 지원 등에 상호 협력한다.우선 KT와 상용소프트웨어협회는 200여개 상용소프트웨어기업을 대상으로 KT 파스-타 기반의 클라우드화 1차 사업을 추진한다. 이후 2차 사업에서는 지원 대상 기업과 소프트웨어 분야를 늘릴 계획이다.KT는 이번 사업에서 서비스형 인프라(IaaS)를 제공하고, 기업들이 보다 저렴한 가격으로 이용할 수 있게 지원한다. 인프라닉스와 오픈플랫폼개발자커뮤니티는 클라우드화를 위한 기술과 교육활동을 진행한다.이미희 KT 클라우드·DX사업본부장(상무)은 “이번 클라우드화 사업은 ‘디지털 서비스 전문 계약제도’에 등록할 수 있는 국산 소프트웨어를 늘려 공공기관 정보시스템 클라우드 전환에도 긍정적 영향을 줄 것”이라고 말했다.노재웅 (ripbird@edaily.co.kr)▶ #24시간 빠른 #미리보는 뉴스 #eNews+▶ 네이버에서 '이데일리 뉴스'를 만나보세요▶ 빡침해소, 청춘뉘우스 '스냅타임'＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t>김정국 한국외국어대학교 컴퓨터 및 정보통신공학부 교수.첫 번째 일반소프트웨어(SW) 부문 수상제품인 무하유의 'CK브릿지'은 이러닝 연동 표절검사 솔루션이다.이 제품은 고등학교, 대학, 원격교육기관 등이 사용하는 LMS에 실시간으로 제출되는 과제물의 표절률을 검사하는 제품이다. 60억건 넘는 웹 페이지와 9000만건 이상의 웹 콘텐츠 문서와 비교해 표절 결과를 제공한다.딥러닝 기술로 출처·목차·참고문헌 등을 자동으로 인식해 정확도를 높였다. 빅데이터 기반 자연어 처리 기술로 대량 문서를 실시간으로 처리해 빠른 검사 결과를 제공한다.언택트 기술을 활용한 비대면 교육시장이 급증하는 가운데 부정행위 문제를 해결하기 위한 솔루션으로 성장이 기대된다.두 번째 일반SW 부문 수상제품인 동아피엠의 '스마트오피스 좌석예약시스템'은 스마트오피스 좌석예약 솔루션이다.이 제품은 스마트오피스 환경에서 키오스크, 웹, 모바일 등을 통해 직원들이 자유롭게 좌석을 예약할 수 있는 제품이다. 이름, 시간, 메모 등이 표시되는 전자명패와 좌석변경 시 내선번호와 스마트사물함 연동 등의 기능을 지원한다.특히 사물인터넷(IoT) 적용을 통해 근무환경과 에너지 관리를 지원한다. 층별, 영역별, 선호도 등 다양한 좌석예약 정책을 통해 직원 업무 만족도와 생산성을 유도할 수 있다.언택트 시대에 거점형 스마트오피스가 확대되는 환경에서, 사무 공간 활용 증대와 운용 비용 절감과 함께 기업문화의 혁신을 유도하는데 일조할 것으로 예상된다.김정국 한국외대 컴퓨터·전자시스템공학부 명예교수</t>
+  </si>
+  <si>
+    <t>사진= 무하유. 제공    ㈜무하유(대표 신동호)는 API 연동형 표절검사 서비스 CK브릿지-카피킬러가 28일 신SW상품대상에서 과학기술정보통신부 장관상을 수상했다고 밝혔다. 신 SW상품대상은 과학기술정보통신부 주최로 국내 개발된 소프트웨어 중 우수상품을 선정·시상함으로써 국내 개발 소프트웨어의 판매확대 및 소프트웨어 기업의 개발 의욕을 고취하고 국내 소프트웨어산업을 육성하는 시상이다. 1차 서류심사, 2차 데모심사, 3차 GS인증 심사를 통해 상품성과 기술성, 독창성, SW품질 등의 종합적인 심사를 거친다.이번 수상에서 CK브릿지- 카피킬러는 "언택트 기술을 활용한 비대면 교육시장이 급증하는 가운데 부정행위 문제를 해결하기 위한 솔루션으로 성장이 기대된다"는 평가를 받았다. 과기정통부 장관상을 수상한 CK브릿지-카피킬러는 LMS에 연동하여 사용할 수 있는 국내 유일의 API형 표절검사 서비스이다. LMS에 제출되는 과제물을 실시간으로 표절검사하여 교강사가 평가에 활용할 수 있는 정확한 표절률과 비교된 문서의 정보를 제공한다. CK브릿지에는 딥러닝 기술을 적용해 표지, 목차, 참고문헌 등의 문서 영역을 자동으로 인식해 표절률에서 제외하는 것은 물론이고, 올바르게 작성한 출처표기만을 인식해서 표절률에서 제외한다. 또한, 학내에서 공유되는 족보를 사용한 표절이나 소스코드 표절 검사도 가능하다. 신동호 무하유 대표는 "CK브릿지는 코로나 19라는 팬데믹 상황에서 교육시장의 필수 서비스가 되었다"며, "이번 수상을 통해 이를 인정받게 되어 기쁘게 생각한다"고 밝혔다. 한편, 무하유는 지난해 일본어 전용 표절검사 서비스 '카피모니터'로 일본에 진출한 바 있으며, CK브릿지와 같은 일본 교육시장용 LMS API 연동형 표절검사 서비스를  출시 할 예정이다.</t>
+  </si>
+  <si>
+    <t>분주히 오가는 물류 로봇(서울=연합뉴스) 홍해인 기자 = 10일 서울 마포구 문화비축기지에서 개막한 서울 스마트 모빌리티 엑스포에서 첨단물류센터의 로봇이 센터 내 동선을 따라 물품을 옮기고 있다. 2021.6.10 hihong@yna.co.kr    (부산=연합뉴스) 조정호 기자 = 부산정보산업진흥원은 2021년 지역 대학 연계 소프트웨어(SW) 인재 육성 프로그램 모집 공모에서 한국해양대, 동의대, 부산경상대 등 3개 대학을 선정했다고 14일 밝혔다.    이들 대학은 부산지역 대학생과 취업준비생을 대상으로 스마트 물류·물류 정보기술(IT)·SW 교육을 한다.          대학별로 특화된 실무 맞춤형 이론 실습 과정을 마련하고 취업역량 강화를 위한 기업특강, 멘토링도 함께 준비한다.     한국해양대는 물류시스템공학과 교과목을 개설하고 3가지(데이터분석과 머신러닝 활용, 스마트 물류 ICT·빅데이터, 물류 SW 취업 교육) 교육을 한다.    동의대는 스마트 물류 분야 이론, 실습, 취업 지원 교육과정을 마련하고, 부산경상대는 선박화물운영시스템(CASP), 국제물류 ERP(WIN-SABIS) 등 기업에서 실제 사용되는 프로그램을 실습하는 현장실무능력에 중점을 둘 계획이다.     이인숙 진흥원 원장은 "디지털 전환 가속화에 따라 물류 IT·SW 수요가 증가하고 있다"며 "스마트 물류와 SW 개발자를 육성하는 이번 교육은 지역 기업과 교육생에게 일자리를 매칭하는 데 도움이 될 것"이라고 말했다.     ccho@yna.co.kr▶네이버에서도 뉴스는 연합뉴스[구독 클릭]▶[팩트체크]감사원 조사대상에 국회의원 왜 안되나?▶제보하기&lt;저작권자(c) 연합뉴스(https://www.yna.co.kr/), 무단 전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>SW 교육 전문가 양성 및 정보소외계층 대상 교육24일까지 페스티벌 온라인 운영경기SW미래채움 페스티벌. *재판매 및 DB 금지[수원=뉴시스]박상욱 기자 = '경기SW미래채움 센터'가 오는 24일 광교 경기도경제과학진흥원에서 개소식을 갖는다.경기도와 경기도경제과학진흥원은 지난해 도내 미래교육 생태계 조성을 위해 소프트웨어(SW) 미래채움사업을 추진했으며, 올해 '경기SW미래채움 센터'를 구축하게 됐다.'경기SW미래채움 센터'는 북부(의정부), 남부(수원) 두 곳에 거점센터를 두고 있다. 교육실, 미디어존, 메이커 및 전시공간, 영상실, 체험존 등을 조성해 지역의 소프트웨어 교육 전문가를 양성하고 초·중·고등학생 및 정보소외계층을 대상으로 AI 코딩, 로봇 체험 등의 소프트웨어 교육을 제공할 예정이다.더불어 오는 24일까지 7일간 2021년 경기SW미래채움 페스티벌이 온라인으로 운영된다. 페스티벌은 ▲SW분야 전문가 강연 및 패널토크 ▲SW미래채움센터 소속강사 체험수업 ▲'경기SW미래채움 로블록스 월드' 프로그램 등으로 구성된다. SW분야에 관심있는 학생, 학부모, 교사 등 누구나 선착순으로 참여할 수 있다. 홈페이지(www.sweduhub.com)를 통해 신청 가능하다.자세한 사항은 경과원 미래기술진흥팀(031-710-8712)으로 문의하면 된다.☞공감언론 뉴시스 sw78@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>[부산=뉴시스] 부산 부산진구 동의대학교. (사진=동의대 제공) *재판매 및 DB 금지[부산=뉴시스] 하경민 기자 = 동의대는 한국해양대, 부산경상대, 부산정보산업진흥원 등과 부산 스마트물류 소프트웨어(SW) 인재 양성에 나선다고 15일 밝혔다. 부산정보산업진흥원은 최근 2021년 지역 대학 연계 SW인재 육성 프로그램 모집공모와 발표평가, 현장실사를 거쳐 동의대 유통물류학과를 포함한 3개 대학을 선정했다. 선정된 대학들은 재학생과 취업준비생을 대상으로 물류IT·SW 교육을 실시하게 된다.  동의대는 오는 21일부터 7월 28일까지 부산소재 대학 재학생과 취업준비생을 대상으로 스마트 물류 분야 이론과 실습, 취업지원을 위한 자소서 지도와 멘토링 등의 교육과정을 구성하고, 4차 산업혁명 시대에 적합한 스마트물류 전문가를 양성을 추진할 예정이다. ◇부산문화재단, 찾아가는 베란다 콘서트 개최부산문화재단은 코로나19 사태로 공연장을 찾기 어려워진 시민들이 일상에서 안전하게 공연을 즐길 수 있도록 '찾아가는 베란다 콘서트'를 개최한다고 15일 밝혔다.BNK부산은행의 기부를 통해 기획된 이번 찾아가는 베란다 콘서트는 4.5t 트럭을 무대로 개조한 '달리는 부산문화' 차량을 활용해 진행한다. 공연은 오는 18일 부산진구 당감동일스위트아파트, 27일 북구 금정산LH뉴웰시티아파트에서 진행되며, 7~8월 공연장소도 모집하고 있다.자세한 내용은 부산문화재단 홈페이지를 통해 확인할 수 있다.☞공감언론 뉴시스 yulnetphoto@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>홍남기 부총리 "민간주도의 맞춤형 훈련 통해 청년 스킬업 도울 것"(지디넷코리아=임유경  기자)정부가 최근 폭발적으로 증가하고 있는 소프트웨어(SW) 인력 수요에 대응하기 위해, 2025년까지 총 41만4천명의 SW인재를 양성하는 것을 목표로 한 종합대책을 내놨다. 기업과 대학이 인재양성 협력모델을 만들도록 정부가 지원하는 등 '민간이 주도하는 SW인재 양성' 구조를 만드는 게 이번 대책의 핵심이다. 이외에도 SW중심대학을 현재 41개에서 2025년까지 64개로 확대해 실질적으로 사회에 배출되는 전공자가 크게 늘어나도록 했다.정부는 9일 이 같은 내용이 담긴 '민관 협력 기반의 SW인력양성 대책'을 발표했다.이번 대책은 크게 고용노동부가 주관하는 SW인력 단기 정책과 과학기술정보통신부가 주관하는 장기 정책으로 구성됐다.단기정책은 중소·벤처기업의 시급한 인력 부족 해결에 초점을 맞췄다. 기업 주도의 단기 훈련과정을 확대하고 재직자 훈련 지원을 강화해 기업들이 당장 필요한 인재를 배출한다는 계획이다. 정부는 단기정책을 통해 총 2.1만명의 중급인재를 내년 상반기까지 단기간에 양성할 수 있을 것으로 예상하고 있다.이를 위해 기업 주도의 새로운 '단기 훈련과정'을 마련했다. 기업이 필요한 인력을 직접 선발하면 협회나 훈련기관등이 현장실습 중심의 훈련과정을 설계하고, 정부가 훈련비와 채용 시 인건비 등을 지원하는 방안이다.또 재직자 훈련 지원도 강화했다. 벤처·중소기업 재직자의 SW 역량을 높일 수 있도록 현장훈련 지원(S-OJT)을 대폭 강화할 계획이다. 단기과정으로 끝났던 현장 훈련을 장기과정으로 개선하고 프로젝트 기반 훈련모델도 도입하기로 했다.출처=이미지투데이중기정책은 고급·전문 인재 양성에 초점을 맞췄다. 기업·대학 협력모델을 지속 확산하는 한편, 학교를 통한 SW 전공자도 확대하는 정책이 담겼다. 중기적 관점에서 2025년까지 고급인재 2천400명을 포함한, 6만8천명의 SW인재를 추가적으로 양성할 계획이다.그 일환으로 기업이 대학 내에 교육과정을 운영하는 '캠퍼스 SW 아카데미',  대학이 공동으로 기업의 교육과정을 활용하는 '네트워크형 캠퍼스 SW 아카데미'를 새롭게 추진한다.또한, SW 전공자 양성을 위해 SW중심대학을 확대하고 인턴십 등 기업과 연계한 현장실습 교육도 강화한다. SW중심대학은 현장중심의 문제해결능력을 갖춘 SW전문교육 강화를 통해 핵심인재 양성체계를 구축하고, 대학 SW교육을 혁신하는 대학 지원 사업이다. 현재 41개 대학이 지정돼 있는데, 2025까지 64개로 확대한다는 계획이다.이와 함께, 디지털 핵심 실무인재 양성사업 K-디지털 트레이닝, 이노베이션 아카데미, SW 마에스트로 등 기존 인재양성사업을 지속 확대할 계획이다.정부는 이번 대책의 성공적인 추진을 위해 벤처기업협회, SW산업협회, 코리아스타트업포럼 등 산업계와 실천협약을 체결하고, 상호 긴밀하게 협력하기로 했다.단기 정책과 중기 정책을 합치면, 2025년까지 총 '8만9천명'의 SW역량을 갖춘 인재를 추가로 양성된다는 게 정부의 설명이다. SW정책연구소에 따르면 2025년까지 기업 수요 대비 3만명의 SW인력이 부족할 것으로 예상됐는데, 이번 대책으로 예사 부족인력의 약 3배를 추가 양성할 수 있게 됐다.2025년까지 대학 등 교육과정 양성되는 SW인재 11만명에 기존 정부 인력양성사업 21만4천명, 이번 대책으로 추가 양성되는 8만9천명까지 합치면 총 41만4천명의 인재가 양성된다.홍남기 부총리는 이번 대책과 관련해 "인공지능(AI), 사물인터넷(IoT), 빅데이터 등 SW 신기술은 미래 신산업 및 혁신성장의 핵심동력인 만큼 SW 신기술을 보유한 인력양성을 위한 적극적 투자는 곧 국가미래에 대한 투자"라며 "민간주도의 맞춤형 훈련을 통해 청년들이 취·창업의 전쟁터에서 살아남을 수 있도록 스킬업하고, 배출된 SW인재가 IT업계를 포함한 전산업의 스케일업을 뒷받침할 수 있기를 기대한다"고 말했다.한편, 홍남기 부총리와 임혜숙 과기부장관 안경덕 고용부 장관, 차정훈 중기부 창업벤처혁신실장 등은 이날 SW 인재양성 기관 코드스테이츠를 방문해 기업체와 간담회를 가졌다. 이번 방문은 "기업이 필요로 하는 인재는 기업이 가장 잘 안다"는 인식하에 기업인·전문가 간담회를 거쳐 마련한 '민‧관 협력 기반의 SW 인재양성 대책'을 관련 기업, 훈련기관, 협회 등 관련자가 모인 현장에서 합동으로 발표하기 위해 이뤄졌다.홍 부총리는 간담회에서 "산업계 수요를 반영한 맞춤형 SW인재가 양질의 일자리에 취업할 수 있는 성공모델로 자리잡을 수 있도록 관계부처와 지속 협력하여 관심과 지원을 아끼지 않을 예정"이라고 밝혔다.임유경 기자(lyk@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기© 메가뉴스 &amp; ZDNET, A RED VENTURES COMPANY, 무단전재-재배포 금지</t>
   </si>
 </sst>
 </file>
@@ -729,13 +705,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,498 +724,468 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
         <v>79</v>
       </c>
-      <c r="E23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>114</v>
+      <c r="F24" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1267,12 +1213,6 @@
     <hyperlink ref="B22" r:id="rId21"/>
     <hyperlink ref="B23" r:id="rId22"/>
     <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
